--- a/DCC_UI_blank.xlsx
+++ b/DCC_UI_blank.xlsx
@@ -8,17 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\tesla\data\MS\DBH\Projects\1901 NY-INFRA-FOT\DCC\Software\DCCtables\master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259A820E-249F-4A37-8D65-076AFABD4C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85B6A31-A116-417F-859D-7523580CB3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="37220" windowHeight="21820" tabRatio="788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7730" yWindow="3980" windowWidth="24470" windowHeight="15220" tabRatio="788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Definitions" sheetId="2" r:id="rId1"/>
-    <sheet name="Software" sheetId="8" state="hidden" r:id="rId2"/>
-    <sheet name="Locations" sheetId="15" state="hidden" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
     <definedName name="accreditationApplicabilityType">Definitions!$E$2:$E$3</definedName>
@@ -73,189 +71,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Value</t>
-  </si>
-  <si>
-    <t>DFM A/S</t>
-  </si>
-  <si>
-    <t>Administration@dfm.dk</t>
-  </si>
-  <si>
-    <t>+45 7730 5800</t>
-  </si>
-  <si>
-    <t>Hørsholm</t>
-  </si>
-  <si>
-    <t>DK</t>
-  </si>
-  <si>
-    <t>2970</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>www.dfm.dk</t>
-  </si>
-  <si>
-    <t>Danish Measurement Company Ltd.</t>
-  </si>
-  <si>
-    <t>mm@dmc.dk</t>
-  </si>
-  <si>
-    <t>Måløv</t>
-  </si>
-  <si>
-    <t>9899</t>
-  </si>
-  <si>
-    <t>Målervej</t>
-  </si>
-  <si>
-    <t>16, 1. sal</t>
-  </si>
-  <si>
-    <t>Mads Målermand</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>swID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">release </t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>file</t>
-  </si>
-  <si>
-    <t>formula</t>
-  </si>
-  <si>
-    <t>Kogle Alle</t>
-  </si>
-  <si>
-    <t>laboratory</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>cust</t>
-  </si>
-  <si>
-    <t>lab</t>
-  </si>
-  <si>
-    <t>Street1</t>
-  </si>
-  <si>
-    <t>heading lang1</t>
-  </si>
-  <si>
-    <t>heading lang2</t>
-  </si>
-  <si>
-    <t>34507624</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>CompanyName</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>PostalCode</t>
-  </si>
-  <si>
-    <t>Street_No</t>
-  </si>
-  <si>
-    <t>Webpage</t>
-  </si>
-  <si>
-    <t>Street2</t>
-  </si>
-  <si>
-    <t>customer</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Att</t>
-  </si>
-  <si>
-    <t>Company name</t>
-  </si>
-  <si>
-    <t>Firmanavn</t>
-  </si>
-  <si>
-    <t>Tel.:</t>
-  </si>
-  <si>
-    <t>email:</t>
-  </si>
-  <si>
-    <t>Phone:</t>
-  </si>
-  <si>
-    <t>City:</t>
-  </si>
-  <si>
-    <t>By:</t>
-  </si>
-  <si>
-    <t>Landekode:</t>
-  </si>
-  <si>
-    <t>Country code</t>
-  </si>
-  <si>
-    <t>Postal Code</t>
-  </si>
-  <si>
-    <t>Postnr.:</t>
-  </si>
-  <si>
-    <t>Calibration laboratory</t>
-  </si>
-  <si>
-    <t>Kalibreringslaboratoriet</t>
-  </si>
-  <si>
-    <t>Client</t>
-  </si>
-  <si>
-    <t>Kunde</t>
   </si>
   <si>
     <t>Parameter</t>
@@ -277,7 +95,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,14 +122,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -330,44 +140,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -530,23 +317,6 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:H6" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:H6" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="swID"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="release "/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="type"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="description"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="content"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="file"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="formula"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -871,7 +641,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -879,19 +649,19 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="L3" s="1"/>
     </row>
@@ -940,297 +710,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P46" sqref="P46"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.81640625" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:P16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1"/>
-    <col min="2" max="2" width="25.54296875" customWidth="1"/>
-    <col min="3" max="3" width="34.81640625" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" customWidth="1"/>
-    <col min="6" max="6" width="15.1796875" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" customWidth="1"/>
-    <col min="12" max="12" width="13.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16">
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="B9" s="3"/>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="B15" s="5"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="B16" s="4"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="O4" r:id="rId1" display="www.dfm.dk" xr:uid="{D844B87A-F6B8-451D-B8BF-975CF3E92642}"/>
-    <hyperlink ref="H4" r:id="rId2" xr:uid="{73FD074B-6D0C-4999-ACA1-30AD886FD9AB}"/>
-    <hyperlink ref="P4" r:id="rId3" xr:uid="{153A4F9C-AACC-4026-9BDC-B9B73A9C4501}"/>
-    <hyperlink ref="H5" r:id="rId4" xr:uid="{0AF9D9D2-0BDE-4EE4-8AF5-708EE8F6F186}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/DCC_UI_blank.xlsx
+++ b/DCC_UI_blank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\tesla\data\MS\DBH\Projects\1901 NY-INFRA-FOT\DCC\Software\DCCtables\master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88771BC6-BEA9-4527-9B19-DE55AC6816B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520BD5D8-B46E-41D7-BFB7-C44E680E5B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="360" windowWidth="18020" windowHeight="11980" tabRatio="788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27645" windowHeight="16440" tabRatio="788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Definitions" sheetId="2" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <definedName name="EquipmentCategories">Definitions!$G$2:$G$3</definedName>
     <definedName name="equipmentCategoryType">Definitions!$G$2:$G$8</definedName>
     <definedName name="issuerType">Definitions!$H$2:$H$4</definedName>
+    <definedName name="mathOperatorType">Definitions!$R$2:$R$10</definedName>
     <definedName name="measurandType">Definitions!$N$2:$N$569</definedName>
     <definedName name="measuringSystemIdRange">#REF!</definedName>
     <definedName name="metaDataCategoryType">Definitions!$M$2:$M$15</definedName>
@@ -37,7 +38,8 @@
     <definedName name="MetaType">Definitions!$B$2:$B$21</definedName>
     <definedName name="notEmptyStringType">Definitions!$C$2</definedName>
     <definedName name="operationalStatusType">Definitions!$I$2:$I$5</definedName>
-    <definedName name="quantityCodeSystemType">Definitions!$Q$2:$Q$8</definedName>
+    <definedName name="quantityCodeSystemType">Definitions!$Q$2:$Q$9</definedName>
+    <definedName name="quantityType">Definitions!$N$2:$N$569</definedName>
     <definedName name="quantityUnitDefIdRange">#REF!</definedName>
     <definedName name="rgKommentar">[1]ODBC!$O$7:$P$19</definedName>
     <definedName name="scopeType">Definitions!$L$2:$L$7</definedName>
@@ -74,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="1526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="1536">
   <si>
     <t>Value</t>
   </si>
@@ -2911,9 +2913,6 @@
     <t>approachToTarget</t>
   </si>
   <si>
-    <t>measurandType</t>
-  </si>
-  <si>
     <t>quantityUnitDefRef</t>
   </si>
   <si>
@@ -4652,6 +4651,39 @@
   </si>
   <si>
     <t>mlayer.org</t>
+  </si>
+  <si>
+    <t>quantityType</t>
+  </si>
+  <si>
+    <t>ptb.de</t>
+  </si>
+  <si>
+    <t>mathOperatorType</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>ln</t>
+  </si>
+  <si>
+    <t>e^</t>
+  </si>
+  <si>
+    <t>log10</t>
+  </si>
+  <si>
+    <t>10^</t>
+  </si>
+  <si>
+    <t>end</t>
   </si>
 </sst>
 </file>
@@ -5180,31 +5212,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q863"/>
+  <dimension ref="A1:R863"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.81640625" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="22.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="37.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1">
+    <row r="1" spans="1:18" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -5245,19 +5277,22 @@
         <v>919</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>945</v>
+        <v>1525</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1519</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+        <v>1518</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5301,16 +5336,19 @@
         <v>918</v>
       </c>
       <c r="O2" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="P2" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="Q2" t="s">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>1519</v>
+      </c>
+      <c r="R2" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -5351,19 +5389,22 @@
         <v>920</v>
       </c>
       <c r="N3" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="O3" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="P3" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="Q3" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>1520</v>
+      </c>
+      <c r="R3" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="C4" t="s">
         <v>9</v>
       </c>
@@ -5392,13 +5433,16 @@
         <v>921</v>
       </c>
       <c r="N4" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="Q4" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>1521</v>
+      </c>
+      <c r="R4" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="C5" t="s">
         <v>10</v>
       </c>
@@ -5424,13 +5468,16 @@
         <v>922</v>
       </c>
       <c r="N5" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="Q5" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>1524</v>
+      </c>
+      <c r="R5" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -5453,13 +5500,16 @@
         <v>923</v>
       </c>
       <c r="N6" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="Q6" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>1522</v>
+      </c>
+      <c r="R6" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1"/>
       <c r="C7" t="s">
         <v>12</v>
@@ -5480,13 +5530,16 @@
         <v>924</v>
       </c>
       <c r="N7" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="Q7" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>1523</v>
+      </c>
+      <c r="R7" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="C8" t="s">
         <v>13</v>
       </c>
@@ -5500,13 +5553,16 @@
         <v>925</v>
       </c>
       <c r="N8" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="Q8" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>1526</v>
+      </c>
+      <c r="R8" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="C9" t="s">
         <v>14</v>
       </c>
@@ -5517,10 +5573,16 @@
         <v>926</v>
       </c>
       <c r="N9" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>951</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>893</v>
+      </c>
+      <c r="R9" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -5531,10 +5593,13 @@
         <v>927</v>
       </c>
       <c r="N10" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>952</v>
+      </c>
+      <c r="R10" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="C11" t="s">
         <v>16</v>
       </c>
@@ -5545,10 +5610,10 @@
         <v>928</v>
       </c>
       <c r="N11" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="C12" t="s">
         <v>17</v>
       </c>
@@ -5556,10 +5621,10 @@
         <v>929</v>
       </c>
       <c r="N12" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="C13" t="s">
         <v>18</v>
       </c>
@@ -5567,10 +5632,10 @@
         <v>930</v>
       </c>
       <c r="N13" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="C14" t="s">
         <v>19</v>
       </c>
@@ -5578,10 +5643,10 @@
         <v>931</v>
       </c>
       <c r="N14" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -5589,10 +5654,10 @@
         <v>932</v>
       </c>
       <c r="N15" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="C16" t="s">
         <v>21</v>
       </c>
@@ -5600,7 +5665,7 @@
         <v>933</v>
       </c>
       <c r="N16" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="17" spans="3:14">
@@ -5611,7 +5676,7 @@
         <v>934</v>
       </c>
       <c r="N17" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="18" spans="3:14">
@@ -5622,7 +5687,7 @@
         <v>935</v>
       </c>
       <c r="N18" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="19" spans="3:14">
@@ -5633,7 +5698,7 @@
         <v>936</v>
       </c>
       <c r="N19" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="20" spans="3:14">
@@ -5644,7 +5709,7 @@
         <v>937</v>
       </c>
       <c r="N20" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="21" spans="3:14">
@@ -5655,7 +5720,7 @@
         <v>938</v>
       </c>
       <c r="N21" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="22" spans="3:14">
@@ -5666,7 +5731,7 @@
         <v>939</v>
       </c>
       <c r="N22" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="23" spans="3:14">
@@ -5677,7 +5742,7 @@
         <v>940</v>
       </c>
       <c r="N23" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="24" spans="3:14">
@@ -5688,7 +5753,7 @@
         <v>941</v>
       </c>
       <c r="N24" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="25" spans="3:14">
@@ -5699,7 +5764,7 @@
         <v>942</v>
       </c>
       <c r="N25" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="26" spans="3:14">
@@ -5710,7 +5775,7 @@
         <v>943</v>
       </c>
       <c r="N26" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="27" spans="3:14">
@@ -5721,7 +5786,7 @@
         <v>944</v>
       </c>
       <c r="N27" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="28" spans="3:14">
@@ -5732,7 +5797,7 @@
         <v>893</v>
       </c>
       <c r="N28" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="29" spans="3:14">
@@ -5740,7 +5805,7 @@
         <v>34</v>
       </c>
       <c r="N29" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="30" spans="3:14">
@@ -5748,7 +5813,7 @@
         <v>35</v>
       </c>
       <c r="N30" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="31" spans="3:14">
@@ -5756,7 +5821,7 @@
         <v>36</v>
       </c>
       <c r="N31" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="32" spans="3:14">
@@ -5764,7 +5829,7 @@
         <v>37</v>
       </c>
       <c r="N32" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="33" spans="3:14">
@@ -5772,7 +5837,7 @@
         <v>38</v>
       </c>
       <c r="N33" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="34" spans="3:14">
@@ -5780,7 +5845,7 @@
         <v>39</v>
       </c>
       <c r="N34" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="35" spans="3:14">
@@ -5788,7 +5853,7 @@
         <v>40</v>
       </c>
       <c r="N35" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="36" spans="3:14">
@@ -5796,7 +5861,7 @@
         <v>41</v>
       </c>
       <c r="N36" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="37" spans="3:14">
@@ -5804,7 +5869,7 @@
         <v>42</v>
       </c>
       <c r="N37" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="38" spans="3:14">
@@ -5812,7 +5877,7 @@
         <v>43</v>
       </c>
       <c r="N38" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="39" spans="3:14">
@@ -5820,7 +5885,7 @@
         <v>44</v>
       </c>
       <c r="N39" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="40" spans="3:14">
@@ -5828,7 +5893,7 @@
         <v>45</v>
       </c>
       <c r="N40" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="41" spans="3:14">
@@ -5836,7 +5901,7 @@
         <v>46</v>
       </c>
       <c r="N41" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="42" spans="3:14">
@@ -5844,7 +5909,7 @@
         <v>47</v>
       </c>
       <c r="N42" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="43" spans="3:14">
@@ -5852,7 +5917,7 @@
         <v>48</v>
       </c>
       <c r="N43" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="44" spans="3:14">
@@ -5860,7 +5925,7 @@
         <v>49</v>
       </c>
       <c r="N44" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="45" spans="3:14">
@@ -5868,7 +5933,7 @@
         <v>50</v>
       </c>
       <c r="N45" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="46" spans="3:14">
@@ -5876,7 +5941,7 @@
         <v>51</v>
       </c>
       <c r="N46" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="47" spans="3:14">
@@ -5884,7 +5949,7 @@
         <v>52</v>
       </c>
       <c r="N47" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="48" spans="3:14">
@@ -5892,7 +5957,7 @@
         <v>53</v>
       </c>
       <c r="N48" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="49" spans="3:14">
@@ -5900,7 +5965,7 @@
         <v>54</v>
       </c>
       <c r="N49" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="50" spans="3:14">
@@ -5908,7 +5973,7 @@
         <v>55</v>
       </c>
       <c r="N50" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="51" spans="3:14">
@@ -5916,7 +5981,7 @@
         <v>56</v>
       </c>
       <c r="N51" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="52" spans="3:14">
@@ -5924,7 +5989,7 @@
         <v>57</v>
       </c>
       <c r="N52" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="53" spans="3:14">
@@ -5932,7 +5997,7 @@
         <v>58</v>
       </c>
       <c r="N53" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="54" spans="3:14">
@@ -5940,7 +6005,7 @@
         <v>59</v>
       </c>
       <c r="N54" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="55" spans="3:14">
@@ -5948,7 +6013,7 @@
         <v>60</v>
       </c>
       <c r="N55" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="56" spans="3:14">
@@ -5956,7 +6021,7 @@
         <v>61</v>
       </c>
       <c r="N56" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="57" spans="3:14">
@@ -5964,7 +6029,7 @@
         <v>62</v>
       </c>
       <c r="N57" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="58" spans="3:14">
@@ -5972,7 +6037,7 @@
         <v>63</v>
       </c>
       <c r="N58" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="59" spans="3:14">
@@ -5980,7 +6045,7 @@
         <v>64</v>
       </c>
       <c r="N59" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="60" spans="3:14">
@@ -5988,7 +6053,7 @@
         <v>65</v>
       </c>
       <c r="N60" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="61" spans="3:14">
@@ -5996,7 +6061,7 @@
         <v>66</v>
       </c>
       <c r="N61" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="62" spans="3:14">
@@ -6004,7 +6069,7 @@
         <v>67</v>
       </c>
       <c r="N62" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="63" spans="3:14">
@@ -6012,7 +6077,7 @@
         <v>68</v>
       </c>
       <c r="N63" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="64" spans="3:14">
@@ -6020,7 +6085,7 @@
         <v>69</v>
       </c>
       <c r="N64" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="65" spans="3:14">
@@ -6028,7 +6093,7 @@
         <v>70</v>
       </c>
       <c r="N65" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="66" spans="3:14">
@@ -6036,7 +6101,7 @@
         <v>71</v>
       </c>
       <c r="N66" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="67" spans="3:14">
@@ -6044,7 +6109,7 @@
         <v>72</v>
       </c>
       <c r="N67" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="68" spans="3:14">
@@ -6052,7 +6117,7 @@
         <v>73</v>
       </c>
       <c r="N68" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="69" spans="3:14">
@@ -6060,7 +6125,7 @@
         <v>74</v>
       </c>
       <c r="N69" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="70" spans="3:14">
@@ -6068,7 +6133,7 @@
         <v>75</v>
       </c>
       <c r="N70" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="71" spans="3:14">
@@ -6076,7 +6141,7 @@
         <v>76</v>
       </c>
       <c r="N71" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="72" spans="3:14">
@@ -6084,7 +6149,7 @@
         <v>77</v>
       </c>
       <c r="N72" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="73" spans="3:14">
@@ -6092,7 +6157,7 @@
         <v>78</v>
       </c>
       <c r="N73" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="74" spans="3:14">
@@ -6100,7 +6165,7 @@
         <v>79</v>
       </c>
       <c r="N74" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="75" spans="3:14">
@@ -6108,7 +6173,7 @@
         <v>80</v>
       </c>
       <c r="N75" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="76" spans="3:14">
@@ -6116,7 +6181,7 @@
         <v>81</v>
       </c>
       <c r="N76" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="77" spans="3:14">
@@ -6124,7 +6189,7 @@
         <v>82</v>
       </c>
       <c r="N77" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="78" spans="3:14">
@@ -6132,7 +6197,7 @@
         <v>83</v>
       </c>
       <c r="N78" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="79" spans="3:14">
@@ -6140,7 +6205,7 @@
         <v>84</v>
       </c>
       <c r="N79" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="80" spans="3:14">
@@ -6148,7 +6213,7 @@
         <v>85</v>
       </c>
       <c r="N80" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="81" spans="3:14">
@@ -6156,7 +6221,7 @@
         <v>86</v>
       </c>
       <c r="N81" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="82" spans="3:14">
@@ -6164,7 +6229,7 @@
         <v>87</v>
       </c>
       <c r="N82" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="83" spans="3:14">
@@ -6172,7 +6237,7 @@
         <v>88</v>
       </c>
       <c r="N83" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="84" spans="3:14">
@@ -6180,7 +6245,7 @@
         <v>89</v>
       </c>
       <c r="N84" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="85" spans="3:14">
@@ -6188,7 +6253,7 @@
         <v>90</v>
       </c>
       <c r="N85" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="86" spans="3:14">
@@ -6196,7 +6261,7 @@
         <v>91</v>
       </c>
       <c r="N86" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="87" spans="3:14">
@@ -6204,7 +6269,7 @@
         <v>92</v>
       </c>
       <c r="N87" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="88" spans="3:14">
@@ -6212,7 +6277,7 @@
         <v>93</v>
       </c>
       <c r="N88" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="89" spans="3:14">
@@ -6220,7 +6285,7 @@
         <v>94</v>
       </c>
       <c r="N89" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="90" spans="3:14">
@@ -6228,7 +6293,7 @@
         <v>95</v>
       </c>
       <c r="N90" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="91" spans="3:14">
@@ -6236,7 +6301,7 @@
         <v>96</v>
       </c>
       <c r="N91" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="92" spans="3:14">
@@ -6244,7 +6309,7 @@
         <v>97</v>
       </c>
       <c r="N92" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="93" spans="3:14">
@@ -6252,7 +6317,7 @@
         <v>98</v>
       </c>
       <c r="N93" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="94" spans="3:14">
@@ -6260,7 +6325,7 @@
         <v>99</v>
       </c>
       <c r="N94" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="95" spans="3:14">
@@ -6268,7 +6333,7 @@
         <v>100</v>
       </c>
       <c r="N95" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="96" spans="3:14">
@@ -6276,7 +6341,7 @@
         <v>101</v>
       </c>
       <c r="N96" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="97" spans="3:14">
@@ -6284,7 +6349,7 @@
         <v>102</v>
       </c>
       <c r="N97" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="98" spans="3:14">
@@ -6292,7 +6357,7 @@
         <v>103</v>
       </c>
       <c r="N98" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="99" spans="3:14">
@@ -6300,7 +6365,7 @@
         <v>104</v>
       </c>
       <c r="N99" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="100" spans="3:14">
@@ -6308,7 +6373,7 @@
         <v>105</v>
       </c>
       <c r="N100" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="101" spans="3:14">
@@ -6316,7 +6381,7 @@
         <v>106</v>
       </c>
       <c r="N101" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="102" spans="3:14">
@@ -6324,7 +6389,7 @@
         <v>107</v>
       </c>
       <c r="N102" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="103" spans="3:14">
@@ -6332,7 +6397,7 @@
         <v>108</v>
       </c>
       <c r="N103" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="104" spans="3:14">
@@ -6340,7 +6405,7 @@
         <v>109</v>
       </c>
       <c r="N104" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="105" spans="3:14">
@@ -6348,7 +6413,7 @@
         <v>110</v>
       </c>
       <c r="N105" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="106" spans="3:14">
@@ -6356,7 +6421,7 @@
         <v>111</v>
       </c>
       <c r="N106" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="107" spans="3:14">
@@ -6364,7 +6429,7 @@
         <v>112</v>
       </c>
       <c r="N107" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="108" spans="3:14">
@@ -6372,7 +6437,7 @@
         <v>113</v>
       </c>
       <c r="N108" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="109" spans="3:14">
@@ -6380,7 +6445,7 @@
         <v>114</v>
       </c>
       <c r="N109" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="110" spans="3:14">
@@ -6388,7 +6453,7 @@
         <v>115</v>
       </c>
       <c r="N110" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="111" spans="3:14">
@@ -6396,7 +6461,7 @@
         <v>116</v>
       </c>
       <c r="N111" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="112" spans="3:14">
@@ -6404,7 +6469,7 @@
         <v>117</v>
       </c>
       <c r="N112" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="113" spans="3:14">
@@ -6412,7 +6477,7 @@
         <v>118</v>
       </c>
       <c r="N113" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="114" spans="3:14">
@@ -6420,7 +6485,7 @@
         <v>119</v>
       </c>
       <c r="N114" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="115" spans="3:14">
@@ -6428,7 +6493,7 @@
         <v>120</v>
       </c>
       <c r="N115" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="116" spans="3:14">
@@ -6436,7 +6501,7 @@
         <v>121</v>
       </c>
       <c r="N116" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="117" spans="3:14">
@@ -6444,7 +6509,7 @@
         <v>122</v>
       </c>
       <c r="N117" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="118" spans="3:14">
@@ -6452,7 +6517,7 @@
         <v>123</v>
       </c>
       <c r="N118" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="119" spans="3:14">
@@ -6460,7 +6525,7 @@
         <v>124</v>
       </c>
       <c r="N119" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="120" spans="3:14">
@@ -6468,7 +6533,7 @@
         <v>125</v>
       </c>
       <c r="N120" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="121" spans="3:14">
@@ -6476,7 +6541,7 @@
         <v>126</v>
       </c>
       <c r="N121" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="122" spans="3:14">
@@ -6484,7 +6549,7 @@
         <v>127</v>
       </c>
       <c r="N122" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="123" spans="3:14">
@@ -6492,7 +6557,7 @@
         <v>128</v>
       </c>
       <c r="N123" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="124" spans="3:14">
@@ -6500,7 +6565,7 @@
         <v>129</v>
       </c>
       <c r="N124" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="125" spans="3:14">
@@ -6508,7 +6573,7 @@
         <v>130</v>
       </c>
       <c r="N125" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="126" spans="3:14">
@@ -6516,7 +6581,7 @@
         <v>131</v>
       </c>
       <c r="N126" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="127" spans="3:14">
@@ -6524,7 +6589,7 @@
         <v>132</v>
       </c>
       <c r="N127" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="128" spans="3:14">
@@ -6532,7 +6597,7 @@
         <v>133</v>
       </c>
       <c r="N128" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="129" spans="3:14">
@@ -6540,7 +6605,7 @@
         <v>134</v>
       </c>
       <c r="N129" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="130" spans="3:14">
@@ -6548,7 +6613,7 @@
         <v>135</v>
       </c>
       <c r="N130" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="131" spans="3:14">
@@ -6556,7 +6621,7 @@
         <v>136</v>
       </c>
       <c r="N131" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="132" spans="3:14">
@@ -6564,7 +6629,7 @@
         <v>137</v>
       </c>
       <c r="N132" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="133" spans="3:14">
@@ -6572,7 +6637,7 @@
         <v>138</v>
       </c>
       <c r="N133" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="134" spans="3:14">
@@ -6580,7 +6645,7 @@
         <v>139</v>
       </c>
       <c r="N134" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="135" spans="3:14">
@@ -6588,7 +6653,7 @@
         <v>140</v>
       </c>
       <c r="N135" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="136" spans="3:14">
@@ -6596,7 +6661,7 @@
         <v>141</v>
       </c>
       <c r="N136" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="137" spans="3:14">
@@ -6604,7 +6669,7 @@
         <v>142</v>
       </c>
       <c r="N137" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="138" spans="3:14">
@@ -6612,7 +6677,7 @@
         <v>143</v>
       </c>
       <c r="N138" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="139" spans="3:14">
@@ -6620,7 +6685,7 @@
         <v>144</v>
       </c>
       <c r="N139" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="140" spans="3:14">
@@ -6628,7 +6693,7 @@
         <v>145</v>
       </c>
       <c r="N140" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="141" spans="3:14">
@@ -6636,7 +6701,7 @@
         <v>146</v>
       </c>
       <c r="N141" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="142" spans="3:14">
@@ -6644,7 +6709,7 @@
         <v>147</v>
       </c>
       <c r="N142" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="143" spans="3:14">
@@ -6652,7 +6717,7 @@
         <v>148</v>
       </c>
       <c r="N143" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="144" spans="3:14">
@@ -6660,7 +6725,7 @@
         <v>149</v>
       </c>
       <c r="N144" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="145" spans="3:14">
@@ -6668,7 +6733,7 @@
         <v>150</v>
       </c>
       <c r="N145" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="146" spans="3:14">
@@ -6676,7 +6741,7 @@
         <v>151</v>
       </c>
       <c r="N146" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="147" spans="3:14">
@@ -6684,7 +6749,7 @@
         <v>152</v>
       </c>
       <c r="N147" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="148" spans="3:14">
@@ -6692,7 +6757,7 @@
         <v>153</v>
       </c>
       <c r="N148" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="149" spans="3:14">
@@ -6700,7 +6765,7 @@
         <v>154</v>
       </c>
       <c r="N149" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="150" spans="3:14">
@@ -6708,7 +6773,7 @@
         <v>155</v>
       </c>
       <c r="N150" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="151" spans="3:14">
@@ -6716,7 +6781,7 @@
         <v>156</v>
       </c>
       <c r="N151" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="152" spans="3:14">
@@ -6724,7 +6789,7 @@
         <v>157</v>
       </c>
       <c r="N152" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="153" spans="3:14">
@@ -6732,7 +6797,7 @@
         <v>158</v>
       </c>
       <c r="N153" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="154" spans="3:14">
@@ -6740,7 +6805,7 @@
         <v>159</v>
       </c>
       <c r="N154" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="155" spans="3:14">
@@ -6748,7 +6813,7 @@
         <v>160</v>
       </c>
       <c r="N155" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="156" spans="3:14">
@@ -6756,7 +6821,7 @@
         <v>161</v>
       </c>
       <c r="N156" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="157" spans="3:14">
@@ -6764,7 +6829,7 @@
         <v>162</v>
       </c>
       <c r="N157" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="158" spans="3:14">
@@ -6772,7 +6837,7 @@
         <v>163</v>
       </c>
       <c r="N158" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="159" spans="3:14">
@@ -6780,7 +6845,7 @@
         <v>164</v>
       </c>
       <c r="N159" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="160" spans="3:14">
@@ -6788,7 +6853,7 @@
         <v>165</v>
       </c>
       <c r="N160" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="161" spans="3:14">
@@ -6796,7 +6861,7 @@
         <v>166</v>
       </c>
       <c r="N161" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="162" spans="3:14">
@@ -6804,7 +6869,7 @@
         <v>167</v>
       </c>
       <c r="N162" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="163" spans="3:14">
@@ -6812,7 +6877,7 @@
         <v>168</v>
       </c>
       <c r="N163" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="164" spans="3:14">
@@ -6820,7 +6885,7 @@
         <v>169</v>
       </c>
       <c r="N164" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="165" spans="3:14">
@@ -6828,7 +6893,7 @@
         <v>170</v>
       </c>
       <c r="N165" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="166" spans="3:14">
@@ -6836,7 +6901,7 @@
         <v>171</v>
       </c>
       <c r="N166" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="167" spans="3:14">
@@ -6844,7 +6909,7 @@
         <v>172</v>
       </c>
       <c r="N167" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="168" spans="3:14">
@@ -6852,7 +6917,7 @@
         <v>173</v>
       </c>
       <c r="N168" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="169" spans="3:14">
@@ -6860,7 +6925,7 @@
         <v>174</v>
       </c>
       <c r="N169" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="170" spans="3:14">
@@ -6868,7 +6933,7 @@
         <v>175</v>
       </c>
       <c r="N170" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="171" spans="3:14">
@@ -6876,7 +6941,7 @@
         <v>176</v>
       </c>
       <c r="N171" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="172" spans="3:14">
@@ -6884,7 +6949,7 @@
         <v>177</v>
       </c>
       <c r="N172" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="173" spans="3:14">
@@ -6892,7 +6957,7 @@
         <v>178</v>
       </c>
       <c r="N173" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="174" spans="3:14">
@@ -6900,7 +6965,7 @@
         <v>179</v>
       </c>
       <c r="N174" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="175" spans="3:14">
@@ -6908,7 +6973,7 @@
         <v>180</v>
       </c>
       <c r="N175" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="176" spans="3:14">
@@ -6916,7 +6981,7 @@
         <v>181</v>
       </c>
       <c r="N176" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="177" spans="3:14">
@@ -6924,7 +6989,7 @@
         <v>182</v>
       </c>
       <c r="N177" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="178" spans="3:14">
@@ -6932,7 +6997,7 @@
         <v>183</v>
       </c>
       <c r="N178" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="179" spans="3:14">
@@ -6940,7 +7005,7 @@
         <v>184</v>
       </c>
       <c r="N179" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="180" spans="3:14">
@@ -6948,7 +7013,7 @@
         <v>185</v>
       </c>
       <c r="N180" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="181" spans="3:14">
@@ -6956,7 +7021,7 @@
         <v>186</v>
       </c>
       <c r="N181" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="182" spans="3:14">
@@ -6964,7 +7029,7 @@
         <v>187</v>
       </c>
       <c r="N182" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="183" spans="3:14">
@@ -6972,7 +7037,7 @@
         <v>188</v>
       </c>
       <c r="N183" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="184" spans="3:14">
@@ -6980,7 +7045,7 @@
         <v>189</v>
       </c>
       <c r="N184" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="185" spans="3:14">
@@ -6988,7 +7053,7 @@
         <v>190</v>
       </c>
       <c r="N185" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="186" spans="3:14">
@@ -6996,7 +7061,7 @@
         <v>191</v>
       </c>
       <c r="N186" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="187" spans="3:14">
@@ -7004,7 +7069,7 @@
         <v>192</v>
       </c>
       <c r="N187" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="188" spans="3:14">
@@ -7012,7 +7077,7 @@
         <v>193</v>
       </c>
       <c r="N188" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="189" spans="3:14">
@@ -7020,7 +7085,7 @@
         <v>194</v>
       </c>
       <c r="N189" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="190" spans="3:14">
@@ -7028,7 +7093,7 @@
         <v>195</v>
       </c>
       <c r="N190" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="191" spans="3:14">
@@ -7036,7 +7101,7 @@
         <v>196</v>
       </c>
       <c r="N191" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="192" spans="3:14">
@@ -7044,7 +7109,7 @@
         <v>197</v>
       </c>
       <c r="N192" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="193" spans="3:14">
@@ -7052,7 +7117,7 @@
         <v>198</v>
       </c>
       <c r="N193" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="194" spans="3:14">
@@ -7060,7 +7125,7 @@
         <v>199</v>
       </c>
       <c r="N194" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="195" spans="3:14">
@@ -7068,7 +7133,7 @@
         <v>200</v>
       </c>
       <c r="N195" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="196" spans="3:14">
@@ -7076,7 +7141,7 @@
         <v>201</v>
       </c>
       <c r="N196" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="197" spans="3:14">
@@ -7084,7 +7149,7 @@
         <v>202</v>
       </c>
       <c r="N197" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="198" spans="3:14">
@@ -7092,7 +7157,7 @@
         <v>203</v>
       </c>
       <c r="N198" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="199" spans="3:14">
@@ -7100,7 +7165,7 @@
         <v>204</v>
       </c>
       <c r="N199" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="200" spans="3:14">
@@ -7108,7 +7173,7 @@
         <v>205</v>
       </c>
       <c r="N200" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="201" spans="3:14">
@@ -7116,7 +7181,7 @@
         <v>206</v>
       </c>
       <c r="N201" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="202" spans="3:14">
@@ -7124,7 +7189,7 @@
         <v>207</v>
       </c>
       <c r="N202" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="203" spans="3:14">
@@ -7132,7 +7197,7 @@
         <v>208</v>
       </c>
       <c r="N203" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="204" spans="3:14">
@@ -7140,7 +7205,7 @@
         <v>209</v>
       </c>
       <c r="N204" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="205" spans="3:14">
@@ -7148,7 +7213,7 @@
         <v>210</v>
       </c>
       <c r="N205" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="206" spans="3:14">
@@ -7156,7 +7221,7 @@
         <v>211</v>
       </c>
       <c r="N206" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="207" spans="3:14">
@@ -7164,7 +7229,7 @@
         <v>212</v>
       </c>
       <c r="N207" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="208" spans="3:14">
@@ -7172,7 +7237,7 @@
         <v>213</v>
       </c>
       <c r="N208" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="209" spans="3:14">
@@ -7180,7 +7245,7 @@
         <v>214</v>
       </c>
       <c r="N209" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="210" spans="3:14">
@@ -7188,7 +7253,7 @@
         <v>215</v>
       </c>
       <c r="N210" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="211" spans="3:14">
@@ -7196,7 +7261,7 @@
         <v>216</v>
       </c>
       <c r="N211" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="212" spans="3:14">
@@ -7204,7 +7269,7 @@
         <v>217</v>
       </c>
       <c r="N212" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="213" spans="3:14">
@@ -7212,7 +7277,7 @@
         <v>218</v>
       </c>
       <c r="N213" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="214" spans="3:14">
@@ -7220,7 +7285,7 @@
         <v>219</v>
       </c>
       <c r="N214" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="215" spans="3:14">
@@ -7228,7 +7293,7 @@
         <v>220</v>
       </c>
       <c r="N215" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="216" spans="3:14">
@@ -7236,7 +7301,7 @@
         <v>221</v>
       </c>
       <c r="N216" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="217" spans="3:14">
@@ -7244,7 +7309,7 @@
         <v>222</v>
       </c>
       <c r="N217" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="218" spans="3:14">
@@ -7252,7 +7317,7 @@
         <v>223</v>
       </c>
       <c r="N218" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="219" spans="3:14">
@@ -7260,7 +7325,7 @@
         <v>224</v>
       </c>
       <c r="N219" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="220" spans="3:14">
@@ -7268,7 +7333,7 @@
         <v>225</v>
       </c>
       <c r="N220" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="221" spans="3:14">
@@ -7276,7 +7341,7 @@
         <v>226</v>
       </c>
       <c r="N221" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="222" spans="3:14">
@@ -7284,7 +7349,7 @@
         <v>227</v>
       </c>
       <c r="N222" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="223" spans="3:14">
@@ -7292,7 +7357,7 @@
         <v>228</v>
       </c>
       <c r="N223" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="224" spans="3:14">
@@ -7300,7 +7365,7 @@
         <v>229</v>
       </c>
       <c r="N224" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="225" spans="3:14">
@@ -7308,7 +7373,7 @@
         <v>230</v>
       </c>
       <c r="N225" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="226" spans="3:14">
@@ -7316,7 +7381,7 @@
         <v>231</v>
       </c>
       <c r="N226" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="227" spans="3:14">
@@ -7324,7 +7389,7 @@
         <v>232</v>
       </c>
       <c r="N227" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="228" spans="3:14">
@@ -7332,7 +7397,7 @@
         <v>233</v>
       </c>
       <c r="N228" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="229" spans="3:14">
@@ -7340,7 +7405,7 @@
         <v>234</v>
       </c>
       <c r="N229" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="230" spans="3:14">
@@ -7348,7 +7413,7 @@
         <v>235</v>
       </c>
       <c r="N230" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="231" spans="3:14">
@@ -7356,7 +7421,7 @@
         <v>236</v>
       </c>
       <c r="N231" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="232" spans="3:14">
@@ -7364,7 +7429,7 @@
         <v>237</v>
       </c>
       <c r="N232" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="233" spans="3:14">
@@ -7372,7 +7437,7 @@
         <v>238</v>
       </c>
       <c r="N233" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="234" spans="3:14">
@@ -7380,7 +7445,7 @@
         <v>239</v>
       </c>
       <c r="N234" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="235" spans="3:14">
@@ -7388,7 +7453,7 @@
         <v>240</v>
       </c>
       <c r="N235" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="236" spans="3:14">
@@ -7396,7 +7461,7 @@
         <v>241</v>
       </c>
       <c r="N236" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="237" spans="3:14">
@@ -7404,7 +7469,7 @@
         <v>242</v>
       </c>
       <c r="N237" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="238" spans="3:14">
@@ -7412,7 +7477,7 @@
         <v>243</v>
       </c>
       <c r="N238" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="239" spans="3:14">
@@ -7420,7 +7485,7 @@
         <v>244</v>
       </c>
       <c r="N239" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="240" spans="3:14">
@@ -7428,7 +7493,7 @@
         <v>245</v>
       </c>
       <c r="N240" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="241" spans="3:14">
@@ -7436,7 +7501,7 @@
         <v>246</v>
       </c>
       <c r="N241" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="242" spans="3:14">
@@ -7444,7 +7509,7 @@
         <v>247</v>
       </c>
       <c r="N242" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="243" spans="3:14">
@@ -7452,7 +7517,7 @@
         <v>248</v>
       </c>
       <c r="N243" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="244" spans="3:14">
@@ -7460,7 +7525,7 @@
         <v>249</v>
       </c>
       <c r="N244" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="245" spans="3:14">
@@ -7468,7 +7533,7 @@
         <v>250</v>
       </c>
       <c r="N245" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="246" spans="3:14">
@@ -7476,7 +7541,7 @@
         <v>251</v>
       </c>
       <c r="N246" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="247" spans="3:14">
@@ -7484,7 +7549,7 @@
         <v>252</v>
       </c>
       <c r="N247" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="248" spans="3:14">
@@ -7492,7 +7557,7 @@
         <v>253</v>
       </c>
       <c r="N248" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="249" spans="3:14">
@@ -7500,7 +7565,7 @@
         <v>254</v>
       </c>
       <c r="N249" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="250" spans="3:14">
@@ -7508,7 +7573,7 @@
         <v>255</v>
       </c>
       <c r="N250" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="251" spans="3:14">
@@ -7516,7 +7581,7 @@
         <v>256</v>
       </c>
       <c r="N251" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="252" spans="3:14">
@@ -7524,7 +7589,7 @@
         <v>257</v>
       </c>
       <c r="N252" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="253" spans="3:14">
@@ -7532,7 +7597,7 @@
         <v>258</v>
       </c>
       <c r="N253" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="254" spans="3:14">
@@ -7540,7 +7605,7 @@
         <v>259</v>
       </c>
       <c r="N254" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="255" spans="3:14">
@@ -7548,7 +7613,7 @@
         <v>260</v>
       </c>
       <c r="N255" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="256" spans="3:14">
@@ -7556,7 +7621,7 @@
         <v>261</v>
       </c>
       <c r="N256" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="257" spans="3:14">
@@ -7564,7 +7629,7 @@
         <v>262</v>
       </c>
       <c r="N257" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="258" spans="3:14">
@@ -7572,7 +7637,7 @@
         <v>263</v>
       </c>
       <c r="N258" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="259" spans="3:14">
@@ -7580,7 +7645,7 @@
         <v>264</v>
       </c>
       <c r="N259" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="260" spans="3:14">
@@ -7588,7 +7653,7 @@
         <v>265</v>
       </c>
       <c r="N260" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="261" spans="3:14">
@@ -7596,7 +7661,7 @@
         <v>266</v>
       </c>
       <c r="N261" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="262" spans="3:14">
@@ -7604,7 +7669,7 @@
         <v>267</v>
       </c>
       <c r="N262" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="263" spans="3:14">
@@ -7612,7 +7677,7 @@
         <v>268</v>
       </c>
       <c r="N263" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="264" spans="3:14">
@@ -7620,7 +7685,7 @@
         <v>269</v>
       </c>
       <c r="N264" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="265" spans="3:14">
@@ -7628,7 +7693,7 @@
         <v>270</v>
       </c>
       <c r="N265" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="266" spans="3:14">
@@ -7636,7 +7701,7 @@
         <v>271</v>
       </c>
       <c r="N266" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="267" spans="3:14">
@@ -7644,7 +7709,7 @@
         <v>272</v>
       </c>
       <c r="N267" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="268" spans="3:14">
@@ -7652,7 +7717,7 @@
         <v>273</v>
       </c>
       <c r="N268" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="269" spans="3:14">
@@ -7660,7 +7725,7 @@
         <v>274</v>
       </c>
       <c r="N269" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="270" spans="3:14">
@@ -7668,7 +7733,7 @@
         <v>275</v>
       </c>
       <c r="N270" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="271" spans="3:14">
@@ -7676,7 +7741,7 @@
         <v>276</v>
       </c>
       <c r="N271" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="272" spans="3:14">
@@ -7684,7 +7749,7 @@
         <v>277</v>
       </c>
       <c r="N272" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="273" spans="3:14">
@@ -7692,7 +7757,7 @@
         <v>278</v>
       </c>
       <c r="N273" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="274" spans="3:14">
@@ -7700,7 +7765,7 @@
         <v>279</v>
       </c>
       <c r="N274" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="275" spans="3:14">
@@ -7708,7 +7773,7 @@
         <v>280</v>
       </c>
       <c r="N275" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="276" spans="3:14">
@@ -7716,7 +7781,7 @@
         <v>281</v>
       </c>
       <c r="N276" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="277" spans="3:14">
@@ -7724,7 +7789,7 @@
         <v>282</v>
       </c>
       <c r="N277" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="278" spans="3:14">
@@ -7732,7 +7797,7 @@
         <v>283</v>
       </c>
       <c r="N278" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="279" spans="3:14">
@@ -7740,7 +7805,7 @@
         <v>284</v>
       </c>
       <c r="N279" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="280" spans="3:14">
@@ -7748,7 +7813,7 @@
         <v>285</v>
       </c>
       <c r="N280" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="281" spans="3:14">
@@ -7756,7 +7821,7 @@
         <v>286</v>
       </c>
       <c r="N281" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="282" spans="3:14">
@@ -7764,7 +7829,7 @@
         <v>287</v>
       </c>
       <c r="N282" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="283" spans="3:14">
@@ -7772,7 +7837,7 @@
         <v>288</v>
       </c>
       <c r="N283" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="284" spans="3:14">
@@ -7780,7 +7845,7 @@
         <v>289</v>
       </c>
       <c r="N284" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="285" spans="3:14">
@@ -7788,7 +7853,7 @@
         <v>290</v>
       </c>
       <c r="N285" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="286" spans="3:14">
@@ -7796,7 +7861,7 @@
         <v>291</v>
       </c>
       <c r="N286" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="287" spans="3:14">
@@ -7804,7 +7869,7 @@
         <v>292</v>
       </c>
       <c r="N287" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="288" spans="3:14">
@@ -7812,7 +7877,7 @@
         <v>293</v>
       </c>
       <c r="N288" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="289" spans="3:14">
@@ -7820,7 +7885,7 @@
         <v>294</v>
       </c>
       <c r="N289" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="290" spans="3:14">
@@ -7828,7 +7893,7 @@
         <v>295</v>
       </c>
       <c r="N290" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="291" spans="3:14">
@@ -7836,7 +7901,7 @@
         <v>296</v>
       </c>
       <c r="N291" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="292" spans="3:14">
@@ -7844,7 +7909,7 @@
         <v>297</v>
       </c>
       <c r="N292" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="293" spans="3:14">
@@ -7852,7 +7917,7 @@
         <v>298</v>
       </c>
       <c r="N293" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="294" spans="3:14">
@@ -7860,7 +7925,7 @@
         <v>299</v>
       </c>
       <c r="N294" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="295" spans="3:14">
@@ -7868,7 +7933,7 @@
         <v>300</v>
       </c>
       <c r="N295" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="296" spans="3:14">
@@ -7876,7 +7941,7 @@
         <v>301</v>
       </c>
       <c r="N296" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="297" spans="3:14">
@@ -7884,7 +7949,7 @@
         <v>302</v>
       </c>
       <c r="N297" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="298" spans="3:14">
@@ -7892,7 +7957,7 @@
         <v>303</v>
       </c>
       <c r="N298" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="299" spans="3:14">
@@ -7900,7 +7965,7 @@
         <v>304</v>
       </c>
       <c r="N299" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="300" spans="3:14">
@@ -7908,7 +7973,7 @@
         <v>305</v>
       </c>
       <c r="N300" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="301" spans="3:14">
@@ -7916,7 +7981,7 @@
         <v>306</v>
       </c>
       <c r="N301" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="302" spans="3:14">
@@ -7924,7 +7989,7 @@
         <v>307</v>
       </c>
       <c r="N302" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="303" spans="3:14">
@@ -7932,7 +7997,7 @@
         <v>308</v>
       </c>
       <c r="N303" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="304" spans="3:14">
@@ -7940,7 +8005,7 @@
         <v>309</v>
       </c>
       <c r="N304" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="305" spans="3:14">
@@ -7948,7 +8013,7 @@
         <v>310</v>
       </c>
       <c r="N305" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="306" spans="3:14">
@@ -7956,7 +8021,7 @@
         <v>311</v>
       </c>
       <c r="N306" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="307" spans="3:14">
@@ -7964,7 +8029,7 @@
         <v>312</v>
       </c>
       <c r="N307" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="308" spans="3:14">
@@ -7972,7 +8037,7 @@
         <v>313</v>
       </c>
       <c r="N308" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="309" spans="3:14">
@@ -7980,7 +8045,7 @@
         <v>314</v>
       </c>
       <c r="N309" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="310" spans="3:14">
@@ -7988,7 +8053,7 @@
         <v>315</v>
       </c>
       <c r="N310" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="311" spans="3:14">
@@ -7996,7 +8061,7 @@
         <v>316</v>
       </c>
       <c r="N311" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="312" spans="3:14">
@@ -8004,7 +8069,7 @@
         <v>317</v>
       </c>
       <c r="N312" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="313" spans="3:14">
@@ -8012,7 +8077,7 @@
         <v>318</v>
       </c>
       <c r="N313" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="314" spans="3:14">
@@ -8020,7 +8085,7 @@
         <v>319</v>
       </c>
       <c r="N314" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="315" spans="3:14">
@@ -8028,7 +8093,7 @@
         <v>320</v>
       </c>
       <c r="N315" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="316" spans="3:14">
@@ -8036,7 +8101,7 @@
         <v>321</v>
       </c>
       <c r="N316" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="317" spans="3:14">
@@ -8044,7 +8109,7 @@
         <v>322</v>
       </c>
       <c r="N317" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="318" spans="3:14">
@@ -8052,7 +8117,7 @@
         <v>323</v>
       </c>
       <c r="N318" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="319" spans="3:14">
@@ -8060,7 +8125,7 @@
         <v>324</v>
       </c>
       <c r="N319" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="320" spans="3:14">
@@ -8068,7 +8133,7 @@
         <v>325</v>
       </c>
       <c r="N320" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="321" spans="3:14">
@@ -8076,7 +8141,7 @@
         <v>326</v>
       </c>
       <c r="N321" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="322" spans="3:14">
@@ -8084,7 +8149,7 @@
         <v>327</v>
       </c>
       <c r="N322" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="323" spans="3:14">
@@ -8092,7 +8157,7 @@
         <v>328</v>
       </c>
       <c r="N323" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="324" spans="3:14">
@@ -8100,7 +8165,7 @@
         <v>329</v>
       </c>
       <c r="N324" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="325" spans="3:14">
@@ -8108,7 +8173,7 @@
         <v>330</v>
       </c>
       <c r="N325" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="326" spans="3:14">
@@ -8116,7 +8181,7 @@
         <v>331</v>
       </c>
       <c r="N326" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="327" spans="3:14">
@@ -8124,7 +8189,7 @@
         <v>332</v>
       </c>
       <c r="N327" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="328" spans="3:14">
@@ -8132,7 +8197,7 @@
         <v>333</v>
       </c>
       <c r="N328" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="329" spans="3:14">
@@ -8140,7 +8205,7 @@
         <v>334</v>
       </c>
       <c r="N329" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="330" spans="3:14">
@@ -8148,7 +8213,7 @@
         <v>335</v>
       </c>
       <c r="N330" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="331" spans="3:14">
@@ -8156,7 +8221,7 @@
         <v>336</v>
       </c>
       <c r="N331" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="332" spans="3:14">
@@ -8164,7 +8229,7 @@
         <v>337</v>
       </c>
       <c r="N332" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="333" spans="3:14">
@@ -8172,7 +8237,7 @@
         <v>338</v>
       </c>
       <c r="N333" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="334" spans="3:14">
@@ -8180,7 +8245,7 @@
         <v>339</v>
       </c>
       <c r="N334" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="335" spans="3:14">
@@ -8188,7 +8253,7 @@
         <v>340</v>
       </c>
       <c r="N335" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="336" spans="3:14">
@@ -8196,7 +8261,7 @@
         <v>341</v>
       </c>
       <c r="N336" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="337" spans="3:14">
@@ -8204,7 +8269,7 @@
         <v>342</v>
       </c>
       <c r="N337" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="338" spans="3:14">
@@ -8212,7 +8277,7 @@
         <v>343</v>
       </c>
       <c r="N338" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="339" spans="3:14">
@@ -8220,7 +8285,7 @@
         <v>344</v>
       </c>
       <c r="N339" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="340" spans="3:14">
@@ -8228,7 +8293,7 @@
         <v>345</v>
       </c>
       <c r="N340" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="341" spans="3:14">
@@ -8236,7 +8301,7 @@
         <v>346</v>
       </c>
       <c r="N341" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="342" spans="3:14">
@@ -8244,7 +8309,7 @@
         <v>347</v>
       </c>
       <c r="N342" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="343" spans="3:14">
@@ -8252,7 +8317,7 @@
         <v>348</v>
       </c>
       <c r="N343" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="344" spans="3:14">
@@ -8260,7 +8325,7 @@
         <v>349</v>
       </c>
       <c r="N344" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="345" spans="3:14">
@@ -8268,7 +8333,7 @@
         <v>350</v>
       </c>
       <c r="N345" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="346" spans="3:14">
@@ -8276,7 +8341,7 @@
         <v>351</v>
       </c>
       <c r="N346" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="347" spans="3:14">
@@ -8284,7 +8349,7 @@
         <v>352</v>
       </c>
       <c r="N347" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="348" spans="3:14">
@@ -8292,7 +8357,7 @@
         <v>353</v>
       </c>
       <c r="N348" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="349" spans="3:14">
@@ -8300,7 +8365,7 @@
         <v>354</v>
       </c>
       <c r="N349" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="350" spans="3:14">
@@ -8308,7 +8373,7 @@
         <v>355</v>
       </c>
       <c r="N350" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="351" spans="3:14">
@@ -8316,7 +8381,7 @@
         <v>356</v>
       </c>
       <c r="N351" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="352" spans="3:14">
@@ -8324,7 +8389,7 @@
         <v>357</v>
       </c>
       <c r="N352" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="353" spans="3:14">
@@ -8332,7 +8397,7 @@
         <v>358</v>
       </c>
       <c r="N353" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="354" spans="3:14">
@@ -8340,7 +8405,7 @@
         <v>359</v>
       </c>
       <c r="N354" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="355" spans="3:14">
@@ -8348,7 +8413,7 @@
         <v>360</v>
       </c>
       <c r="N355" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="356" spans="3:14">
@@ -8356,7 +8421,7 @@
         <v>361</v>
       </c>
       <c r="N356" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="357" spans="3:14">
@@ -8364,7 +8429,7 @@
         <v>362</v>
       </c>
       <c r="N357" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="358" spans="3:14">
@@ -8372,7 +8437,7 @@
         <v>363</v>
       </c>
       <c r="N358" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="359" spans="3:14">
@@ -8380,7 +8445,7 @@
         <v>364</v>
       </c>
       <c r="N359" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="360" spans="3:14">
@@ -8388,7 +8453,7 @@
         <v>365</v>
       </c>
       <c r="N360" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="361" spans="3:14">
@@ -8396,7 +8461,7 @@
         <v>366</v>
       </c>
       <c r="N361" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="362" spans="3:14">
@@ -8404,7 +8469,7 @@
         <v>367</v>
       </c>
       <c r="N362" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="363" spans="3:14">
@@ -8412,7 +8477,7 @@
         <v>368</v>
       </c>
       <c r="N363" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="364" spans="3:14">
@@ -8420,7 +8485,7 @@
         <v>369</v>
       </c>
       <c r="N364" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="365" spans="3:14">
@@ -8428,7 +8493,7 @@
         <v>370</v>
       </c>
       <c r="N365" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="366" spans="3:14">
@@ -8436,7 +8501,7 @@
         <v>371</v>
       </c>
       <c r="N366" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="367" spans="3:14">
@@ -8444,7 +8509,7 @@
         <v>372</v>
       </c>
       <c r="N367" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="368" spans="3:14">
@@ -8452,7 +8517,7 @@
         <v>373</v>
       </c>
       <c r="N368" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="369" spans="3:14">
@@ -8460,7 +8525,7 @@
         <v>374</v>
       </c>
       <c r="N369" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="370" spans="3:14">
@@ -8468,7 +8533,7 @@
         <v>375</v>
       </c>
       <c r="N370" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="371" spans="3:14">
@@ -8476,7 +8541,7 @@
         <v>376</v>
       </c>
       <c r="N371" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="372" spans="3:14">
@@ -8484,7 +8549,7 @@
         <v>377</v>
       </c>
       <c r="N372" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="373" spans="3:14">
@@ -8492,7 +8557,7 @@
         <v>378</v>
       </c>
       <c r="N373" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="374" spans="3:14">
@@ -8500,7 +8565,7 @@
         <v>379</v>
       </c>
       <c r="N374" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="375" spans="3:14">
@@ -8508,7 +8573,7 @@
         <v>380</v>
       </c>
       <c r="N375" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="376" spans="3:14">
@@ -8516,7 +8581,7 @@
         <v>381</v>
       </c>
       <c r="N376" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="377" spans="3:14">
@@ -8524,7 +8589,7 @@
         <v>382</v>
       </c>
       <c r="N377" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="378" spans="3:14">
@@ -8532,7 +8597,7 @@
         <v>383</v>
       </c>
       <c r="N378" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="379" spans="3:14">
@@ -8540,7 +8605,7 @@
         <v>384</v>
       </c>
       <c r="N379" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="380" spans="3:14">
@@ -8548,7 +8613,7 @@
         <v>385</v>
       </c>
       <c r="N380" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="381" spans="3:14">
@@ -8556,7 +8621,7 @@
         <v>386</v>
       </c>
       <c r="N381" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="382" spans="3:14">
@@ -8564,7 +8629,7 @@
         <v>387</v>
       </c>
       <c r="N382" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="383" spans="3:14">
@@ -8572,7 +8637,7 @@
         <v>388</v>
       </c>
       <c r="N383" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="384" spans="3:14">
@@ -8580,7 +8645,7 @@
         <v>389</v>
       </c>
       <c r="N384" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="385" spans="3:14">
@@ -8588,7 +8653,7 @@
         <v>390</v>
       </c>
       <c r="N385" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="386" spans="3:14">
@@ -8596,7 +8661,7 @@
         <v>391</v>
       </c>
       <c r="N386" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="387" spans="3:14">
@@ -8604,7 +8669,7 @@
         <v>392</v>
       </c>
       <c r="N387" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="388" spans="3:14">
@@ -8612,7 +8677,7 @@
         <v>393</v>
       </c>
       <c r="N388" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="389" spans="3:14">
@@ -8620,7 +8685,7 @@
         <v>394</v>
       </c>
       <c r="N389" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="390" spans="3:14">
@@ -8628,7 +8693,7 @@
         <v>395</v>
       </c>
       <c r="N390" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="391" spans="3:14">
@@ -8636,7 +8701,7 @@
         <v>396</v>
       </c>
       <c r="N391" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="392" spans="3:14">
@@ -8644,7 +8709,7 @@
         <v>397</v>
       </c>
       <c r="N392" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="393" spans="3:14">
@@ -8652,7 +8717,7 @@
         <v>398</v>
       </c>
       <c r="N393" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="394" spans="3:14">
@@ -8660,7 +8725,7 @@
         <v>399</v>
       </c>
       <c r="N394" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="395" spans="3:14">
@@ -8668,7 +8733,7 @@
         <v>400</v>
       </c>
       <c r="N395" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="396" spans="3:14">
@@ -8676,7 +8741,7 @@
         <v>401</v>
       </c>
       <c r="N396" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="397" spans="3:14">
@@ -8684,7 +8749,7 @@
         <v>402</v>
       </c>
       <c r="N397" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="398" spans="3:14">
@@ -8692,7 +8757,7 @@
         <v>403</v>
       </c>
       <c r="N398" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="399" spans="3:14">
@@ -8700,7 +8765,7 @@
         <v>404</v>
       </c>
       <c r="N399" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="400" spans="3:14">
@@ -8708,7 +8773,7 @@
         <v>405</v>
       </c>
       <c r="N400" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="401" spans="3:14">
@@ -8716,7 +8781,7 @@
         <v>406</v>
       </c>
       <c r="N401" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="402" spans="3:14">
@@ -8724,7 +8789,7 @@
         <v>407</v>
       </c>
       <c r="N402" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="403" spans="3:14">
@@ -8732,7 +8797,7 @@
         <v>408</v>
       </c>
       <c r="N403" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="404" spans="3:14">
@@ -8740,7 +8805,7 @@
         <v>409</v>
       </c>
       <c r="N404" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="405" spans="3:14">
@@ -8748,7 +8813,7 @@
         <v>410</v>
       </c>
       <c r="N405" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="406" spans="3:14">
@@ -8756,7 +8821,7 @@
         <v>411</v>
       </c>
       <c r="N406" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="407" spans="3:14">
@@ -8764,7 +8829,7 @@
         <v>412</v>
       </c>
       <c r="N407" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="408" spans="3:14">
@@ -8772,7 +8837,7 @@
         <v>413</v>
       </c>
       <c r="N408" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="409" spans="3:14">
@@ -8780,7 +8845,7 @@
         <v>414</v>
       </c>
       <c r="N409" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="410" spans="3:14">
@@ -8788,7 +8853,7 @@
         <v>415</v>
       </c>
       <c r="N410" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="411" spans="3:14">
@@ -8796,7 +8861,7 @@
         <v>416</v>
       </c>
       <c r="N411" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="412" spans="3:14">
@@ -8804,7 +8869,7 @@
         <v>417</v>
       </c>
       <c r="N412" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="413" spans="3:14">
@@ -8812,7 +8877,7 @@
         <v>418</v>
       </c>
       <c r="N413" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="414" spans="3:14">
@@ -8820,7 +8885,7 @@
         <v>419</v>
       </c>
       <c r="N414" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="415" spans="3:14">
@@ -8828,7 +8893,7 @@
         <v>420</v>
       </c>
       <c r="N415" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="416" spans="3:14">
@@ -8836,7 +8901,7 @@
         <v>421</v>
       </c>
       <c r="N416" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="417" spans="3:14">
@@ -8844,7 +8909,7 @@
         <v>422</v>
       </c>
       <c r="N417" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="418" spans="3:14">
@@ -8852,7 +8917,7 @@
         <v>423</v>
       </c>
       <c r="N418" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="419" spans="3:14">
@@ -8860,7 +8925,7 @@
         <v>424</v>
       </c>
       <c r="N419" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="420" spans="3:14">
@@ -8868,7 +8933,7 @@
         <v>425</v>
       </c>
       <c r="N420" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="421" spans="3:14">
@@ -8876,7 +8941,7 @@
         <v>426</v>
       </c>
       <c r="N421" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="422" spans="3:14">
@@ -8884,7 +8949,7 @@
         <v>427</v>
       </c>
       <c r="N422" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="423" spans="3:14">
@@ -8892,7 +8957,7 @@
         <v>428</v>
       </c>
       <c r="N423" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="424" spans="3:14">
@@ -8900,7 +8965,7 @@
         <v>429</v>
       </c>
       <c r="N424" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="425" spans="3:14">
@@ -8908,7 +8973,7 @@
         <v>430</v>
       </c>
       <c r="N425" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="426" spans="3:14">
@@ -8916,7 +8981,7 @@
         <v>431</v>
       </c>
       <c r="N426" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="427" spans="3:14">
@@ -8924,7 +8989,7 @@
         <v>432</v>
       </c>
       <c r="N427" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="428" spans="3:14">
@@ -8932,7 +8997,7 @@
         <v>433</v>
       </c>
       <c r="N428" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="429" spans="3:14">
@@ -8940,7 +9005,7 @@
         <v>434</v>
       </c>
       <c r="N429" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="430" spans="3:14">
@@ -8948,7 +9013,7 @@
         <v>435</v>
       </c>
       <c r="N430" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="431" spans="3:14">
@@ -8956,7 +9021,7 @@
         <v>436</v>
       </c>
       <c r="N431" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="432" spans="3:14">
@@ -8964,7 +9029,7 @@
         <v>437</v>
       </c>
       <c r="N432" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="433" spans="3:14">
@@ -8972,7 +9037,7 @@
         <v>438</v>
       </c>
       <c r="N433" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="434" spans="3:14">
@@ -8980,7 +9045,7 @@
         <v>439</v>
       </c>
       <c r="N434" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="435" spans="3:14">
@@ -8988,7 +9053,7 @@
         <v>440</v>
       </c>
       <c r="N435" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="436" spans="3:14">
@@ -8996,7 +9061,7 @@
         <v>441</v>
       </c>
       <c r="N436" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="437" spans="3:14">
@@ -9004,7 +9069,7 @@
         <v>442</v>
       </c>
       <c r="N437" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="438" spans="3:14">
@@ -9012,7 +9077,7 @@
         <v>443</v>
       </c>
       <c r="N438" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="439" spans="3:14">
@@ -9020,7 +9085,7 @@
         <v>444</v>
       </c>
       <c r="N439" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="440" spans="3:14">
@@ -9028,7 +9093,7 @@
         <v>445</v>
       </c>
       <c r="N440" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="441" spans="3:14">
@@ -9036,7 +9101,7 @@
         <v>446</v>
       </c>
       <c r="N441" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="442" spans="3:14">
@@ -9044,7 +9109,7 @@
         <v>447</v>
       </c>
       <c r="N442" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="443" spans="3:14">
@@ -9052,7 +9117,7 @@
         <v>448</v>
       </c>
       <c r="N443" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="444" spans="3:14">
@@ -9060,7 +9125,7 @@
         <v>449</v>
       </c>
       <c r="N444" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="445" spans="3:14">
@@ -9068,7 +9133,7 @@
         <v>450</v>
       </c>
       <c r="N445" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="446" spans="3:14">
@@ -9076,7 +9141,7 @@
         <v>451</v>
       </c>
       <c r="N446" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="447" spans="3:14">
@@ -9084,7 +9149,7 @@
         <v>452</v>
       </c>
       <c r="N447" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="448" spans="3:14">
@@ -9092,7 +9157,7 @@
         <v>453</v>
       </c>
       <c r="N448" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="449" spans="3:14">
@@ -9100,7 +9165,7 @@
         <v>454</v>
       </c>
       <c r="N449" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="450" spans="3:14">
@@ -9108,7 +9173,7 @@
         <v>455</v>
       </c>
       <c r="N450" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="451" spans="3:14">
@@ -9116,7 +9181,7 @@
         <v>456</v>
       </c>
       <c r="N451" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="452" spans="3:14">
@@ -9124,7 +9189,7 @@
         <v>457</v>
       </c>
       <c r="N452" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="453" spans="3:14">
@@ -9132,7 +9197,7 @@
         <v>458</v>
       </c>
       <c r="N453" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="454" spans="3:14">
@@ -9140,7 +9205,7 @@
         <v>459</v>
       </c>
       <c r="N454" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="455" spans="3:14">
@@ -9148,7 +9213,7 @@
         <v>460</v>
       </c>
       <c r="N455" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="456" spans="3:14">
@@ -9156,7 +9221,7 @@
         <v>461</v>
       </c>
       <c r="N456" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="457" spans="3:14">
@@ -9164,7 +9229,7 @@
         <v>462</v>
       </c>
       <c r="N457" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="458" spans="3:14">
@@ -9172,7 +9237,7 @@
         <v>463</v>
       </c>
       <c r="N458" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="459" spans="3:14">
@@ -9180,7 +9245,7 @@
         <v>464</v>
       </c>
       <c r="N459" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="460" spans="3:14">
@@ -9188,7 +9253,7 @@
         <v>465</v>
       </c>
       <c r="N460" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="461" spans="3:14">
@@ -9196,7 +9261,7 @@
         <v>466</v>
       </c>
       <c r="N461" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="462" spans="3:14">
@@ -9204,7 +9269,7 @@
         <v>467</v>
       </c>
       <c r="N462" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="463" spans="3:14">
@@ -9212,7 +9277,7 @@
         <v>468</v>
       </c>
       <c r="N463" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="464" spans="3:14">
@@ -9220,7 +9285,7 @@
         <v>469</v>
       </c>
       <c r="N464" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="465" spans="3:14">
@@ -9228,7 +9293,7 @@
         <v>470</v>
       </c>
       <c r="N465" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="466" spans="3:14">
@@ -9236,7 +9301,7 @@
         <v>471</v>
       </c>
       <c r="N466" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="467" spans="3:14">
@@ -9244,7 +9309,7 @@
         <v>472</v>
       </c>
       <c r="N467" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="468" spans="3:14">
@@ -9252,7 +9317,7 @@
         <v>473</v>
       </c>
       <c r="N468" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="469" spans="3:14">
@@ -9260,7 +9325,7 @@
         <v>474</v>
       </c>
       <c r="N469" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="470" spans="3:14">
@@ -9268,7 +9333,7 @@
         <v>475</v>
       </c>
       <c r="N470" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="471" spans="3:14">
@@ -9276,7 +9341,7 @@
         <v>476</v>
       </c>
       <c r="N471" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="472" spans="3:14">
@@ -9284,7 +9349,7 @@
         <v>477</v>
       </c>
       <c r="N472" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="473" spans="3:14">
@@ -9292,7 +9357,7 @@
         <v>478</v>
       </c>
       <c r="N473" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="474" spans="3:14">
@@ -9300,7 +9365,7 @@
         <v>479</v>
       </c>
       <c r="N474" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="475" spans="3:14">
@@ -9308,7 +9373,7 @@
         <v>480</v>
       </c>
       <c r="N475" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="476" spans="3:14">
@@ -9316,7 +9381,7 @@
         <v>481</v>
       </c>
       <c r="N476" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="477" spans="3:14">
@@ -9324,7 +9389,7 @@
         <v>482</v>
       </c>
       <c r="N477" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="478" spans="3:14">
@@ -9332,7 +9397,7 @@
         <v>483</v>
       </c>
       <c r="N478" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="479" spans="3:14">
@@ -9340,7 +9405,7 @@
         <v>484</v>
       </c>
       <c r="N479" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="480" spans="3:14">
@@ -9348,7 +9413,7 @@
         <v>485</v>
       </c>
       <c r="N480" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="481" spans="3:14">
@@ -9356,7 +9421,7 @@
         <v>486</v>
       </c>
       <c r="N481" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="482" spans="3:14">
@@ -9364,7 +9429,7 @@
         <v>487</v>
       </c>
       <c r="N482" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="483" spans="3:14">
@@ -9372,7 +9437,7 @@
         <v>488</v>
       </c>
       <c r="N483" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="484" spans="3:14">
@@ -9380,7 +9445,7 @@
         <v>489</v>
       </c>
       <c r="N484" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="485" spans="3:14">
@@ -9388,7 +9453,7 @@
         <v>490</v>
       </c>
       <c r="N485" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="486" spans="3:14">
@@ -9396,7 +9461,7 @@
         <v>491</v>
       </c>
       <c r="N486" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="487" spans="3:14">
@@ -9404,7 +9469,7 @@
         <v>492</v>
       </c>
       <c r="N487" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="488" spans="3:14">
@@ -9412,7 +9477,7 @@
         <v>493</v>
       </c>
       <c r="N488" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="489" spans="3:14">
@@ -9420,7 +9485,7 @@
         <v>494</v>
       </c>
       <c r="N489" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="490" spans="3:14">
@@ -9428,7 +9493,7 @@
         <v>495</v>
       </c>
       <c r="N490" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="491" spans="3:14">
@@ -9436,7 +9501,7 @@
         <v>496</v>
       </c>
       <c r="N491" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="492" spans="3:14">
@@ -9444,7 +9509,7 @@
         <v>497</v>
       </c>
       <c r="N492" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="493" spans="3:14">
@@ -9452,7 +9517,7 @@
         <v>498</v>
       </c>
       <c r="N493" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="494" spans="3:14">
@@ -9460,7 +9525,7 @@
         <v>499</v>
       </c>
       <c r="N494" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="495" spans="3:14">
@@ -9468,7 +9533,7 @@
         <v>500</v>
       </c>
       <c r="N495" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="496" spans="3:14">
@@ -9476,7 +9541,7 @@
         <v>501</v>
       </c>
       <c r="N496" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="497" spans="3:14">
@@ -9484,7 +9549,7 @@
         <v>502</v>
       </c>
       <c r="N497" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="498" spans="3:14">
@@ -9492,7 +9557,7 @@
         <v>503</v>
       </c>
       <c r="N498" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="499" spans="3:14">
@@ -9500,7 +9565,7 @@
         <v>504</v>
       </c>
       <c r="N499" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="500" spans="3:14">
@@ -9508,7 +9573,7 @@
         <v>505</v>
       </c>
       <c r="N500" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="501" spans="3:14">
@@ -9516,7 +9581,7 @@
         <v>506</v>
       </c>
       <c r="N501" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="502" spans="3:14">
@@ -9524,7 +9589,7 @@
         <v>507</v>
       </c>
       <c r="N502" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="503" spans="3:14">
@@ -9532,7 +9597,7 @@
         <v>508</v>
       </c>
       <c r="N503" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="504" spans="3:14">
@@ -9540,7 +9605,7 @@
         <v>509</v>
       </c>
       <c r="N504" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="505" spans="3:14">
@@ -9548,7 +9613,7 @@
         <v>510</v>
       </c>
       <c r="N505" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="506" spans="3:14">
@@ -9556,7 +9621,7 @@
         <v>511</v>
       </c>
       <c r="N506" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="507" spans="3:14">
@@ -9564,7 +9629,7 @@
         <v>512</v>
       </c>
       <c r="N507" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="508" spans="3:14">
@@ -9572,7 +9637,7 @@
         <v>513</v>
       </c>
       <c r="N508" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="509" spans="3:14">
@@ -9580,7 +9645,7 @@
         <v>514</v>
       </c>
       <c r="N509" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="510" spans="3:14">
@@ -9588,7 +9653,7 @@
         <v>515</v>
       </c>
       <c r="N510" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="511" spans="3:14">
@@ -9596,7 +9661,7 @@
         <v>516</v>
       </c>
       <c r="N511" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="512" spans="3:14">
@@ -9604,7 +9669,7 @@
         <v>517</v>
       </c>
       <c r="N512" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="513" spans="3:14">
@@ -9612,7 +9677,7 @@
         <v>518</v>
       </c>
       <c r="N513" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="514" spans="3:14">
@@ -9620,7 +9685,7 @@
         <v>519</v>
       </c>
       <c r="N514" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="515" spans="3:14">
@@ -9628,7 +9693,7 @@
         <v>520</v>
       </c>
       <c r="N515" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="516" spans="3:14">
@@ -9636,7 +9701,7 @@
         <v>521</v>
       </c>
       <c r="N516" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="517" spans="3:14">
@@ -9644,7 +9709,7 @@
         <v>522</v>
       </c>
       <c r="N517" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="518" spans="3:14">
@@ -9652,7 +9717,7 @@
         <v>523</v>
       </c>
       <c r="N518" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="519" spans="3:14">
@@ -9660,7 +9725,7 @@
         <v>524</v>
       </c>
       <c r="N519" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="520" spans="3:14">
@@ -9668,7 +9733,7 @@
         <v>525</v>
       </c>
       <c r="N520" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="521" spans="3:14">
@@ -9676,7 +9741,7 @@
         <v>526</v>
       </c>
       <c r="N521" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="522" spans="3:14">
@@ -9684,7 +9749,7 @@
         <v>527</v>
       </c>
       <c r="N522" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="523" spans="3:14">
@@ -9692,7 +9757,7 @@
         <v>528</v>
       </c>
       <c r="N523" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="524" spans="3:14">
@@ -9700,7 +9765,7 @@
         <v>529</v>
       </c>
       <c r="N524" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="525" spans="3:14">
@@ -9708,7 +9773,7 @@
         <v>530</v>
       </c>
       <c r="N525" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="526" spans="3:14">
@@ -9716,7 +9781,7 @@
         <v>531</v>
       </c>
       <c r="N526" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="527" spans="3:14">
@@ -9724,7 +9789,7 @@
         <v>532</v>
       </c>
       <c r="N527" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="528" spans="3:14">
@@ -9732,7 +9797,7 @@
         <v>533</v>
       </c>
       <c r="N528" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="529" spans="3:14">
@@ -9740,7 +9805,7 @@
         <v>534</v>
       </c>
       <c r="N529" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="530" spans="3:14">
@@ -9748,7 +9813,7 @@
         <v>535</v>
       </c>
       <c r="N530" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="531" spans="3:14">
@@ -9756,7 +9821,7 @@
         <v>536</v>
       </c>
       <c r="N531" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="532" spans="3:14">
@@ -9764,7 +9829,7 @@
         <v>537</v>
       </c>
       <c r="N532" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="533" spans="3:14">
@@ -9772,7 +9837,7 @@
         <v>538</v>
       </c>
       <c r="N533" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="534" spans="3:14">
@@ -9780,7 +9845,7 @@
         <v>539</v>
       </c>
       <c r="N534" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="535" spans="3:14">
@@ -9788,7 +9853,7 @@
         <v>540</v>
       </c>
       <c r="N535" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="536" spans="3:14">
@@ -9796,7 +9861,7 @@
         <v>541</v>
       </c>
       <c r="N536" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="537" spans="3:14">
@@ -9804,7 +9869,7 @@
         <v>542</v>
       </c>
       <c r="N537" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="538" spans="3:14">
@@ -9812,7 +9877,7 @@
         <v>543</v>
       </c>
       <c r="N538" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="539" spans="3:14">
@@ -9820,7 +9885,7 @@
         <v>544</v>
       </c>
       <c r="N539" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="540" spans="3:14">
@@ -9828,7 +9893,7 @@
         <v>545</v>
       </c>
       <c r="N540" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="541" spans="3:14">
@@ -9836,7 +9901,7 @@
         <v>546</v>
       </c>
       <c r="N541" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="542" spans="3:14">
@@ -9844,7 +9909,7 @@
         <v>547</v>
       </c>
       <c r="N542" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="543" spans="3:14">
@@ -9852,7 +9917,7 @@
         <v>548</v>
       </c>
       <c r="N543" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="544" spans="3:14">
@@ -9860,7 +9925,7 @@
         <v>549</v>
       </c>
       <c r="N544" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="545" spans="3:14">
@@ -9868,7 +9933,7 @@
         <v>550</v>
       </c>
       <c r="N545" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="546" spans="3:14">
@@ -9876,7 +9941,7 @@
         <v>551</v>
       </c>
       <c r="N546" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="547" spans="3:14">
@@ -9884,7 +9949,7 @@
         <v>552</v>
       </c>
       <c r="N547" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="548" spans="3:14">
@@ -9892,7 +9957,7 @@
         <v>553</v>
       </c>
       <c r="N548" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="549" spans="3:14">
@@ -9900,7 +9965,7 @@
         <v>554</v>
       </c>
       <c r="N549" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="550" spans="3:14">
@@ -9908,7 +9973,7 @@
         <v>555</v>
       </c>
       <c r="N550" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="551" spans="3:14">
@@ -9916,7 +9981,7 @@
         <v>556</v>
       </c>
       <c r="N551" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="552" spans="3:14">
@@ -9924,7 +9989,7 @@
         <v>557</v>
       </c>
       <c r="N552" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="553" spans="3:14">
@@ -9932,7 +9997,7 @@
         <v>558</v>
       </c>
       <c r="N553" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="554" spans="3:14">
@@ -9940,7 +10005,7 @@
         <v>559</v>
       </c>
       <c r="N554" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="555" spans="3:14">
@@ -9948,7 +10013,7 @@
         <v>560</v>
       </c>
       <c r="N555" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="556" spans="3:14">
@@ -9956,7 +10021,7 @@
         <v>561</v>
       </c>
       <c r="N556" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="557" spans="3:14">
@@ -9964,7 +10029,7 @@
         <v>562</v>
       </c>
       <c r="N557" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="558" spans="3:14">
@@ -9972,7 +10037,7 @@
         <v>563</v>
       </c>
       <c r="N558" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="559" spans="3:14">
@@ -9980,7 +10045,7 @@
         <v>564</v>
       </c>
       <c r="N559" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="560" spans="3:14">
@@ -9988,7 +10053,7 @@
         <v>565</v>
       </c>
       <c r="N560" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="561" spans="3:14">
@@ -9996,7 +10061,7 @@
         <v>566</v>
       </c>
       <c r="N561" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="562" spans="3:14">
@@ -10004,7 +10069,7 @@
         <v>567</v>
       </c>
       <c r="N562" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="563" spans="3:14">
@@ -10012,7 +10077,7 @@
         <v>568</v>
       </c>
       <c r="N563" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="564" spans="3:14">
@@ -10020,7 +10085,7 @@
         <v>569</v>
       </c>
       <c r="N564" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="565" spans="3:14">
@@ -10028,7 +10093,7 @@
         <v>570</v>
       </c>
       <c r="N565" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="566" spans="3:14">
@@ -10036,7 +10101,7 @@
         <v>571</v>
       </c>
       <c r="N566" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="567" spans="3:14">
@@ -10044,7 +10109,7 @@
         <v>572</v>
       </c>
       <c r="N567" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="568" spans="3:14">
@@ -10052,7 +10117,7 @@
         <v>573</v>
       </c>
       <c r="N568" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="569" spans="3:14">
@@ -10060,7 +10125,7 @@
         <v>574</v>
       </c>
       <c r="N569" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="570" spans="3:14">

--- a/DCC_UI_blank.xlsx
+++ b/DCC_UI_blank.xlsx
@@ -8,30 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\tesla\data\MS\DBH\Projects\1901 NY-INFRA-FOT\DCC\Software\DCCtables\master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2C6A4E-7C92-4CE4-9753-211BDD4A06FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5300A274-782B-4A8E-B852-2F3FBDE8E80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="660" windowWidth="29600" windowHeight="11720" tabRatio="788" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="700" yWindow="660" windowWidth="29600" windowHeight="11720" tabRatio="788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Definitions" sheetId="2" r:id="rId1"/>
-    <sheet name="administrativeData" sheetId="3" r:id="rId2"/>
-    <sheet name="statements" sheetId="4" r:id="rId3"/>
-    <sheet name="equipment" sheetId="5" r:id="rId4"/>
-    <sheet name="settings" sheetId="6" r:id="rId5"/>
-    <sheet name="measuringSystems" sheetId="7" r:id="rId6"/>
-    <sheet name="embeddedFiles" sheetId="8" r:id="rId7"/>
-    <sheet name="quantityUnitDefs" sheetId="9" r:id="rId8"/>
-    <sheet name="calRes0" sheetId="10" r:id="rId9"/>
-    <sheet name="calRes2" sheetId="11" r:id="rId10"/>
-    <sheet name="ser11" sheetId="12" r:id="rId11"/>
-    <sheet name="ser12" sheetId="13" r:id="rId12"/>
-    <sheet name="ser13" sheetId="14" r:id="rId13"/>
-    <sheet name="ser21" sheetId="15" r:id="rId14"/>
-    <sheet name="ser22" sheetId="16" r:id="rId15"/>
-    <sheet name="ser23" sheetId="17" r:id="rId16"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId17"/>
+    <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
     <definedName name="accreditationApplicabilityType">Definitions!$H$2:$H$3</definedName>
@@ -40,14 +25,14 @@
     <definedName name="conformityStatusType">Definitions!$M$2:$M$7</definedName>
     <definedName name="dataCategoryType">Definitions!$O$2:$O$28</definedName>
     <definedName name="decimalType">Definitions!$I$2</definedName>
-    <definedName name="equipIdRange">equipment!$B$4:$B$6</definedName>
+    <definedName name="equipIdRange">#REF!</definedName>
     <definedName name="equipIds">#REF!</definedName>
     <definedName name="EquipmentCategories">Definitions!$G$2:$G$3</definedName>
     <definedName name="equipmentCategoryType">Definitions!$I$2:$I$8</definedName>
     <definedName name="issuerType">Definitions!$J$2:$J$4</definedName>
     <definedName name="mathOperatorType">Definitions!$R$2:$R$10</definedName>
     <definedName name="measurandType">Definitions!$N$2:$N$569</definedName>
-    <definedName name="measuringSystemIdRange">measuringSystems!$B$4:$B$6</definedName>
+    <definedName name="measuringSystemIdRange">#REF!</definedName>
     <definedName name="metaDataCategoryType">Definitions!$M$2:$M$15</definedName>
     <definedName name="metaDataType">Definitions!$I$2:$I$11</definedName>
     <definedName name="MetaType">Definitions!$B$2:$B$21</definedName>
@@ -55,7 +40,7 @@
     <definedName name="operationalStatusType">Definitions!$K$2:$K$5</definedName>
     <definedName name="quantityCodeSystemType">Definitions!$S$2:$S$9</definedName>
     <definedName name="quantityType">Definitions!$P$2:$P$569</definedName>
-    <definedName name="quantityUnitDefIdRange">quantityUnitDefs!$B$4:$B$5</definedName>
+    <definedName name="quantityUnitDefIdRange">#REF!</definedName>
     <definedName name="rgKommentar">[1]ODBC!$O$7:$P$19</definedName>
     <definedName name="scopeType">Definitions!$N$2:$N$7</definedName>
     <definedName name="serviceCategoryType">Definitions!$E$2:$E$863</definedName>
@@ -91,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3067" uniqueCount="2321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="1961">
   <si>
     <t>Value</t>
   </si>
@@ -5974,1097 +5959,6 @@
   </si>
   <si>
     <t>zu</t>
-  </si>
-  <si>
-    <t>heading[en]</t>
-  </si>
-  <si>
-    <t>heading[da]</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>XPath</t>
-  </si>
-  <si>
-    <t>Calibration certificate</t>
-  </si>
-  <si>
-    <t>Kalibreringscertifikat</t>
-  </si>
-  <si>
-    <t>Certificate-Title</t>
-  </si>
-  <si>
-    <t>/dcc:digitalCalibrationCertificate</t>
-  </si>
-  <si>
-    <t>This document was created with:</t>
-  </si>
-  <si>
-    <t>Dette dokument blev genereret ved hjælp af:</t>
-  </si>
-  <si>
-    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:dccSoftware/dcc:software</t>
-  </si>
-  <si>
-    <t>software</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:dccSoftware/dcc:software/dcc:name</t>
-  </si>
-  <si>
-    <t>excel2dcc.py</t>
-  </si>
-  <si>
-    <t>release</t>
-  </si>
-  <si>
-    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:dccSoftware/dcc:software/dcc:release</t>
-  </si>
-  <si>
-    <t>v0.0.1</t>
-  </si>
-  <si>
-    <t>countryCodeISO3166_1</t>
-  </si>
-  <si>
-    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:coreData/dcc:countryCodeISO3166_1</t>
-  </si>
-  <si>
-    <t>mandatoryLangCodeISO639_1</t>
-  </si>
-  <si>
-    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:coreData/dcc:mandatoryLangCodeISO639_1</t>
-  </si>
-  <si>
-    <t>usedLangCodeISO639_1</t>
-  </si>
-  <si>
-    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:coreData/dcc:usedLangCodeISO639_1</t>
-  </si>
-  <si>
-    <t>Certificate number</t>
-  </si>
-  <si>
-    <t>Certifikatnummer</t>
-  </si>
-  <si>
-    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:coreData/dcc:uniqueIdentifier</t>
-  </si>
-  <si>
-    <t>uniqueIdentifier</t>
-  </si>
-  <si>
-    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:coreData/dcc:uniqueIdentifier/dcc:value</t>
-  </si>
-  <si>
-    <t>SKH_10112_2</t>
-  </si>
-  <si>
-    <t>Order number</t>
-  </si>
-  <si>
-    <t>Ordrenummer</t>
-  </si>
-  <si>
-    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:coreData/dcc:customerIdentification</t>
-  </si>
-  <si>
-    <t>customerIdentification</t>
-  </si>
-  <si>
-    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:coreData/dcc:customerIdentification/dcc:value</t>
-  </si>
-  <si>
-    <t>xx28</t>
-  </si>
-  <si>
-    <t>receiptDate</t>
-  </si>
-  <si>
-    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:coreData/dcc:receiptDate</t>
-  </si>
-  <si>
-    <t>beginPerformanceDate</t>
-  </si>
-  <si>
-    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:coreData/dcc:beginPerformanceDate</t>
-  </si>
-  <si>
-    <t>endPerformanceDate</t>
-  </si>
-  <si>
-    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:coreData/dcc:endPerformanceDate</t>
-  </si>
-  <si>
-    <t>performanceLocation</t>
-  </si>
-  <si>
-    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:coreData/dcc:performanceLocation</t>
-  </si>
-  <si>
-    <t>issueDate</t>
-  </si>
-  <si>
-    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:coreData/dcc:issueDate</t>
-  </si>
-  <si>
-    <t>Calibration laboratory</t>
-  </si>
-  <si>
-    <t>Kalibreringslaboratorium</t>
-  </si>
-  <si>
-    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:calibrationLaboratory</t>
-  </si>
-  <si>
-    <t>companyName</t>
-  </si>
-  <si>
-    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:calibrationLaboratory/dcc:companyName</t>
-  </si>
-  <si>
-    <t>Dandiag A/S</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Address </t>
-  </si>
-  <si>
-    <t>Addresse</t>
-  </si>
-  <si>
-    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:calibrationLaboratory/dcc:location</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:calibrationLaboratory/dcc:location/dcc:city</t>
-  </si>
-  <si>
-    <t>Ishøj</t>
-  </si>
-  <si>
-    <t>countryCode</t>
-  </si>
-  <si>
-    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:calibrationLaboratory/dcc:location/dcc:countryCode</t>
-  </si>
-  <si>
-    <t>postCode</t>
-  </si>
-  <si>
-    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:calibrationLaboratory/dcc:location/dcc:postCode</t>
-  </si>
-  <si>
-    <t>street</t>
-  </si>
-  <si>
-    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:calibrationLaboratory/dcc:location/dcc:street</t>
-  </si>
-  <si>
-    <t>Baldershøj</t>
-  </si>
-  <si>
-    <t>streetNo</t>
-  </si>
-  <si>
-    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:calibrationLaboratory/dcc:location/dcc:streetNo</t>
-  </si>
-  <si>
-    <t>Contact info</t>
-  </si>
-  <si>
-    <t>Kontaktinformation</t>
-  </si>
-  <si>
-    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:calibrationLaboratory/dcc:contactInfo</t>
-  </si>
-  <si>
-    <t>contactInfo</t>
-  </si>
-  <si>
-    <t>eMail</t>
-  </si>
-  <si>
-    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:calibrationLaboratory/dcc:contactInfo/dcc:eMail</t>
-  </si>
-  <si>
-    <t>nln@dandiag.com</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:calibrationLaboratory/dcc:contactInfo/dcc:phone</t>
-  </si>
-  <si>
-    <t>2334 45 56</t>
-  </si>
-  <si>
-    <t>Main signer</t>
-  </si>
-  <si>
-    <t>Underskriftsberettiget</t>
-  </si>
-  <si>
-    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:respPersons/dcc:respPerson</t>
-  </si>
-  <si>
-    <t>respPerson</t>
-  </si>
-  <si>
-    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:respPersons/dcc:respPerson/dcc:name</t>
-  </si>
-  <si>
-    <t>Erling T. Nielsen</t>
-  </si>
-  <si>
-    <t>mainSigner</t>
-  </si>
-  <si>
-    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:respPersons/dcc:respPerson/dcc:mainSigner</t>
-  </si>
-  <si>
-    <t>Accreditation</t>
-  </si>
-  <si>
-    <t>Akkreditering</t>
-  </si>
-  <si>
-    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:accreditation</t>
-  </si>
-  <si>
-    <t>accreditationCountry</t>
-  </si>
-  <si>
-    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:accreditation/dcc:accreditationCountry</t>
-  </si>
-  <si>
-    <t>accreditationBody</t>
-  </si>
-  <si>
-    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:accreditation/dcc:accreditationBody</t>
-  </si>
-  <si>
-    <t>DANAK</t>
-  </si>
-  <si>
-    <t>accreditationLabId</t>
-  </si>
-  <si>
-    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:accreditation/dcc:accreditationLabId</t>
-  </si>
-  <si>
-    <t>accreditationNorm</t>
-  </si>
-  <si>
-    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:accreditation/dcc:accreditationNorm</t>
-  </si>
-  <si>
-    <t>accreditationApplicability</t>
-  </si>
-  <si>
-    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:accreditation/dcc:accreditationApplicability</t>
-  </si>
-  <si>
-    <t>Customer</t>
-  </si>
-  <si>
-    <t>Kunde</t>
-  </si>
-  <si>
-    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:customer</t>
-  </si>
-  <si>
-    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:customer/dcc:companyName</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:customer/dcc:location</t>
-  </si>
-  <si>
-    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:customer/dcc:location/dcc:city</t>
-  </si>
-  <si>
-    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:customer/dcc:location/dcc:countryCode</t>
-  </si>
-  <si>
-    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:customer/dcc:location/dcc:postCode</t>
-  </si>
-  <si>
-    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:customer/dcc:location/dcc:street</t>
-  </si>
-  <si>
-    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:customer/dcc:location/dcc:streetNo</t>
-  </si>
-  <si>
-    <t>Contact person</t>
-  </si>
-  <si>
-    <t>Kontaktperson</t>
-  </si>
-  <si>
-    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:customer/dcc:contactInfo</t>
-  </si>
-  <si>
-    <t>attPerson</t>
-  </si>
-  <si>
-    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:customer/dcc:contactInfo/dcc:attPerson</t>
-  </si>
-  <si>
-    <t>Scott Kenney Hansen</t>
-  </si>
-  <si>
-    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:customer/dcc:contactInfo/dcc:eMail</t>
-  </si>
-  <si>
-    <t>skh@dandiag.com</t>
-  </si>
-  <si>
-    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:customer/dcc:contactInfo/dcc:phone</t>
-  </si>
-  <si>
-    <t>23 34 3456</t>
-  </si>
-  <si>
-    <t>Statements</t>
-  </si>
-  <si>
-    <t>Bemærkninger</t>
-  </si>
-  <si>
-    <t>in DCC</t>
-  </si>
-  <si>
-    <t>@id</t>
-  </si>
-  <si>
-    <t>@category</t>
-  </si>
-  <si>
-    <t>body[en]</t>
-  </si>
-  <si>
-    <t>body[da]</t>
-  </si>
-  <si>
-    <t>externalReference</t>
-  </si>
-  <si>
-    <t>s01</t>
-  </si>
-  <si>
-    <t>Reprint</t>
-  </si>
-  <si>
-    <t>Gengivelse af rapport i uddrag</t>
-  </si>
-  <si>
-    <t>Excerpts of this report may only be reproduced with the written permission of the calibration laboratory.</t>
-  </si>
-  <si>
-    <t>Denne rapport må ikke gengives i uddrag undtaget med laboratoriets skriftlige tilladelse.</t>
-  </si>
-  <si>
-    <t>conf1</t>
-  </si>
-  <si>
-    <t>Decision rule</t>
-  </si>
-  <si>
-    <t>Grundlag for overensstemmelseserklæring</t>
-  </si>
-  <si>
-    <t>Conformaty status "pass" is given if a value plus the uncertainy is smaller than the upper tolerance level AND the value minus its uncertainty is smaller thatn its uncertainty levvel.</t>
-  </si>
-  <si>
-    <t>Overensstemmelseserklæringen "godkendt" ("pass") tildeles dersom en værdi plus dens usikkerehed er mindre end den øvre tolerancegrænse OG værdien minus dens usikkerhed er større end den øvre tolranncegrænse.</t>
-  </si>
-  <si>
-    <t>acc1</t>
-  </si>
-  <si>
-    <t>The calibration is caried out under DANAK accreditation no. 490 unless clearly statet in the tabel of results.
-                DANis the national accreditation body in Denmark in compliance with Regulation (EC) No. 765/2008 of the European Parliament and of the Council.
-                DANis covered by the multilateral agreements for testing, medical examination, calibration, proficiency testing providers and reference material producers under European co-operation for Accreditation (EA) and under International Laboratory Accreditation Cooperation (ILAC) based on peer-evaluation. This implies that accredited reports and certificates issued by companies accredited by DANAK are recognized across borders by members of EA and ILAC equal to reports and certificates issued by companies accredited by these members</t>
-  </si>
-  <si>
-    <t>Kalibreringen er udført under DANAK akkreditering nr. 490 med mindre det tydeligt fremgår i resultattabellerne.
-                DANer det nationale akkrediteringsorgan i Danmark i overensstemmelse med Europa-Parlamentet og Rådetsforordning (EF) Nr. 765/2008.
-                DANer omfattet af de multilaterale aftaler for prøvning, medicinsk undersøgelse, kalibrering, udbud af præstationsprøvning og produktion af referencematerialer i European co-operation for Accreditation (EA) og i International Laboratory Accreditation Cooperation (ILAC) baseret på peer-evaluering. Dette indebærer, at akkrediterede rapporter og certifikater udstedt af virksomheder akkrediteret af DANAK anerkendes på tværs af landegrænser af medlemmer i EA og ILAC på linje med rapporter og certifikater udstedt af disse medlemmers akkrediterede virksomheder.</t>
-  </si>
-  <si>
-    <t>accex</t>
-  </si>
-  <si>
-    <t>Accreditation exception</t>
-  </si>
-  <si>
-    <t>Undtagelse fra akkreditering</t>
-  </si>
-  <si>
-    <t>Calibration point 3 (120 µm) is not under accreditation.</t>
-  </si>
-  <si>
-    <t>Tredie kalibreringspunkt (120 µl) er ikke udført under akkreditering</t>
-  </si>
-  <si>
-    <t>meth1</t>
-  </si>
-  <si>
-    <t>Calibration method</t>
-  </si>
-  <si>
-    <t>Kalibrering metode</t>
-  </si>
-  <si>
-    <t>Calibration is performed in accordance with Dandiags internal procedure PIP-005</t>
-  </si>
-  <si>
-    <t>Pipetten er kalibreret med en multikanalsvægt.  Dandiags interne procedure PIP-005</t>
-  </si>
-  <si>
-    <t>meth2</t>
-  </si>
-  <si>
-    <t>Used method</t>
-  </si>
-  <si>
-    <t>Anvendt metode</t>
-  </si>
-  <si>
-    <t>The calibration is carried out by using the gravimetric performance test method. The used method is based on the
-                DS/ISO 8655 standard. The used liquid is water according to DS/EN ISO 3696, grade 3.
-                The conversion from mass to volume is done by using the calculation in DS/ISO/TR 20461.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalibreringen er udført ved brug af den gravimetriske performance-test-metode. Metoden er baseret på standarden DS/EN ISO 8655. Der er anvandt fydende vand af grad3 jvf. DS/EN ISO 3696. Konvertering fra masse til volumen er udført I overensstemmelse med DS/ISO/TR 20461. </t>
-  </si>
-  <si>
-    <t>meth3</t>
-  </si>
-  <si>
-    <t>Z-factor</t>
-  </si>
-  <si>
-    <t>Z-faktor</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Z-factor is calculated according to DS/EN ISO 8655 part 6.</t>
-  </si>
-  <si>
-    <t>Z-faktor er beregnet ifølge DS/EN ISO 8655 part 6.</t>
-  </si>
-  <si>
-    <t>meth4</t>
-  </si>
-  <si>
-    <t>Uncertainty</t>
-  </si>
-  <si>
-    <t>Usikkerhed</t>
-  </si>
-  <si>
-    <t>The reported expanded uncertainty [±U] is given as the measurement standard uncertainty multiplied with the
-                covge factor k=2 which corresponds to a coverage probability of approximately 95%</t>
-  </si>
-  <si>
-    <t>Den rapporterede måleusikkerhed er angivet som standard måleusikkerheden ganget med dækningsfaktoren k=2 svarende til en dækningssansylighed på ca. 95%.</t>
-  </si>
-  <si>
-    <t>env1</t>
-  </si>
-  <si>
-    <t>Environment</t>
-  </si>
-  <si>
-    <t>Miljøfaktor</t>
-  </si>
-  <si>
-    <t>Pressure: 1011 hPa ±10 hPa</t>
-  </si>
-  <si>
-    <t>Tryk: 1011 hPa ±10 hPa</t>
-  </si>
-  <si>
-    <t>env2</t>
-  </si>
-  <si>
-    <t>Temperature: 20.5°C±0,4°C</t>
-  </si>
-  <si>
-    <t>Temperatur: 20,5°C±0,4°C</t>
-  </si>
-  <si>
-    <t>env3</t>
-  </si>
-  <si>
-    <t>Evironment</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> relative humidity: 59.4 %RH ±10 %RH</t>
-  </si>
-  <si>
-    <t>Relativ luftfugtighed: 59,4 %RH ±10 %RH</t>
-  </si>
-  <si>
-    <t>productName</t>
-  </si>
-  <si>
-    <t>productType</t>
-  </si>
-  <si>
-    <t>customer_id heading[en]</t>
-  </si>
-  <si>
-    <t>customer_id heading[da]</t>
-  </si>
-  <si>
-    <t>customer_id value</t>
-  </si>
-  <si>
-    <t>manufact_id heading[en]</t>
-  </si>
-  <si>
-    <t>manufact_id heading[da]</t>
-  </si>
-  <si>
-    <t>manufact_id value</t>
-  </si>
-  <si>
-    <t>calLab_id heading[en]</t>
-  </si>
-  <si>
-    <t>calLab_id heading[da]</t>
-  </si>
-  <si>
-    <t>calLab_id value</t>
-  </si>
-  <si>
-    <t>item1</t>
-  </si>
-  <si>
-    <t>Pipette with 12 channels 50-1200 µm</t>
-  </si>
-  <si>
-    <t>Pipette med 12 kanaler 50-1200 µm</t>
-  </si>
-  <si>
-    <t>Biohit</t>
-  </si>
-  <si>
-    <t>Picus</t>
-  </si>
-  <si>
-    <t>Customer iD</t>
-  </si>
-  <si>
-    <t>Kundens ID</t>
-  </si>
-  <si>
-    <t>ID107</t>
-  </si>
-  <si>
-    <t>Serial number</t>
-  </si>
-  <si>
-    <t>Serienummer</t>
-  </si>
-  <si>
-    <t>item2</t>
-  </si>
-  <si>
-    <t>Pipette tip (1200 µl)</t>
-  </si>
-  <si>
-    <t>Pipettespids</t>
-  </si>
-  <si>
-    <t>Satorius</t>
-  </si>
-  <si>
-    <t>Optifit</t>
-  </si>
-  <si>
-    <t>Lot number</t>
-  </si>
-  <si>
-    <t>Lot-nummer</t>
-  </si>
-  <si>
-    <t>ss23987</t>
-  </si>
-  <si>
-    <t>ref1</t>
-  </si>
-  <si>
-    <t>Balance. 
-	resolution: 0.00001 g.
-                calibrated: 2021-11-25.</t>
-  </si>
-  <si>
-    <t>Vægt. 
-                Opløsning:  0,00001 g.  
-                Kalibreret: 2021-11-25</t>
-  </si>
-  <si>
-    <t>Laboratory's ID for the used reference</t>
-  </si>
-  <si>
-    <t>Laboratoriets ID nummer</t>
-  </si>
-  <si>
-    <t>ID148</t>
-  </si>
-  <si>
-    <t>Settings</t>
-  </si>
-  <si>
-    <t>Indstillinger</t>
-  </si>
-  <si>
-    <t>@settingId</t>
-  </si>
-  <si>
-    <t>@equipmentRef</t>
-  </si>
-  <si>
-    <t>parameter</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>softwareInstruction</t>
-  </si>
-  <si>
-    <t>ch1</t>
-  </si>
-  <si>
-    <t>Channel</t>
-  </si>
-  <si>
-    <t>Kanal</t>
-  </si>
-  <si>
-    <t>ch2</t>
-  </si>
-  <si>
-    <t>ch3</t>
-  </si>
-  <si>
-    <t>sin</t>
-  </si>
-  <si>
-    <t>speed-in</t>
-  </si>
-  <si>
-    <t>Speed in</t>
-  </si>
-  <si>
-    <t>Hastighed ind</t>
-  </si>
-  <si>
-    <t>Same speed is used in all measurements</t>
-  </si>
-  <si>
-    <t>Samme hastighed er anvendt I alle målinger</t>
-  </si>
-  <si>
-    <t>sout</t>
-  </si>
-  <si>
-    <t>speed-out</t>
-  </si>
-  <si>
-    <t>speed out</t>
-  </si>
-  <si>
-    <t>Hastighed ud</t>
-  </si>
-  <si>
-    <t>Measuring Systems Under Calibration</t>
-  </si>
-  <si>
-    <t>Målesystemer</t>
-  </si>
-  <si>
-    <t>equipmentRefs</t>
-  </si>
-  <si>
-    <t>settingRefs</t>
-  </si>
-  <si>
-    <t>statementRefs</t>
-  </si>
-  <si>
-    <t>operationalStatus</t>
-  </si>
-  <si>
-    <t>ms1</t>
-  </si>
-  <si>
-    <t>Channel 1</t>
-  </si>
-  <si>
-    <t>Kanal 1</t>
-  </si>
-  <si>
-    <t>item1 item2</t>
-  </si>
-  <si>
-    <t>ch1 sin sout</t>
-  </si>
-  <si>
-    <t>ms2</t>
-  </si>
-  <si>
-    <t>Channel 2</t>
-  </si>
-  <si>
-    <t>Kanal 2</t>
-  </si>
-  <si>
-    <t>ch2 sin sout</t>
-  </si>
-  <si>
-    <t>refernece1</t>
-  </si>
-  <si>
-    <t>Embedded files</t>
-  </si>
-  <si>
-    <t>Indlejrede filer</t>
-  </si>
-  <si>
-    <t>fileExtension</t>
-  </si>
-  <si>
-    <t>\\tesla\data\MS\DBH\Projects\1901 NY-INFRA-FOT\DCC\Software\DCCtables\master\embeddedFiles\logo.png</t>
-  </si>
-  <si>
-    <t>\\tesla\data\MS\DBH\Projects\1901 NY-INFRA-FOT\DCC\Software\DCCtables\master\embeddedFiles\logoLarge.png</t>
-  </si>
-  <si>
-    <t>logo.png</t>
-  </si>
-  <si>
-    <t>Logo of Calibration Laboratory</t>
-  </si>
-  <si>
-    <t>Kalibreringslaboratoriets Logo</t>
-  </si>
-  <si>
-    <t>png</t>
-  </si>
-  <si>
-    <t>logoLarge.png</t>
-  </si>
-  <si>
-    <t>Large Logo of Calibration Laboratory</t>
-  </si>
-  <si>
-    <t>Kalibreringslaboratoriets Store Logo</t>
-  </si>
-  <si>
-    <t>Definition of Units and Qauntities</t>
-  </si>
-  <si>
-    <t>@quantityCodeSystem</t>
-  </si>
-  <si>
-    <t>quantityCode</t>
-  </si>
-  <si>
-    <t>unitUsed</t>
-  </si>
-  <si>
-    <t>functionToSIunit</t>
-  </si>
-  <si>
-    <t>unitSI</t>
-  </si>
-  <si>
-    <t>externalRefs</t>
-  </si>
-  <si>
-    <t>@statementRefs</t>
-  </si>
-  <si>
-    <t>QU-Zfactor</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1+0*value</t>
-  </si>
-  <si>
-    <t>QU_IEC_60050</t>
-  </si>
-  <si>
-    <t>tableCategory</t>
-  </si>
-  <si>
-    <t>@tableId</t>
-  </si>
-  <si>
-    <t>@serviceCategory</t>
-  </si>
-  <si>
-    <t>@measuringSystemRef</t>
-  </si>
-  <si>
-    <t>@customServiceCategory</t>
-  </si>
-  <si>
-    <t>statementRef</t>
-  </si>
-  <si>
-    <t>@numRows</t>
-  </si>
-  <si>
-    <t>@numCols</t>
-  </si>
-  <si>
-    <t>calRes0</t>
-  </si>
-  <si>
-    <t>New format of calibration data</t>
-  </si>
-  <si>
-    <t>Kalibreringsresultat nyt format</t>
-  </si>
-  <si>
-    <t>scope</t>
-  </si>
-  <si>
-    <t>dataCategory</t>
-  </si>
-  <si>
-    <t>dataCategoryRef</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>idx</t>
-  </si>
-  <si>
-    <t>Customer Tags</t>
-  </si>
-  <si>
-    <t>Kundens kode</t>
-  </si>
-  <si>
-    <t>pt1</t>
-  </si>
-  <si>
-    <t>pt2</t>
-  </si>
-  <si>
-    <t>pt3</t>
-  </si>
-  <si>
-    <t>µL</t>
-  </si>
-  <si>
-    <t>Item indication</t>
-  </si>
-  <si>
-    <t>Emnets visning</t>
-  </si>
-  <si>
-    <t>Approach to target (a: from above, b: from below)</t>
-  </si>
-  <si>
-    <t>Tilnærmelse til målværdi (oppefra [a], nedefra [b])</t>
-  </si>
-  <si>
-    <t>Systematic error</t>
-  </si>
-  <si>
-    <t>Systematisk fejl</t>
-  </si>
-  <si>
-    <t>Calibration uncertainty</t>
-  </si>
-  <si>
-    <t>Kalibreringsusikkerhed</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>Systematic error (relative)</t>
-  </si>
-  <si>
-    <t>Systematisk fejl (relativ)</t>
-  </si>
-  <si>
-    <t>Calibration uncertainty (relative)</t>
-  </si>
-  <si>
-    <t>Kalibreringsusikkerhed (relativ)</t>
-  </si>
-  <si>
-    <t>Repeatability</t>
-  </si>
-  <si>
-    <t>Repeterbarhed</t>
-  </si>
-  <si>
-    <t>Repeatability (relative)</t>
-  </si>
-  <si>
-    <t>Repeterbarhed (relativ)</t>
-  </si>
-  <si>
-    <t>Conformaty statement</t>
-  </si>
-  <si>
-    <t>Overensstemmelseserklæring</t>
-  </si>
-  <si>
-    <t>Z faktor</t>
-  </si>
-  <si>
-    <t>Reference Value</t>
-  </si>
-  <si>
-    <t>Referencens værdi</t>
-  </si>
-  <si>
-    <t>Calibration point</t>
-  </si>
-  <si>
-    <t>Kalibreringspunkt</t>
-  </si>
-  <si>
-    <t>Exception to accreditation</t>
-  </si>
-  <si>
-    <t>Uncertainty k factor</t>
-  </si>
-  <si>
-    <t>Usikkerhed k-faktor</t>
-  </si>
-  <si>
-    <t>Calculation of Z-factor</t>
-  </si>
-  <si>
-    <t>Bergning af Z-faktor</t>
-  </si>
-  <si>
-    <t>Conformaty status decision rule</t>
-  </si>
-  <si>
-    <t>Data-series used for calculation of repeatability and systematic error</t>
-  </si>
-  <si>
-    <t>Måleserier som danner grundlag for beregning af repeterbarhed og systematisk fejl</t>
-  </si>
-  <si>
-    <t>ser11</t>
-  </si>
-  <si>
-    <t>ser12</t>
-  </si>
-  <si>
-    <t>ser13</t>
-  </si>
-  <si>
-    <t>calRes2</t>
-  </si>
-  <si>
-    <t>Calibration result chanel 2</t>
-  </si>
-  <si>
-    <t>Kalibreringsresultat kanal 2</t>
-  </si>
-  <si>
-    <t>p1</t>
-  </si>
-  <si>
-    <t>p2</t>
-  </si>
-  <si>
-    <t>p3</t>
-  </si>
-  <si>
-    <t>Calibration Point</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meth3 </t>
-  </si>
-  <si>
-    <t>Data-series used for calculation of repeatability</t>
-  </si>
-  <si>
-    <t>Måleserier som danner grundlag for beregning af repeterbarhed</t>
-  </si>
-  <si>
-    <t>ser21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ser22 </t>
-  </si>
-  <si>
-    <t>ser23</t>
-  </si>
-  <si>
-    <t>Series of measurement channel 1</t>
-  </si>
-  <si>
-    <t>Måleserie kanal 1</t>
-  </si>
-  <si>
-    <t>p4</t>
-  </si>
-  <si>
-    <t>p5</t>
-  </si>
-  <si>
-    <t>p6</t>
-  </si>
-  <si>
-    <t>p7</t>
-  </si>
-  <si>
-    <t>p8</t>
-  </si>
-  <si>
-    <t>p9</t>
-  </si>
-  <si>
-    <t>p10</t>
-  </si>
-  <si>
-    <t>Reference value</t>
-  </si>
-  <si>
-    <t>Referenceværdi</t>
-  </si>
-  <si>
-    <t>Series of measurement channel 2</t>
-  </si>
-  <si>
-    <t>Måleserie kanal 2</t>
-  </si>
-  <si>
-    <t>ser22</t>
   </si>
 </sst>
 </file>
@@ -7099,57 +5993,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD966"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6E0B4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE2EFDA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDEBF7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCE4D6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -7157,290 +6009,22 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="76">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -7451,111 +6035,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>419158</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>235008</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="logo.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{650B0491-184B-ADB5-DD92-9142D9223FBE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14478000" y="552450"/>
-          <a:ext cx="419158" cy="419158"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>381394</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>114393</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="logoLarge.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6B30427-B01D-5BB4-007B-67490B05879D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16059150" y="736600"/>
-          <a:ext cx="2819794" cy="666843"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7708,124 +6187,6 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDD3BFE8-06D9-4E96-BC81-7B5071A8D5D6}" name="Table_statements" displayName="Table_statements" ref="A3:H14" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
-  <autoFilter ref="A3:H14" xr:uid="{FDD3BFE8-06D9-4E96-BC81-7B5071A8D5D6}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{F9E82A13-B9E8-415F-8B7C-D62A532174A1}" name="in DCC" dataDxfId="75"/>
-    <tableColumn id="2" xr3:uid="{976DE28F-5326-4BED-B1F5-8BFD45423FDF}" name="@id" dataDxfId="74"/>
-    <tableColumn id="3" xr3:uid="{9279EABE-250D-4741-9EB7-E7B48CE883B7}" name="@category" dataDxfId="73"/>
-    <tableColumn id="4" xr3:uid="{C23BD8F4-24B3-4BB3-A6A0-349BB35E5BD7}" name="heading[en]" dataDxfId="72"/>
-    <tableColumn id="5" xr3:uid="{3207056F-6139-47CC-A966-CBBB2417EDE5}" name="heading[da]" dataDxfId="71"/>
-    <tableColumn id="6" xr3:uid="{22C817C2-41B3-4D5F-AB38-970E4199C5DC}" name="body[en]" dataDxfId="70"/>
-    <tableColumn id="7" xr3:uid="{FF66F02B-4C60-4A18-A692-89FA2115AA23}" name="body[da]" dataDxfId="69"/>
-    <tableColumn id="8" xr3:uid="{ED46DD3B-C78C-4EE2-9975-183A7F527E70}" name="externalReference" dataDxfId="68"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EEA726E0-A1F4-470A-BBE0-FCB8591BC6D5}" name="Table_equipment" displayName="Table_equipment" ref="A3:Q6" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
-  <autoFilter ref="A3:Q6" xr:uid="{EEA726E0-A1F4-470A-BBE0-FCB8591BC6D5}"/>
-  <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{497A46D4-A4A1-42D4-A4AF-74D6CDBCB11D}" name="in DCC" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{D76E272C-5284-4018-AAFA-334B14A5E0C4}" name="@id" dataDxfId="64"/>
-    <tableColumn id="3" xr3:uid="{2DF2BD87-EA64-4CE5-A7AF-C32AE31D9F19}" name="@category" dataDxfId="63"/>
-    <tableColumn id="4" xr3:uid="{67D21E8B-309C-4511-9C42-DAD1EAEC3E90}" name="heading[en]" dataDxfId="62"/>
-    <tableColumn id="5" xr3:uid="{058C1CB8-38E6-4B28-84AD-17004CDA5204}" name="heading[da]" dataDxfId="61"/>
-    <tableColumn id="6" xr3:uid="{30C12A4D-E114-42A9-B4CB-63AF7DA9B0A4}" name="manufacturer" dataDxfId="60"/>
-    <tableColumn id="7" xr3:uid="{9429B98E-9339-4120-A52A-23DD6404D617}" name="productName" dataDxfId="59"/>
-    <tableColumn id="8" xr3:uid="{AFA1A7F1-F0BF-42DB-881F-F20544851D19}" name="productType" dataDxfId="58"/>
-    <tableColumn id="9" xr3:uid="{D70798C1-770A-438D-A2DE-6E770D3262A3}" name="customer_id heading[en]" dataDxfId="57"/>
-    <tableColumn id="10" xr3:uid="{1E8B91CC-CEA5-4C26-B472-53A0080F3CCB}" name="customer_id heading[da]" dataDxfId="56"/>
-    <tableColumn id="11" xr3:uid="{283F71B6-5D32-42F2-8517-672BB3DE29F4}" name="customer_id value" dataDxfId="55"/>
-    <tableColumn id="12" xr3:uid="{5A47DE97-3FD4-4B3B-BA07-4F2CECC1A9F6}" name="manufact_id heading[en]" dataDxfId="54"/>
-    <tableColumn id="13" xr3:uid="{DB056A08-48AF-41B0-9CDD-BC3F4D608084}" name="manufact_id heading[da]" dataDxfId="53"/>
-    <tableColumn id="14" xr3:uid="{1B5A1701-F265-4ED7-9F78-F3823B63E69B}" name="manufact_id value" dataDxfId="52"/>
-    <tableColumn id="15" xr3:uid="{0660E7EC-4943-4866-ACAB-94363C913B23}" name="calLab_id heading[en]" dataDxfId="51"/>
-    <tableColumn id="16" xr3:uid="{8FA0602B-A47F-4C03-A18B-1C5CCF235E07}" name="calLab_id heading[da]" dataDxfId="50"/>
-    <tableColumn id="17" xr3:uid="{BCC0598A-D0C0-4AD2-AC91-5F0EA936DFB1}" name="calLab_id value" dataDxfId="49"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2FA98BF3-2B3B-469C-8840-3FF793C28E19}" name="Table_settings" displayName="Table_settings" ref="A3:K8" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
-  <autoFilter ref="A3:K8" xr:uid="{2FA98BF3-2B3B-469C-8840-3FF793C28E19}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{D5F54A1E-F19B-4BF8-AA89-4CA1B37FE29A}" name="in DCC" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{07CEADA0-6A3C-40A5-BECD-EB9B893519F6}" name="@settingId" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{3DABCF9D-B093-44CC-B769-B088A7A55045}" name="@equipmentRef" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{56458431-B752-4C82-8115-904D67709759}" name="parameter" dataDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{4D0F40B1-A6AF-4BF8-BCF5-699A6FADB2DB}" name="value" dataDxfId="42"/>
-    <tableColumn id="6" xr3:uid="{821A5D0E-A037-415A-842E-94C200B2759E}" name="unit" dataDxfId="41"/>
-    <tableColumn id="7" xr3:uid="{92BCB061-AE58-4B86-BF61-1DAA91E99AB4}" name="softwareInstruction" dataDxfId="40"/>
-    <tableColumn id="8" xr3:uid="{DC899E52-C7AB-4565-AD17-88C8D7AE00AA}" name="heading[en]" dataDxfId="39"/>
-    <tableColumn id="9" xr3:uid="{5A6BC896-8560-467C-9C5B-6AEC1D3373F0}" name="heading[da]" dataDxfId="38"/>
-    <tableColumn id="10" xr3:uid="{7F2C0B23-D825-4C29-A671-213D577CE4DF}" name="body[en]" dataDxfId="37"/>
-    <tableColumn id="11" xr3:uid="{6AB2B7C9-1DE7-4E1A-9912-28DE49DA4FDA}" name="body[da]" dataDxfId="36"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2DD7DE4A-010F-414C-96D8-8BCAAD062CF5}" name="Table_measuringSystems" displayName="Table_measuringSystems" ref="A3:J6" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="A3:J6" xr:uid="{2DD7DE4A-010F-414C-96D8-8BCAAD062CF5}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{999D3813-6D91-47D2-ADC9-507862A353FC}" name="in DCC" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{B01D7713-5C24-491B-9C3A-FB9C2EC04535}" name="@id" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{DC147B36-3929-4B1C-8045-9A8B49D85E58}" name="heading[en]" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{D2B1212B-32CF-4CFE-BE72-20FB7A793E56}" name="heading[da]" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{33116C32-BB37-48DC-9A69-D3A2645043C2}" name="equipmentRefs" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{E317B17A-B2D3-422E-B250-AE24AA913B4D}" name="settingRefs" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{D10C486A-57AD-4F49-AB3A-48F926BC9C9E}" name="statementRefs" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{BA54A228-9E56-46C0-96B6-BDBD18F747C3}" name="operationalStatus" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{39272101-36DD-41A8-A196-3AF779720A7B}" name="body[en]" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{F68987B5-BA52-45E3-A5B0-76AE120A03D7}" name="body[da]" dataDxfId="24"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{061848E5-D689-4963-BC98-9B13AFCDD936}" name="Table_embeddedFiles" displayName="Table_embeddedFiles" ref="A3:G5" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A3:G5" xr:uid="{061848E5-D689-4963-BC98-9B13AFCDD936}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{AE113467-4FE4-4857-9EB2-8C7D073BD89A}" name="in DCC" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{3A7804EE-D276-4B6C-821B-E1343D72DA75}" name="@id" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{DF0EAD05-41A5-444E-BBCA-AB357153340F}" name="heading[en]" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{579904F9-D8DF-4BD4-9BBC-F225911543AA}" name="heading[da]" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{3C341EC0-9397-46CD-99B8-CAC1C973B665}" name="body[en]" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{751438B7-1931-42D1-B3DB-DB79ADC6ECCB}" name="body[da]" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{8DA0C5FA-54DE-4DE4-907E-E7E087E7B01B}" name="fileExtension" dataDxfId="15"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B8A59FB0-5470-4036-BE0D-B14F744AA954}" name="Table_quantityUnitDefs" displayName="Table_quantityUnitDefs" ref="A3:K5" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A3:K5" xr:uid="{B8A59FB0-5470-4036-BE0D-B14F744AA954}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{DB4B4219-DEEC-40FF-B7D6-F0DC8E90EB9F}" name="in DCC" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{AE489EB7-9F3F-44ED-827E-471B495A8EA5}" name="@id" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{8B725802-DEF1-4CA1-B79A-4A35EA3B2A84}" name="@quantityCodeSystem" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{D72227CF-23D5-4A9D-9154-1AF96514C754}" name="quantityCode" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{9FA32931-E6E2-4DA7-ACE4-95D447CFFECB}" name="unitUsed" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{25395222-0EBE-406C-A13E-FA4DEC8131CB}" name="functionToSIunit" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{35906F5D-4C8A-47CA-89C9-FA56D870721A}" name="unitSI" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{00396A59-E957-49EC-AC34-58B3200C2B5D}" name="externalRefs" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{80B7A532-2EBB-4677-88A1-4BB4EC0DD115}" name="heading[en]" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{7B00CDED-FEAB-4A88-BB8B-1D1F8EF23684}" name="heading[da]" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{58DE754C-C496-4E7F-BDD4-221C89F38A37}" name="@statementRefs" dataDxfId="2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8128,7 +6489,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S863"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -15789,5632 +14150,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A918D4BF-870A-4F3B-A9F2-EB6FA67D4D2E}">
-  <dimension ref="A1:O23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" t="s">
-        <v>2237</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
-        <v>2238</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>2294</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" t="s">
-        <v>2239</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" t="s">
-        <v>2240</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>2208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" t="s">
-        <v>2241</v>
-      </c>
-      <c r="B5" s="8"/>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" t="s">
-        <v>2242</v>
-      </c>
-      <c r="B6" s="8"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" t="s">
-        <v>1961</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>2295</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" t="s">
-        <v>1962</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>2296</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" t="s">
-        <v>2243</v>
-      </c>
-      <c r="B9" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" t="s">
-        <v>2244</v>
-      </c>
-      <c r="B10" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="9" t="s">
-        <v>2248</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>918</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>891</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>891</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>915</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>916</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>916</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>916</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>916</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>918</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>916</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>916</v>
-      </c>
-      <c r="M12" s="10" t="s">
-        <v>892</v>
-      </c>
-      <c r="N12" s="10" t="s">
-        <v>892</v>
-      </c>
-      <c r="O12" s="11" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="9" t="s">
-        <v>2249</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>927</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>921</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>920</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>920</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>920</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>922</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>920</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>922</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>938</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>923</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>923</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>920</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>929</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="8" t="s">
-        <v>2250</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>918</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>918</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>918</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>918</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>918</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>920</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>918</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>920</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>922</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>923</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>923</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>920</v>
-      </c>
-      <c r="N14" s="13" t="s">
-        <v>920</v>
-      </c>
-      <c r="O14" s="11" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="14" t="s">
-        <v>2251</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>918</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>960</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>960</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>960</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>960</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>960</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>960</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>960</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>918</v>
-      </c>
-      <c r="K15" s="15" t="s">
-        <v>960</v>
-      </c>
-      <c r="L15" s="15" t="s">
-        <v>960</v>
-      </c>
-      <c r="M15" s="15" t="s">
-        <v>945</v>
-      </c>
-      <c r="N15" s="15" t="s">
-        <v>945</v>
-      </c>
-      <c r="O15" s="11" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="14" t="s">
-        <v>2180</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>2234</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>2258</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>2258</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>2258</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>2258</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>2258</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>2267</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>2267</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>918</v>
-      </c>
-      <c r="K16" s="15" t="s">
-        <v>2258</v>
-      </c>
-      <c r="L16" s="15" t="s">
-        <v>2267</v>
-      </c>
-      <c r="M16" s="15" t="s">
-        <v>2234</v>
-      </c>
-      <c r="N16" s="15" t="s">
-        <v>918</v>
-      </c>
-      <c r="O16" s="11" t="s">
-        <v>2234</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="16" t="s">
-        <v>945</v>
-      </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="17" t="s">
-        <v>2203</v>
-      </c>
-      <c r="N17" s="17" t="s">
-        <v>2203</v>
-      </c>
-      <c r="O17" s="12"/>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="18" t="s">
-        <v>1961</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>2253</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>2300</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>2279</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>2259</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>2263</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>2265</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>2268</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>2270</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>2284</v>
-      </c>
-      <c r="K18" s="18" t="s">
-        <v>2272</v>
-      </c>
-      <c r="L18" s="18" t="s">
-        <v>2274</v>
-      </c>
-      <c r="M18" s="18" t="s">
-        <v>2119</v>
-      </c>
-      <c r="N18" s="18" t="s">
-        <v>2286</v>
-      </c>
-      <c r="O18" s="12" t="s">
-        <v>2302</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="18" t="s">
-        <v>1962</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>2254</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>2282</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>2280</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>2260</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>2264</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>2266</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>2269</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>2271</v>
-      </c>
-      <c r="J19" s="18" t="s">
-        <v>2285</v>
-      </c>
-      <c r="K19" s="18" t="s">
-        <v>2273</v>
-      </c>
-      <c r="L19" s="18" t="s">
-        <v>2275</v>
-      </c>
-      <c r="M19" s="18" t="s">
-        <v>2278</v>
-      </c>
-      <c r="N19" s="18" t="s">
-        <v>2287</v>
-      </c>
-      <c r="O19" s="12" t="s">
-        <v>2303</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="19" t="s">
-        <v>2252</v>
-      </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="12"/>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="20">
-        <v>1</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>2297</v>
-      </c>
-      <c r="C21" s="21">
-        <v>120</v>
-      </c>
-      <c r="D21" s="21">
-        <v>121.0752</v>
-      </c>
-      <c r="E21" s="21">
-        <v>120</v>
-      </c>
-      <c r="F21" s="21">
-        <v>1.08</v>
-      </c>
-      <c r="G21" s="21">
-        <v>0.35</v>
-      </c>
-      <c r="H21" s="21">
-        <v>0.9</v>
-      </c>
-      <c r="I21" s="21">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="J21" s="21">
-        <v>2</v>
-      </c>
-      <c r="K21" s="21">
-        <v>0.13</v>
-      </c>
-      <c r="L21" s="21">
-        <v>0.11</v>
-      </c>
-      <c r="M21" s="21">
-        <v>1.0029999999999999</v>
-      </c>
-      <c r="N21" s="21" t="s">
-        <v>2118</v>
-      </c>
-      <c r="O21" s="12" t="s">
-        <v>2304</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="20">
-        <v>2</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>2298</v>
-      </c>
-      <c r="C22" s="21">
-        <v>600</v>
-      </c>
-      <c r="D22" s="21">
-        <v>600.04169999999999</v>
-      </c>
-      <c r="E22" s="21">
-        <v>600</v>
-      </c>
-      <c r="F22" s="21">
-        <v>0.04</v>
-      </c>
-      <c r="G22" s="21">
-        <v>1.5</v>
-      </c>
-      <c r="H22" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="I22" s="21">
-        <v>0.25</v>
-      </c>
-      <c r="J22" s="21">
-        <v>2</v>
-      </c>
-      <c r="K22" s="21">
-        <v>0.24</v>
-      </c>
-      <c r="L22" s="21">
-        <v>0.04</v>
-      </c>
-      <c r="M22" s="21">
-        <v>1.0029999999999999</v>
-      </c>
-      <c r="N22" s="21" t="s">
-        <v>2301</v>
-      </c>
-      <c r="O22" s="12" t="s">
-        <v>2305</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="20">
-        <v>3</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>2299</v>
-      </c>
-      <c r="C23" s="21">
-        <v>1200</v>
-      </c>
-      <c r="D23" s="21">
-        <v>1198.9010000000001</v>
-      </c>
-      <c r="E23" s="21">
-        <v>1200</v>
-      </c>
-      <c r="F23" s="21">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="G23" s="21">
-        <v>2.4</v>
-      </c>
-      <c r="H23" s="21">
-        <v>-0.09</v>
-      </c>
-      <c r="I23" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="J23" s="21">
-        <v>2</v>
-      </c>
-      <c r="K23" s="21">
-        <v>0.6</v>
-      </c>
-      <c r="L23" s="21">
-        <v>0.05</v>
-      </c>
-      <c r="M23" s="21">
-        <v>1.0029999999999999</v>
-      </c>
-      <c r="N23" s="21" t="s">
-        <v>2118</v>
-      </c>
-      <c r="O23" s="12" t="s">
-        <v>2306</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{B872F194-C148-45F6-9B73-DA64F686A959}">
-      <formula1>tableCategoryType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{B0D8C66C-11E7-4E20-82A6-BD9194C3BAE0}">
-      <formula1>serviceCategoryType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{DB261D32-1B60-462A-AC4F-70C85989D029}">
-      <formula1>measuringSystemIdRange</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:O12" xr:uid="{2FD3E3E9-01AE-463D-9D70-6203D324C167}">
-      <formula1>scopeType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:O13 B14:O14" xr:uid="{4CADEBA1-BB5A-42CD-B882-730A1A1BDB09}">
-      <formula1>dataCategoryType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:O15" xr:uid="{021BE95C-D9C0-429A-85F9-70B99AA4A358}">
-      <formula1>quantityType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:O17" xr:uid="{6F3E6934-DD30-42B3-9546-FFFD2FD1927B}">
-      <formula1>quantityUnitDefIdRange</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CEE376B-3BEE-4EFA-BC17-9DF041223DC4}">
-  <dimension ref="A1:D30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>2237</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>2238</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>2291</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>2239</v>
-      </c>
-      <c r="B3" s="8"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>2240</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>2203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>2241</v>
-      </c>
-      <c r="B5" s="8"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>2242</v>
-      </c>
-      <c r="B6" s="8"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>1961</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>2307</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>1962</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>2308</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>2243</v>
-      </c>
-      <c r="B9" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>2244</v>
-      </c>
-      <c r="B10" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="9" t="s">
-        <v>2248</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>918</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>891</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="9" t="s">
-        <v>2249</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>927</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>921</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="8" t="s">
-        <v>2250</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>918</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>921</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="14" t="s">
-        <v>2251</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>918</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>960</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="14" t="s">
-        <v>2180</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>918</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>2258</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>2258</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="16" t="s">
-        <v>945</v>
-      </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="18" t="s">
-        <v>1961</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>2253</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>2300</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>2316</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="18" t="s">
-        <v>1962</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>2254</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>2282</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>2317</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="19" t="s">
-        <v>2252</v>
-      </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="20">
-        <v>1</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>2297</v>
-      </c>
-      <c r="C21" s="21">
-        <v>120</v>
-      </c>
-      <c r="D21" s="21">
-        <v>121.3229</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="20">
-        <v>2</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>2298</v>
-      </c>
-      <c r="C22" s="21">
-        <v>120</v>
-      </c>
-      <c r="D22" s="21">
-        <v>121.1223</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="20">
-        <v>3</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>2299</v>
-      </c>
-      <c r="C23" s="21">
-        <v>120</v>
-      </c>
-      <c r="D23" s="21">
-        <v>121.1724</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="20">
-        <v>4</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>2309</v>
-      </c>
-      <c r="C24" s="21">
-        <v>120</v>
-      </c>
-      <c r="D24" s="21">
-        <v>121.1022</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="20">
-        <v>5</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>2310</v>
-      </c>
-      <c r="C25" s="21">
-        <v>120</v>
-      </c>
-      <c r="D25" s="21">
-        <v>121.2025</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="20">
-        <v>6</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>2311</v>
-      </c>
-      <c r="C26" s="21">
-        <v>120</v>
-      </c>
-      <c r="D26" s="21">
-        <v>121.1825</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="20">
-        <v>7</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>2312</v>
-      </c>
-      <c r="C27" s="21">
-        <v>120</v>
-      </c>
-      <c r="D27" s="21">
-        <v>121.3129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="20">
-        <v>8</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>2313</v>
-      </c>
-      <c r="C28" s="21">
-        <v>120</v>
-      </c>
-      <c r="D28" s="21">
-        <v>121.042</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="20">
-        <v>9</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>2314</v>
-      </c>
-      <c r="C29" s="21">
-        <v>120</v>
-      </c>
-      <c r="D29" s="21">
-        <v>121.1724</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="20">
-        <v>10</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>2315</v>
-      </c>
-      <c r="C30" s="21">
-        <v>120</v>
-      </c>
-      <c r="D30" s="21">
-        <v>121.5034</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{1F52C1A4-21FB-43BD-9798-951FDBAB9BF4}">
-      <formula1>tableCategoryType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{5B8D4FBA-16E1-442E-B697-75E59B8521FB}">
-      <formula1>serviceCategoryType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{14F087F7-6974-4849-939A-6E86E5C7820B}">
-      <formula1>measuringSystemIdRange</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:D12" xr:uid="{B6C13372-9232-4BC2-BA43-9EABA08EEF2A}">
-      <formula1>scopeType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:D13 B14:D14" xr:uid="{0DC00D79-BF91-43E9-8537-E6DE8A5AB9F0}">
-      <formula1>dataCategoryType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:D15" xr:uid="{2C24DD1A-C4E8-4F29-870E-938C0C34E837}">
-      <formula1>quantityType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:E17" xr:uid="{6C65850D-E552-45D6-917A-F051975E951F}">
-      <formula1>quantityUnitDefIdRange</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA92A48-8190-4E5E-AAD7-D29FEF77F4CB}">
-  <dimension ref="A1:E30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>2237</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>2238</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>2292</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>2239</v>
-      </c>
-      <c r="B3" s="8"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>2240</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>2203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>2241</v>
-      </c>
-      <c r="B5" s="8"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>2242</v>
-      </c>
-      <c r="B6" s="8"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>1961</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>2307</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>1962</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>2308</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>2243</v>
-      </c>
-      <c r="B9" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>2244</v>
-      </c>
-      <c r="B10" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="9" t="s">
-        <v>2248</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>918</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>891</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>891</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="9" t="s">
-        <v>2249</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>927</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>921</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>920</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="8" t="s">
-        <v>2250</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>918</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>921</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>920</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="14" t="s">
-        <v>2251</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>918</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>960</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>960</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="14" t="s">
-        <v>2180</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>918</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>2258</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>2258</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>2258</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="16" t="s">
-        <v>945</v>
-      </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="18" t="s">
-        <v>1961</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>2253</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>2300</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>2316</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>2259</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="18" t="s">
-        <v>1962</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>2254</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>2282</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>2317</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>2260</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="19" t="s">
-        <v>2252</v>
-      </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="20">
-        <v>1</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>2297</v>
-      </c>
-      <c r="C21" s="21">
-        <v>600</v>
-      </c>
-      <c r="D21" s="21">
-        <v>600.54629999999997</v>
-      </c>
-      <c r="E21" s="21">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="20">
-        <v>2</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>2298</v>
-      </c>
-      <c r="C22" s="21">
-        <v>600</v>
-      </c>
-      <c r="D22" s="21">
-        <v>600.46600000000001</v>
-      </c>
-      <c r="E22" s="21">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="20">
-        <v>3</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>2299</v>
-      </c>
-      <c r="C23" s="21">
-        <v>600</v>
-      </c>
-      <c r="D23" s="21">
-        <v>599.78399999999999</v>
-      </c>
-      <c r="E23" s="21">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="20">
-        <v>4</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>2309</v>
-      </c>
-      <c r="C24" s="21">
-        <v>600</v>
-      </c>
-      <c r="D24" s="21">
-        <v>600.52620000000002</v>
-      </c>
-      <c r="E24" s="21">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="20">
-        <v>5</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>2310</v>
-      </c>
-      <c r="C25" s="21">
-        <v>600</v>
-      </c>
-      <c r="D25" s="21">
-        <v>600.4058</v>
-      </c>
-      <c r="E25" s="21">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="20">
-        <v>6</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>2311</v>
-      </c>
-      <c r="C26" s="21">
-        <v>600</v>
-      </c>
-      <c r="D26" s="21">
-        <v>600.10490000000004</v>
-      </c>
-      <c r="E26" s="21">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="20">
-        <v>7</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>2312</v>
-      </c>
-      <c r="C27" s="21">
-        <v>600</v>
-      </c>
-      <c r="D27" s="21">
-        <v>600.34569999999997</v>
-      </c>
-      <c r="E27" s="21">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="20">
-        <v>8</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>2313</v>
-      </c>
-      <c r="C28" s="21">
-        <v>600</v>
-      </c>
-      <c r="D28" s="21">
-        <v>600.37570000000005</v>
-      </c>
-      <c r="E28" s="21">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="20">
-        <v>9</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>2314</v>
-      </c>
-      <c r="C29" s="21">
-        <v>600</v>
-      </c>
-      <c r="D29" s="21">
-        <v>600.70669999999996</v>
-      </c>
-      <c r="E29" s="21">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="20">
-        <v>10</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>2315</v>
-      </c>
-      <c r="C30" s="21">
-        <v>600</v>
-      </c>
-      <c r="D30" s="21">
-        <v>600.1952</v>
-      </c>
-      <c r="E30" s="21">
-        <v>600</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{0E92FF46-57C3-42D0-9316-C966848D6332}">
-      <formula1>tableCategoryType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{C2298C02-38A4-42E3-993B-85B48C0208C7}">
-      <formula1>serviceCategoryType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{2DF6985F-B8A4-40EE-BB75-540146777BC6}">
-      <formula1>measuringSystemIdRange</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:E12" xr:uid="{AF0EEA4A-A129-490E-94AF-2B49B3D7FC8C}">
-      <formula1>scopeType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:E13 B14:E14" xr:uid="{D10FBBA2-ACCB-4F0F-A711-4F2796E6A5B4}">
-      <formula1>dataCategoryType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:E15" xr:uid="{C77C0D3E-E873-4529-BE1B-811337E0E14F}">
-      <formula1>quantityType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:F17" xr:uid="{A49F49AE-6110-408F-89B4-9E61A7EF2D77}">
-      <formula1>quantityUnitDefIdRange</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54104DDE-1BBB-4B2B-A7A1-5BE3FFCB1A69}">
-  <dimension ref="A1:E30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>2237</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>2238</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>2293</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>2239</v>
-      </c>
-      <c r="B3" s="8"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>2240</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>2203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>2241</v>
-      </c>
-      <c r="B5" s="8"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>2242</v>
-      </c>
-      <c r="B6" s="8"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>1961</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>2307</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>1962</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>2308</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>2243</v>
-      </c>
-      <c r="B9" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>2244</v>
-      </c>
-      <c r="B10" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="9" t="s">
-        <v>2248</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>918</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>891</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>891</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="9" t="s">
-        <v>2249</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>927</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>921</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>920</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="8" t="s">
-        <v>2250</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>918</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>921</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>920</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="14" t="s">
-        <v>2251</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>918</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>960</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>960</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="14" t="s">
-        <v>2180</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>918</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>2258</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>2258</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>2258</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="16" t="s">
-        <v>945</v>
-      </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="18" t="s">
-        <v>1961</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>2253</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>2300</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>2316</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>2259</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="18" t="s">
-        <v>1962</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>2254</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>2282</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>2317</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>2260</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="19" t="s">
-        <v>2252</v>
-      </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="20">
-        <v>1</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>2297</v>
-      </c>
-      <c r="C21" s="21">
-        <v>1200</v>
-      </c>
-      <c r="D21" s="21">
-        <v>1199.4880000000001</v>
-      </c>
-      <c r="E21" s="21">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="20">
-        <v>2</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>2298</v>
-      </c>
-      <c r="C22" s="21">
-        <v>1200</v>
-      </c>
-      <c r="D22" s="21">
-        <v>1199.046</v>
-      </c>
-      <c r="E22" s="21">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="20">
-        <v>3</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>2299</v>
-      </c>
-      <c r="C23" s="21">
-        <v>1200</v>
-      </c>
-      <c r="D23" s="21">
-        <v>1198.0429999999999</v>
-      </c>
-      <c r="E23" s="21">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="20">
-        <v>4</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>2309</v>
-      </c>
-      <c r="C24" s="21">
-        <v>1200</v>
-      </c>
-      <c r="D24" s="21">
-        <v>1198.615</v>
-      </c>
-      <c r="E24" s="21">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="20">
-        <v>5</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>2310</v>
-      </c>
-      <c r="C25" s="21">
-        <v>1200</v>
-      </c>
-      <c r="D25" s="21">
-        <v>1199.4780000000001</v>
-      </c>
-      <c r="E25" s="21">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="20">
-        <v>6</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>2311</v>
-      </c>
-      <c r="C26" s="21">
-        <v>1200</v>
-      </c>
-      <c r="D26" s="21">
-        <v>1199.9490000000001</v>
-      </c>
-      <c r="E26" s="21">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="20">
-        <v>7</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>2312</v>
-      </c>
-      <c r="C27" s="21">
-        <v>1200</v>
-      </c>
-      <c r="D27" s="21">
-        <v>1198.9659999999999</v>
-      </c>
-      <c r="E27" s="21">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="20">
-        <v>8</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>2313</v>
-      </c>
-      <c r="C28" s="21">
-        <v>1200</v>
-      </c>
-      <c r="D28" s="21">
-        <v>1199.087</v>
-      </c>
-      <c r="E28" s="21">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="20">
-        <v>9</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>2314</v>
-      </c>
-      <c r="C29" s="21">
-        <v>1200</v>
-      </c>
-      <c r="D29" s="21">
-        <v>1198.896</v>
-      </c>
-      <c r="E29" s="21">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="20">
-        <v>10</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>2315</v>
-      </c>
-      <c r="C30" s="21">
-        <v>1200</v>
-      </c>
-      <c r="D30" s="21">
-        <v>1199.2470000000001</v>
-      </c>
-      <c r="E30" s="21">
-        <v>1200</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{C2492434-EA80-4DE0-9C46-0BDE07E50E04}">
-      <formula1>tableCategoryType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{C68215F4-1564-44B7-B920-FC3E3DAB7CE3}">
-      <formula1>serviceCategoryType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{7AF1E52E-CD46-4ACD-A3D1-F81AE1F0224C}">
-      <formula1>measuringSystemIdRange</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:E12" xr:uid="{57122558-0001-46EE-BFA1-AF7E7AD0E0B9}">
-      <formula1>scopeType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:E13 B14:E14" xr:uid="{29410187-DFE0-486F-834B-148918E821E5}">
-      <formula1>dataCategoryType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:E15" xr:uid="{4A07EF51-A6A9-4EBD-8162-CE2A3E417A9A}">
-      <formula1>quantityType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:F17" xr:uid="{94CBB9DC-BCA2-4724-801F-F3330BDDA486}">
-      <formula1>quantityUnitDefIdRange</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764C747B-52B4-4280-984F-683C840E2A1D}">
-  <dimension ref="A1:D30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>2237</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>2238</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>2304</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>2239</v>
-      </c>
-      <c r="B3" s="8"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>2240</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>2208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>2241</v>
-      </c>
-      <c r="B5" s="8"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>2242</v>
-      </c>
-      <c r="B6" s="8"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>1961</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>2318</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>1962</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>2319</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>2243</v>
-      </c>
-      <c r="B9" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>2244</v>
-      </c>
-      <c r="B10" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="9" t="s">
-        <v>2248</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>918</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>891</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="9" t="s">
-        <v>2249</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>927</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>921</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="8" t="s">
-        <v>2250</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>918</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>921</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="14" t="s">
-        <v>2251</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>918</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>960</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="14" t="s">
-        <v>2180</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>918</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>2258</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>2258</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="16" t="s">
-        <v>945</v>
-      </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="18" t="s">
-        <v>1961</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>2253</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>2300</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>2316</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="18" t="s">
-        <v>1962</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>2254</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>2282</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>2317</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="19" t="s">
-        <v>2252</v>
-      </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="20">
-        <v>1</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>2297</v>
-      </c>
-      <c r="C21" s="21">
-        <v>120</v>
-      </c>
-      <c r="D21" s="21">
-        <v>121.1925</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="20">
-        <v>2</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>2298</v>
-      </c>
-      <c r="C22" s="21">
-        <v>120</v>
-      </c>
-      <c r="D22" s="21">
-        <v>120.9919</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="20">
-        <v>3</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>2299</v>
-      </c>
-      <c r="C23" s="21">
-        <v>120</v>
-      </c>
-      <c r="D23" s="21">
-        <v>121.012</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="20">
-        <v>4</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>2309</v>
-      </c>
-      <c r="C24" s="21">
-        <v>120</v>
-      </c>
-      <c r="D24" s="21">
-        <v>120.9919</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="20">
-        <v>5</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>2310</v>
-      </c>
-      <c r="C25" s="21">
-        <v>120</v>
-      </c>
-      <c r="D25" s="21">
-        <v>121.0822</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="20">
-        <v>6</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>2311</v>
-      </c>
-      <c r="C26" s="21">
-        <v>120</v>
-      </c>
-      <c r="D26" s="21">
-        <v>121.0621</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="20">
-        <v>7</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>2312</v>
-      </c>
-      <c r="C27" s="21">
-        <v>120</v>
-      </c>
-      <c r="D27" s="21">
-        <v>121.1724</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="20">
-        <v>8</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>2313</v>
-      </c>
-      <c r="C28" s="21">
-        <v>120</v>
-      </c>
-      <c r="D28" s="21">
-        <v>120.9217</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="20">
-        <v>9</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>2314</v>
-      </c>
-      <c r="C29" s="21">
-        <v>120</v>
-      </c>
-      <c r="D29" s="21">
-        <v>120.9618</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="20">
-        <v>10</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>2315</v>
-      </c>
-      <c r="C30" s="21">
-        <v>120</v>
-      </c>
-      <c r="D30" s="21">
-        <v>121.363</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{92448046-9485-4EAF-B4AF-E2689229F1CB}">
-      <formula1>tableCategoryType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{E6F723C8-2B1C-4D5F-896B-CBAA47B36A36}">
-      <formula1>serviceCategoryType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{2F62D06E-5C6C-4385-AD70-4CF4F6EF869F}">
-      <formula1>measuringSystemIdRange</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:D12" xr:uid="{DF43304D-D71F-4255-A6C9-E52C8ECF17A2}">
-      <formula1>scopeType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:D13 B14:D14" xr:uid="{70989BA6-FA19-4DA5-9FB2-CB0A2F835B48}">
-      <formula1>dataCategoryType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:D15" xr:uid="{648BB386-3D17-4B2F-A466-ED9E99804BDD}">
-      <formula1>quantityType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:E17" xr:uid="{BFA97F5D-B2FB-4A88-876B-90CC6FA3D8A3}">
-      <formula1>quantityUnitDefIdRange</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDEB57B-FE62-4446-A7DB-0469253D76F6}">
-  <dimension ref="A1:E30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>2237</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>2238</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>2320</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>2239</v>
-      </c>
-      <c r="B3" s="8"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>2240</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>2208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>2241</v>
-      </c>
-      <c r="B5" s="8"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>2242</v>
-      </c>
-      <c r="B6" s="8"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>1961</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>2318</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>1962</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>2319</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>2243</v>
-      </c>
-      <c r="B9" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>2244</v>
-      </c>
-      <c r="B10" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="9" t="s">
-        <v>2248</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>918</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>891</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>891</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="9" t="s">
-        <v>2249</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>927</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>921</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>920</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="8" t="s">
-        <v>2250</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>918</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>921</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>920</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="14" t="s">
-        <v>2251</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>918</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>960</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>960</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="14" t="s">
-        <v>2180</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>918</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>2258</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>2258</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>2258</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="16" t="s">
-        <v>945</v>
-      </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="18" t="s">
-        <v>1961</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>2253</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>2300</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>2316</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>2259</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="18" t="s">
-        <v>1962</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>2254</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>2282</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>2317</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>2260</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="19" t="s">
-        <v>2252</v>
-      </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="20">
-        <v>1</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>2297</v>
-      </c>
-      <c r="C21" s="21">
-        <v>600</v>
-      </c>
-      <c r="D21" s="21">
-        <v>600.17510000000004</v>
-      </c>
-      <c r="E21" s="21">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="20">
-        <v>2</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>2298</v>
-      </c>
-      <c r="C22" s="21">
-        <v>600</v>
-      </c>
-      <c r="D22" s="21">
-        <v>600.16510000000005</v>
-      </c>
-      <c r="E22" s="21">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="20">
-        <v>3</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>2299</v>
-      </c>
-      <c r="C23" s="21">
-        <v>600</v>
-      </c>
-      <c r="D23" s="21">
-        <v>599.53319999999997</v>
-      </c>
-      <c r="E23" s="21">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="20">
-        <v>4</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>2309</v>
-      </c>
-      <c r="C24" s="21">
-        <v>600</v>
-      </c>
-      <c r="D24" s="21">
-        <v>600.23530000000005</v>
-      </c>
-      <c r="E24" s="21">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="20">
-        <v>5</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>2310</v>
-      </c>
-      <c r="C25" s="21">
-        <v>600</v>
-      </c>
-      <c r="D25" s="21">
-        <v>600.09490000000005</v>
-      </c>
-      <c r="E25" s="21">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="20">
-        <v>6</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>2311</v>
-      </c>
-      <c r="C26" s="21">
-        <v>600</v>
-      </c>
-      <c r="D26" s="21">
-        <v>599.80399999999997</v>
-      </c>
-      <c r="E26" s="21">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="20">
-        <v>7</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>2312</v>
-      </c>
-      <c r="C27" s="21">
-        <v>600</v>
-      </c>
-      <c r="D27" s="21">
-        <v>600.01469999999995</v>
-      </c>
-      <c r="E27" s="21">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="20">
-        <v>8</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>2313</v>
-      </c>
-      <c r="C28" s="21">
-        <v>600</v>
-      </c>
-      <c r="D28" s="21">
-        <v>600.10490000000004</v>
-      </c>
-      <c r="E28" s="21">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="20">
-        <v>9</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>2314</v>
-      </c>
-      <c r="C29" s="21">
-        <v>600</v>
-      </c>
-      <c r="D29" s="21">
-        <v>600.38580000000002</v>
-      </c>
-      <c r="E29" s="21">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="20">
-        <v>10</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>2315</v>
-      </c>
-      <c r="C30" s="21">
-        <v>600</v>
-      </c>
-      <c r="D30" s="21">
-        <v>599.90430000000003</v>
-      </c>
-      <c r="E30" s="21">
-        <v>600</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{B85C2B46-692D-4819-A643-5A9334ADFD8F}">
-      <formula1>tableCategoryType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{078DC72B-97BD-430F-86BB-8A89466B02EF}">
-      <formula1>serviceCategoryType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{05BD85CB-F2BA-4E98-9233-86AA13677EF7}">
-      <formula1>measuringSystemIdRange</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:E12" xr:uid="{9F349A93-2CDF-4A1F-B9B4-20371A532163}">
-      <formula1>scopeType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:E13 B14:E14" xr:uid="{3E28D1FA-F32D-44AF-A557-A0523D10AC01}">
-      <formula1>dataCategoryType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:E15" xr:uid="{BFD8FFB2-6934-44AE-B4B6-65EB6AD17E90}">
-      <formula1>quantityType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:F17" xr:uid="{1050A0B7-64A9-4AC9-949F-E1A35BB1022E}">
-      <formula1>quantityUnitDefIdRange</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B5081A-62C4-40D4-9305-DF771C70D570}">
-  <dimension ref="A1:E30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>2237</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>2238</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>2306</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>2239</v>
-      </c>
-      <c r="B3" s="8"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>2240</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>2208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>2241</v>
-      </c>
-      <c r="B5" s="8"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>2242</v>
-      </c>
-      <c r="B6" s="8"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>1961</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>2318</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>1962</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>2319</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>2243</v>
-      </c>
-      <c r="B9" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>2244</v>
-      </c>
-      <c r="B10" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="9" t="s">
-        <v>2248</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>918</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>891</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>891</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="9" t="s">
-        <v>2249</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>927</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>921</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>920</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="8" t="s">
-        <v>2250</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>918</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>921</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>920</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="14" t="s">
-        <v>2251</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>918</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>960</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>960</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="14" t="s">
-        <v>2180</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>918</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>2258</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>2258</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>2258</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="16" t="s">
-        <v>945</v>
-      </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="18" t="s">
-        <v>1961</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>2253</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>2300</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>2316</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>2259</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="18" t="s">
-        <v>1962</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>2254</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>2282</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>2317</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>2260</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="19" t="s">
-        <v>2252</v>
-      </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="20">
-        <v>1</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>2297</v>
-      </c>
-      <c r="C21" s="21">
-        <v>1200</v>
-      </c>
-      <c r="D21" s="21">
-        <v>1199.4680000000001</v>
-      </c>
-      <c r="E21" s="21">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="20">
-        <v>2</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>2298</v>
-      </c>
-      <c r="C22" s="21">
-        <v>1200</v>
-      </c>
-      <c r="D22" s="21">
-        <v>1198.896</v>
-      </c>
-      <c r="E22" s="21">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="20">
-        <v>3</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>2299</v>
-      </c>
-      <c r="C23" s="21">
-        <v>1200</v>
-      </c>
-      <c r="D23" s="21">
-        <v>1197.893</v>
-      </c>
-      <c r="E23" s="21">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="20">
-        <v>4</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>2309</v>
-      </c>
-      <c r="C24" s="21">
-        <v>1200</v>
-      </c>
-      <c r="D24" s="21">
-        <v>1198.405</v>
-      </c>
-      <c r="E24" s="21">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="20">
-        <v>5</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>2310</v>
-      </c>
-      <c r="C25" s="21">
-        <v>1200</v>
-      </c>
-      <c r="D25" s="21">
-        <v>1199.2670000000001</v>
-      </c>
-      <c r="E25" s="21">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="20">
-        <v>6</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>2311</v>
-      </c>
-      <c r="C26" s="21">
-        <v>1200</v>
-      </c>
-      <c r="D26" s="21">
-        <v>1199.819</v>
-      </c>
-      <c r="E26" s="21">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="20">
-        <v>7</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>2312</v>
-      </c>
-      <c r="C27" s="21">
-        <v>1200</v>
-      </c>
-      <c r="D27" s="21">
-        <v>1198.7550000000001</v>
-      </c>
-      <c r="E27" s="21">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="20">
-        <v>8</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>2313</v>
-      </c>
-      <c r="C28" s="21">
-        <v>1200</v>
-      </c>
-      <c r="D28" s="21">
-        <v>1198.9459999999999</v>
-      </c>
-      <c r="E28" s="21">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="20">
-        <v>9</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>2314</v>
-      </c>
-      <c r="C29" s="21">
-        <v>1200</v>
-      </c>
-      <c r="D29" s="21">
-        <v>1198.575</v>
-      </c>
-      <c r="E29" s="21">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="20">
-        <v>10</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>2315</v>
-      </c>
-      <c r="C30" s="21">
-        <v>1200</v>
-      </c>
-      <c r="D30" s="21">
-        <v>1198.9860000000001</v>
-      </c>
-      <c r="E30" s="21">
-        <v>1200</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{4B07AF8E-3591-452F-A9A5-181FDD9F1B6E}">
-      <formula1>tableCategoryType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{F761E431-3EE2-427B-9163-9082964BAB18}">
-      <formula1>serviceCategoryType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{823347E3-5A49-4F70-A390-7A67C35F5D7A}">
-      <formula1>measuringSystemIdRange</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:E12" xr:uid="{7C525732-8A6B-4126-8E7B-F670E68BEA81}">
-      <formula1>scopeType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:E13 B14:E14" xr:uid="{E3327CE9-B79D-458E-BAFA-D377A8B3A362}">
-      <formula1>dataCategoryType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:E15" xr:uid="{8B5299B6-828D-42E6-A57F-D0049A798D37}">
-      <formula1>quantityType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:F17" xr:uid="{B11335C9-F2E1-4E45-8880-8FCFFD0E8896}">
-      <formula1>quantityUnitDefIdRange</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DCB9B55-E3BB-48E8-A21C-BDFC90A79574}">
-  <dimension ref="A1:E49"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="96.7265625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>1961</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1962</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1963</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1964</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>1965</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1966</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1967</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
-        <v>1969</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>1970</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1972</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="C4" t="s">
-        <v>1973</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>1975</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1974</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="C5" t="s">
-        <v>1976</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>1978</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1977</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="C6" t="s">
-        <v>1979</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>1587</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="C7" t="s">
-        <v>1981</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>1815</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1982</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="C8" t="s">
-        <v>1983</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>1809</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1984</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="4" t="s">
-        <v>1985</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>1986</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>1988</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="C10" t="s">
-        <v>920</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>1990</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="4" t="s">
-        <v>1991</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>1992</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>1994</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="C12" t="s">
-        <v>920</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>1996</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="C13" t="s">
-        <v>1997</v>
-      </c>
-      <c r="D13" s="5">
-        <v>44601</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="C14" t="s">
-        <v>1999</v>
-      </c>
-      <c r="D14" s="5">
-        <v>44602</v>
-      </c>
-      <c r="E14" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="C15" t="s">
-        <v>2001</v>
-      </c>
-      <c r="D15" s="5">
-        <v>44602</v>
-      </c>
-      <c r="E15" t="s">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="C16" t="s">
-        <v>2003</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>904</v>
-      </c>
-      <c r="E16" t="s">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="C17" t="s">
-        <v>2005</v>
-      </c>
-      <c r="D17" s="5">
-        <v>44603</v>
-      </c>
-      <c r="E17" t="s">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4" t="s">
-        <v>2007</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>2008</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>897</v>
-      </c>
-      <c r="E18" t="s">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="C19" t="s">
-        <v>2010</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>2012</v>
-      </c>
-      <c r="E19" t="s">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="4" t="s">
-        <v>2013</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>2014</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>2016</v>
-      </c>
-      <c r="E20" t="s">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="C21" t="s">
-        <v>2017</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>2019</v>
-      </c>
-      <c r="E21" t="s">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="C22" t="s">
-        <v>2020</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>1587</v>
-      </c>
-      <c r="E22" t="s">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="C23" t="s">
-        <v>2022</v>
-      </c>
-      <c r="D23" s="4">
-        <v>2635</v>
-      </c>
-      <c r="E23" t="s">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="C24" t="s">
-        <v>2024</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>2026</v>
-      </c>
-      <c r="E24" t="s">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="C25" t="s">
-        <v>2027</v>
-      </c>
-      <c r="D25" s="4">
-        <v>19</v>
-      </c>
-      <c r="E25" t="s">
-        <v>2028</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="4" t="s">
-        <v>2029</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>2030</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>2032</v>
-      </c>
-      <c r="E26" t="s">
-        <v>2031</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="C27" t="s">
-        <v>2033</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>2035</v>
-      </c>
-      <c r="E27" t="s">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="C28" t="s">
-        <v>2036</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>2038</v>
-      </c>
-      <c r="E28" t="s">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="4" t="s">
-        <v>2039</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>2040</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>2042</v>
-      </c>
-      <c r="E29" t="s">
-        <v>2041</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="C30" t="s">
-        <v>1973</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>2044</v>
-      </c>
-      <c r="E30" t="s">
-        <v>2043</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="C31" t="s">
-        <v>2045</v>
-      </c>
-      <c r="D31" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E31" t="s">
-        <v>2046</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="4" t="s">
-        <v>2047</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>2048</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>879</v>
-      </c>
-      <c r="E32" t="s">
-        <v>2049</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="C33" t="s">
-        <v>2050</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>1587</v>
-      </c>
-      <c r="E33" t="s">
-        <v>2051</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="C34" t="s">
-        <v>2052</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>2054</v>
-      </c>
-      <c r="E34" t="s">
-        <v>2053</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="C35" t="s">
-        <v>2055</v>
-      </c>
-      <c r="D35" s="4">
-        <v>490</v>
-      </c>
-      <c r="E35" t="s">
-        <v>2056</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="C36" t="s">
-        <v>2057</v>
-      </c>
-      <c r="D36" s="4">
-        <v>17025</v>
-      </c>
-      <c r="E36" t="s">
-        <v>2058</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="C37" t="s">
-        <v>2059</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>884</v>
-      </c>
-      <c r="E37" t="s">
-        <v>2060</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="4" t="s">
-        <v>2061</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>2062</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>895</v>
-      </c>
-      <c r="E38" t="s">
-        <v>2063</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="C39" t="s">
-        <v>2010</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>2012</v>
-      </c>
-      <c r="E39" t="s">
-        <v>2064</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="4" t="s">
-        <v>2065</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>2014</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>2016</v>
-      </c>
-      <c r="E40" t="s">
-        <v>2066</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="C41" t="s">
-        <v>2017</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>2019</v>
-      </c>
-      <c r="E41" t="s">
-        <v>2067</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="C42" t="s">
-        <v>2020</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>1587</v>
-      </c>
-      <c r="E42" t="s">
-        <v>2068</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="C43" t="s">
-        <v>2022</v>
-      </c>
-      <c r="D43" s="4">
-        <v>2635</v>
-      </c>
-      <c r="E43" t="s">
-        <v>2069</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="C44" t="s">
-        <v>2024</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>2026</v>
-      </c>
-      <c r="E44" t="s">
-        <v>2070</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="C45" t="s">
-        <v>2027</v>
-      </c>
-      <c r="D45" s="4">
-        <v>19</v>
-      </c>
-      <c r="E45" t="s">
-        <v>2071</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="4" t="s">
-        <v>2072</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>2073</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>2032</v>
-      </c>
-      <c r="E46" t="s">
-        <v>2074</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="C47" t="s">
-        <v>2075</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>2077</v>
-      </c>
-      <c r="E47" t="s">
-        <v>2076</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="C48" t="s">
-        <v>2033</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>2079</v>
-      </c>
-      <c r="E48" t="s">
-        <v>2078</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5">
-      <c r="C49" t="s">
-        <v>2036</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>2081</v>
-      </c>
-      <c r="E49" t="s">
-        <v>2080</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EBBB48-9269-4DF4-9CA2-7908405FE6E2}">
-  <dimension ref="A1:H14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" customWidth="1"/>
-    <col min="4" max="5" width="30.6328125" customWidth="1"/>
-    <col min="6" max="7" width="50.6328125" customWidth="1"/>
-    <col min="8" max="8" width="18.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>1961</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2083</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>1962</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2082</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="6" t="s">
-        <v>2084</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>2085</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>2086</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>1961</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>1962</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>2087</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>2088</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>2089</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="29">
-      <c r="A4" s="6" t="s">
-        <v>870</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>2090</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>874</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>2091</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>2092</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>2093</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>2094</v>
-      </c>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" ht="58">
-      <c r="A5" s="6" t="s">
-        <v>870</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>2095</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>874</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>2096</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>2097</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>2098</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>2099</v>
-      </c>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" ht="261">
-      <c r="A6" s="6" t="s">
-        <v>870</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>2100</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>879</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>2047</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>2048</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>2101</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>2102</v>
-      </c>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" ht="29">
-      <c r="A7" s="6" t="s">
-        <v>870</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>2103</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>880</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>2104</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>2105</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>2106</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>2107</v>
-      </c>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" ht="29">
-      <c r="A8" s="6" t="s">
-        <v>870</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>2108</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>873</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>2109</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>2110</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>2111</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>2112</v>
-      </c>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="101.5">
-      <c r="A9" s="6" t="s">
-        <v>870</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>2113</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>873</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>2114</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>2115</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>2116</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>2117</v>
-      </c>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="6" t="s">
-        <v>870</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>2118</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>873</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>2119</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>2120</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>2121</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>2122</v>
-      </c>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" ht="58">
-      <c r="A11" s="6" t="s">
-        <v>870</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>2123</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>873</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>2124</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>2125</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>2126</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>2127</v>
-      </c>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="6" t="s">
-        <v>870</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>2128</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>873</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>2129</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>2130</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>2131</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>2132</v>
-      </c>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="6" t="s">
-        <v>870</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>2133</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>873</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>2129</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>2130</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>2134</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>2135</v>
-      </c>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="6" t="s">
-        <v>870</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>2136</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>873</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>2137</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>2130</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>2138</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>2139</v>
-      </c>
-      <c r="H14" s="6"/>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C14" xr:uid="{92D911DA-173A-4AEA-9AD5-DE7DA1B71B7F}">
-      <formula1>statementCategoryType</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5091D003-D7A3-4B2C-8A9A-128AFA38AB4E}">
-  <dimension ref="A1:Q6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.1796875" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" customWidth="1"/>
-    <col min="4" max="5" width="30.6328125" customWidth="1"/>
-    <col min="6" max="7" width="14.36328125" customWidth="1"/>
-    <col min="8" max="8" width="13.453125" customWidth="1"/>
-    <col min="9" max="10" width="23.7265625" customWidth="1"/>
-    <col min="11" max="11" width="18.1796875" customWidth="1"/>
-    <col min="12" max="13" width="23.81640625" customWidth="1"/>
-    <col min="14" max="14" width="18.26953125" customWidth="1"/>
-    <col min="15" max="16" width="21" customWidth="1"/>
-    <col min="17" max="17" width="15.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" t="s">
-        <v>1961</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" t="s">
-        <v>1962</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="6" t="s">
-        <v>2084</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>2085</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>2086</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>1961</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>1962</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>896</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>2140</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>2141</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>2142</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>2143</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>2144</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>2145</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>2146</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>2147</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>2148</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>2149</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>2150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="29">
-      <c r="A4" s="6" t="s">
-        <v>870</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>2151</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>887</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>2152</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>2153</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>2154</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>2155</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6" t="s">
-        <v>2156</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>2157</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>2158</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>2159</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>2160</v>
-      </c>
-      <c r="N4" s="6">
-        <v>12008522</v>
-      </c>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="6" t="s">
-        <v>870</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>2161</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>887</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>2162</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>2163</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>2164</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>2165</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6" t="s">
-        <v>918</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>918</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>918</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>2166</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>2167</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>2168</v>
-      </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-    </row>
-    <row r="6" spans="1:17" ht="43.5">
-      <c r="A6" s="6" t="s">
-        <v>870</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>2169</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>891</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>2170</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>2171</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>2164</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6" t="s">
-        <v>918</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>918</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>918</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>2172</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>2173</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>2174</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C6" xr:uid="{605912F9-819F-43F8-8054-4EADE7C1A3FD}">
-      <formula1>equipmentCategoryType</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{850DAD25-020B-439A-930F-A4BEB69E11E4}">
-  <dimension ref="A1:K8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="16.54296875" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" customWidth="1"/>
-    <col min="5" max="5" width="7.26953125" customWidth="1"/>
-    <col min="6" max="6" width="6.1796875" customWidth="1"/>
-    <col min="7" max="7" width="19.453125" customWidth="1"/>
-    <col min="8" max="9" width="30.6328125" customWidth="1"/>
-    <col min="10" max="11" width="50.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
-        <v>1961</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>1962</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="6" t="s">
-        <v>2084</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>2177</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>2178</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>2179</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>920</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>2180</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>2181</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>1961</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>1962</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>2087</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>2088</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="6" t="s">
-        <v>870</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>2182</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>2151</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6" t="s">
-        <v>2183</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>2184</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="6" t="s">
-        <v>870</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>2185</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>2151</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6">
-        <v>2</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6" t="s">
-        <v>2183</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>2184</v>
-      </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="6" t="s">
-        <v>870</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>2186</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>2151</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6">
-        <v>3</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6" t="s">
-        <v>2183</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>2184</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="6" t="s">
-        <v>870</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>2187</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>2151</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>2188</v>
-      </c>
-      <c r="E7" s="6">
-        <v>5</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6" t="s">
-        <v>2189</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>2190</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>2191</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>2192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="6" t="s">
-        <v>870</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>2193</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>2151</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>2194</v>
-      </c>
-      <c r="E8" s="6">
-        <v>5</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>2196</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>2191</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>2192</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C8" xr:uid="{5FD4CAB5-A092-44F1-B078-6EAD586E86E9}">
-      <formula1>equipIdRange</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2A4129-B1F8-47DE-A8E0-23066ACCFFCA}">
-  <dimension ref="A1:J6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="30.6328125" customWidth="1"/>
-    <col min="5" max="5" width="15.54296875" customWidth="1"/>
-    <col min="6" max="6" width="12.08984375" customWidth="1"/>
-    <col min="7" max="7" width="15.08984375" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" customWidth="1"/>
-    <col min="9" max="10" width="50.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>1961</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2198</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>1962</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="6" t="s">
-        <v>2084</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>2085</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>1961</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>1962</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>2199</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>2200</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>2201</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>2202</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>2087</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>2088</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="6" t="s">
-        <v>870</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>2203</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>2204</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>2205</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>2206</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>2207</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6" t="s">
-        <v>899</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>918</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="6" t="s">
-        <v>870</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>2208</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>2209</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>2210</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>2206</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>2211</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6" t="s">
-        <v>899</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>918</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="6" t="s">
-        <v>870</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>2212</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
-        <v>2169</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6" t="s">
-        <v>2113</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H6" xr:uid="{04CE4D02-A839-4311-BF5A-26E24EF17A08}">
-      <formula1>operationalStatusType</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F88349-1465-43B4-8480-B0CE38DEB092}">
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6328125" customWidth="1"/>
-    <col min="3" max="4" width="30.6328125" customWidth="1"/>
-    <col min="5" max="6" width="50.6328125" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>1961</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2214</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>1962</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="6" t="s">
-        <v>2084</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>2085</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>1961</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>1962</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>2087</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>2088</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>2215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="6" t="s">
-        <v>870</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>2218</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>2219</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>2220</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>918</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>918</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>2221</v>
-      </c>
-      <c r="H4" t="s">
-        <v>2216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="29">
-      <c r="A5" s="6" t="s">
-        <v>870</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>2222</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>2223</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>2224</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>918</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>918</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>2221</v>
-      </c>
-      <c r="H5" t="s">
-        <v>2217</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC8F400-EE18-4ECF-BFEF-8618CB93FF9F}">
-  <dimension ref="A1:K5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" customWidth="1"/>
-    <col min="5" max="5" width="10.36328125" customWidth="1"/>
-    <col min="6" max="6" width="16.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.6328125" customWidth="1"/>
-    <col min="8" max="8" width="13.26953125" customWidth="1"/>
-    <col min="9" max="10" width="30.6328125" customWidth="1"/>
-    <col min="11" max="11" width="16.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
-        <v>1961</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>1962</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2225</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="6" t="s">
-        <v>2084</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>2085</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>2226</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>2227</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>2228</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>2229</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>2230</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>2231</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>1961</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>1962</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>2232</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="6" t="s">
-        <v>870</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>2233</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>893</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>2119</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>2234</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>2235</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>2234</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6" t="s">
-        <v>2119</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>2120</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>2118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="6" t="s">
-        <v>870</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>2236</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>1519</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7" t="s">
-        <v>2234</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6" t="s">
-        <v>2119</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>2120</v>
-      </c>
-      <c r="K5" s="6"/>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C5" xr:uid="{C113AB7D-F7E2-4926-A561-DF4E476E7614}">
-      <formula1>quantityCodeSystemType</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200DA2D8-39A8-4980-9C87-6F2D7A4AC987}">
-  <dimension ref="A1:S23"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" t="s">
-        <v>2237</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" t="s">
-        <v>2238</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>2245</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" t="s">
-        <v>2239</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" t="s">
-        <v>2240</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>2203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" t="s">
-        <v>2241</v>
-      </c>
-      <c r="B5" s="8"/>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" t="s">
-        <v>2242</v>
-      </c>
-      <c r="B6" s="8"/>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" t="s">
-        <v>1961</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>2246</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" t="s">
-        <v>1962</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>2247</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" t="s">
-        <v>2243</v>
-      </c>
-      <c r="B9" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" t="s">
-        <v>2244</v>
-      </c>
-      <c r="B10" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="9" t="s">
-        <v>2248</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>918</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>915</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>918</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>916</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>916</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>916</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>916</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>916</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>916</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>916</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>892</v>
-      </c>
-      <c r="M12" s="10" t="s">
-        <v>891</v>
-      </c>
-      <c r="N12" s="10" t="s">
-        <v>891</v>
-      </c>
-      <c r="O12" s="10" t="s">
-        <v>918</v>
-      </c>
-      <c r="P12" s="11" t="s">
-        <v>918</v>
-      </c>
-      <c r="Q12" s="11" t="s">
-        <v>892</v>
-      </c>
-      <c r="R12" s="11" t="s">
-        <v>916</v>
-      </c>
-      <c r="S12" s="11" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="9" t="s">
-        <v>2249</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>927</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>920</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>944</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>920</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>922</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>920</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>922</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>923</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>923</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>925</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>920</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>920</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>921</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>935</v>
-      </c>
-      <c r="P13" s="12" t="s">
-        <v>938</v>
-      </c>
-      <c r="Q13" s="12" t="s">
-        <v>929</v>
-      </c>
-      <c r="R13" s="12" t="s">
-        <v>934</v>
-      </c>
-      <c r="S13" s="12" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="8" t="s">
-        <v>2250</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>918</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>918</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>918</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>918</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>920</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>918</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>920</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>918</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>918</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>918</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>918</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>918</v>
-      </c>
-      <c r="N14" s="13" t="s">
-        <v>920</v>
-      </c>
-      <c r="O14" s="13" t="s">
-        <v>918</v>
-      </c>
-      <c r="P14" s="11" t="s">
-        <v>922</v>
-      </c>
-      <c r="Q14" s="11" t="s">
-        <v>920</v>
-      </c>
-      <c r="R14" s="11" t="s">
-        <v>925</v>
-      </c>
-      <c r="S14" s="11" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="14" t="s">
-        <v>2251</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>918</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>960</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>960</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>960</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>960</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>960</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>960</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>960</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>960</v>
-      </c>
-      <c r="K15" s="15" t="s">
-        <v>960</v>
-      </c>
-      <c r="L15" s="15" t="s">
-        <v>945</v>
-      </c>
-      <c r="M15" s="15" t="s">
-        <v>960</v>
-      </c>
-      <c r="N15" s="15" t="s">
-        <v>960</v>
-      </c>
-      <c r="O15" s="15" t="s">
-        <v>960</v>
-      </c>
-      <c r="P15" s="11" t="s">
-        <v>918</v>
-      </c>
-      <c r="Q15" s="11" t="s">
-        <v>945</v>
-      </c>
-      <c r="R15" s="11" t="s">
-        <v>918</v>
-      </c>
-      <c r="S15" s="11" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="14" t="s">
-        <v>2180</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>2234</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>2258</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>2258</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>2258</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>2258</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>2267</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>2267</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>2258</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>2267</v>
-      </c>
-      <c r="K16" s="15" t="s">
-        <v>918</v>
-      </c>
-      <c r="L16" s="15" t="s">
-        <v>2234</v>
-      </c>
-      <c r="M16" s="15" t="s">
-        <v>2258</v>
-      </c>
-      <c r="N16" s="15" t="s">
-        <v>2258</v>
-      </c>
-      <c r="O16" s="15" t="s">
-        <v>918</v>
-      </c>
-      <c r="P16" s="11" t="s">
-        <v>918</v>
-      </c>
-      <c r="Q16" s="11" t="s">
-        <v>2234</v>
-      </c>
-      <c r="R16" s="11" t="s">
-        <v>918</v>
-      </c>
-      <c r="S16" s="11" t="s">
-        <v>2234</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="A17" s="16" t="s">
-        <v>945</v>
-      </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="17" t="s">
-        <v>2203</v>
-      </c>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="11" t="s">
-        <v>2203</v>
-      </c>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="A18" s="18" t="s">
-        <v>1961</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>2253</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>2259</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>2261</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>2263</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>2265</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>2268</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>2270</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>2272</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>2274</v>
-      </c>
-      <c r="K18" s="18" t="s">
-        <v>2276</v>
-      </c>
-      <c r="L18" s="18" t="s">
-        <v>2119</v>
-      </c>
-      <c r="M18" s="18" t="s">
-        <v>2279</v>
-      </c>
-      <c r="N18" s="18" t="s">
-        <v>2281</v>
-      </c>
-      <c r="O18" s="18" t="s">
-        <v>2283</v>
-      </c>
-      <c r="P18" s="12" t="s">
-        <v>2284</v>
-      </c>
-      <c r="Q18" s="12" t="s">
-        <v>2286</v>
-      </c>
-      <c r="R18" s="12" t="s">
-        <v>2288</v>
-      </c>
-      <c r="S18" s="12" t="s">
-        <v>2289</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="A19" s="18" t="s">
-        <v>1962</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>2254</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>2260</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>2262</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>2264</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>2266</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>2269</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>2271</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>2273</v>
-      </c>
-      <c r="J19" s="18" t="s">
-        <v>2275</v>
-      </c>
-      <c r="K19" s="18" t="s">
-        <v>2277</v>
-      </c>
-      <c r="L19" s="18" t="s">
-        <v>2278</v>
-      </c>
-      <c r="M19" s="18" t="s">
-        <v>2280</v>
-      </c>
-      <c r="N19" s="18" t="s">
-        <v>2282</v>
-      </c>
-      <c r="O19" s="18" t="s">
-        <v>2105</v>
-      </c>
-      <c r="P19" s="12" t="s">
-        <v>2285</v>
-      </c>
-      <c r="Q19" s="12" t="s">
-        <v>2287</v>
-      </c>
-      <c r="R19" s="12" t="s">
-        <v>2097</v>
-      </c>
-      <c r="S19" s="12" t="s">
-        <v>2290</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="A20" s="19" t="s">
-        <v>2252</v>
-      </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-    </row>
-    <row r="21" spans="1:19">
-      <c r="A21" s="20">
-        <v>1</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>2255</v>
-      </c>
-      <c r="C21" s="21">
-        <v>120</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>1517</v>
-      </c>
-      <c r="E21" s="21">
-        <v>1.21</v>
-      </c>
-      <c r="F21" s="21">
-        <v>0.35</v>
-      </c>
-      <c r="G21" s="21">
-        <v>1.01</v>
-      </c>
-      <c r="H21" s="21">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="I21" s="21">
-        <v>0.13</v>
-      </c>
-      <c r="J21" s="21">
-        <v>0.11</v>
-      </c>
-      <c r="K21" s="21" t="s">
-        <v>908</v>
-      </c>
-      <c r="L21" s="21">
-        <v>1.0029999999999999</v>
-      </c>
-      <c r="M21" s="21">
-        <v>121.21</v>
-      </c>
-      <c r="N21" s="21">
-        <v>120</v>
-      </c>
-      <c r="O21" s="21"/>
-      <c r="P21" s="12">
-        <v>2</v>
-      </c>
-      <c r="Q21" s="12" t="s">
-        <v>2118</v>
-      </c>
-      <c r="R21" s="12" t="s">
-        <v>2095</v>
-      </c>
-      <c r="S21" s="12" t="s">
-        <v>2291</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="A22" s="20">
-        <v>2</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>2256</v>
-      </c>
-      <c r="C22" s="21">
-        <v>600</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>1517</v>
-      </c>
-      <c r="E22" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="F22" s="21">
-        <v>1.5</v>
-      </c>
-      <c r="G22" s="21">
-        <v>0.05</v>
-      </c>
-      <c r="H22" s="21">
-        <v>0.25</v>
-      </c>
-      <c r="I22" s="21">
-        <v>0.24</v>
-      </c>
-      <c r="J22" s="21">
-        <v>0.04</v>
-      </c>
-      <c r="K22" s="21" t="s">
-        <v>908</v>
-      </c>
-      <c r="L22" s="21">
-        <v>1.0029999999999999</v>
-      </c>
-      <c r="M22" s="21">
-        <v>600.29999999999995</v>
-      </c>
-      <c r="N22" s="21">
-        <v>600</v>
-      </c>
-      <c r="O22" s="21"/>
-      <c r="P22" s="12">
-        <v>2</v>
-      </c>
-      <c r="Q22" s="12" t="s">
-        <v>2118</v>
-      </c>
-      <c r="R22" s="12" t="s">
-        <v>2095</v>
-      </c>
-      <c r="S22" s="12" t="s">
-        <v>2292</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
-      <c r="A23" s="20">
-        <v>3</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>2257</v>
-      </c>
-      <c r="C23" s="21">
-        <v>1200</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>1517</v>
-      </c>
-      <c r="E23" s="21">
-        <v>-0.9</v>
-      </c>
-      <c r="F23" s="21">
-        <v>2.4</v>
-      </c>
-      <c r="G23" s="21">
-        <v>-0.08</v>
-      </c>
-      <c r="H23" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="I23" s="21">
-        <v>0.48</v>
-      </c>
-      <c r="J23" s="21">
-        <v>0.04</v>
-      </c>
-      <c r="K23" s="21" t="s">
-        <v>908</v>
-      </c>
-      <c r="L23" s="21">
-        <v>1.0029999999999999</v>
-      </c>
-      <c r="M23" s="21">
-        <v>1199.0999999999999</v>
-      </c>
-      <c r="N23" s="21">
-        <v>1200</v>
-      </c>
-      <c r="O23" s="21" t="s">
-        <v>2103</v>
-      </c>
-      <c r="P23" s="12">
-        <v>2</v>
-      </c>
-      <c r="Q23" s="12" t="s">
-        <v>2118</v>
-      </c>
-      <c r="R23" s="12" t="s">
-        <v>2095</v>
-      </c>
-      <c r="S23" s="12" t="s">
-        <v>2293</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{D4DD16DE-1EA8-45B0-A23C-A358358E4991}">
-      <formula1>tableCategoryType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{46AF2ADD-DE16-437E-965E-6B31873C0074}">
-      <formula1>serviceCategoryType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{BB4FBF5C-3D67-44D5-BDE0-5E72BFF990A5}">
-      <formula1>measuringSystemIdRange</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:S12" xr:uid="{AA424DF8-F6BB-4181-9A8B-60EF2560CD4F}">
-      <formula1>scopeType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:S13 B14:S14" xr:uid="{B528278B-FBCC-4B02-90A2-BF9EAE3B2F59}">
-      <formula1>dataCategoryType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:S15" xr:uid="{8B9FF1AA-05E6-49EC-B253-FE667D10A131}">
-      <formula1>quantityType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:P17" xr:uid="{EF3DC94F-106A-4278-9FA5-7D329453FCC6}">
-      <formula1>quantityUnitDefIdRange</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/DCC_UI_blank.xlsx
+++ b/DCC_UI_blank.xlsx
@@ -8,36 +8,47 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\tesla\data\MS\DBH\Projects\1901 NY-INFRA-FOT\DCC\Software\DCCtables\master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259C821C-EE10-4631-9943-37C638D467E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4DCFE8-DDD4-471C-A1C4-F141D16B25BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="37220" windowHeight="21820" tabRatio="788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27525" yWindow="13995" windowWidth="27645" windowHeight="18240" tabRatio="788" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Definitions" sheetId="2" r:id="rId1"/>
+    <sheet name="administrativeData" sheetId="3" r:id="rId2"/>
+    <sheet name="statements" sheetId="4" r:id="rId3"/>
+    <sheet name="equipment" sheetId="5" r:id="rId4"/>
+    <sheet name="settings" sheetId="6" r:id="rId5"/>
+    <sheet name="measuringSystems" sheetId="7" r:id="rId6"/>
+    <sheet name="embeddedFiles" sheetId="8" r:id="rId7"/>
+    <sheet name="quantityUnitDefs" sheetId="9" r:id="rId8"/>
+    <sheet name="calRes1" sheetId="12" r:id="rId9"/>
+    <sheet name="fitResult1" sheetId="10" r:id="rId10"/>
+    <sheet name="fitResult2" sheetId="11" r:id="rId11"/>
+    <sheet name="measSer2" sheetId="13" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="accreditationApplicabilityType">Definitions!$I$2:$I$3</definedName>
     <definedName name="approachToTargetType">Definitions!$S$2:$S$3</definedName>
     <definedName name="conformityStatusType">Definitions!$N$2:$N$7</definedName>
     <definedName name="dataCategoryType">Definitions!$P$2:$P$28</definedName>
-    <definedName name="embeddedFilesIdRange">#REF!</definedName>
-    <definedName name="equipIdRange">#REF!</definedName>
+    <definedName name="embeddedFilesIdRange">embeddedFiles!$B$3:$B$5</definedName>
+    <definedName name="equipIdRange">equipment!$B$3:$B$12</definedName>
     <definedName name="equipmentCategoryType">Definitions!$J$2:$J$8</definedName>
     <definedName name="issuerType">Definitions!$K$2:$K$4</definedName>
-    <definedName name="measuringSystemIdRange">#REF!</definedName>
+    <definedName name="measuringSystemIdRange">Table_measuringSystems[@id]</definedName>
     <definedName name="operationalStatusType">Definitions!$L$2:$L$5</definedName>
     <definedName name="quantityCodeSystemType">Definitions!$T$2:$T$9</definedName>
     <definedName name="quantityType">Definitions!$Q$2:$Q$569</definedName>
-    <definedName name="quantityUnitDefIdRange">#REF!</definedName>
+    <definedName name="quantityUnitDefIdRange">quantityUnitDefs!$B$3:$B$4</definedName>
     <definedName name="scopeType">Definitions!$O$2:$O$7</definedName>
     <definedName name="serviceCategoryType">Definitions!$E$2:$E$863</definedName>
     <definedName name="statementCategoryType">Definitions!$H$2:$H$11</definedName>
-    <definedName name="statementsIdRange">#REF!</definedName>
+    <definedName name="statementsIdRange">statements!$B$3:$B$16</definedName>
     <definedName name="stringISO3166Type">Definitions!$C$2:$C$250</definedName>
     <definedName name="stringISO639Type">Definitions!$D$2:$D$184</definedName>
     <definedName name="stringPerformanceLocationType">Definitions!$M$2:$M$3</definedName>
-    <definedName name="tableCategoryType">Definitions!$R$2:$R$3</definedName>
-    <definedName name="transactionContentType">Definitions!$G$2:$G$16</definedName>
+    <definedName name="tableCategoryType">Definitions!$R$2:$R$4</definedName>
+    <definedName name="transactionContentType">Definitions!$G$2:$G$18</definedName>
     <definedName name="yesno">Definitions!$F$2:$F$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -61,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="1976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2748" uniqueCount="2302">
   <si>
     <t>Value</t>
   </si>
@@ -5989,6 +6000,989 @@
   </si>
   <si>
     <t>template:digitalTestReport</t>
+  </si>
+  <si>
+    <t>digitalReportOfSampling</t>
+  </si>
+  <si>
+    <t>request:digitalReportOfSampling</t>
+  </si>
+  <si>
+    <t>dataFittingResult</t>
+  </si>
+  <si>
+    <t>heading[en]</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>XPath</t>
+  </si>
+  <si>
+    <t>Certificate of Calibration&amp;#xA;Fluke Calibration, American Fork&amp;#xA;Temperature Laboratory</t>
+  </si>
+  <si>
+    <t>Certificate-Title</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate</t>
+  </si>
+  <si>
+    <t>transactionContent</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:coreData/dcc:transactionContent</t>
+  </si>
+  <si>
+    <t>Certificate number</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:coreData/dcc:uniqueIdentifier</t>
+  </si>
+  <si>
+    <t>uniqueIdentifier</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:coreData/dcc:uniqueIdentifier/dcc:value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PO Number: </t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:coreData/dcc:clientIdentifier</t>
+  </si>
+  <si>
+    <t>clientIdentifier</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:coreData/dcc:clientIdentifier/dcc:value</t>
+  </si>
+  <si>
+    <t>issueDate</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:coreData/dcc:issueDate</t>
+  </si>
+  <si>
+    <t>beginPerformanceDate</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:coreData/dcc:beginPerformanceDate</t>
+  </si>
+  <si>
+    <t>endPerformanceDate</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:coreData/dcc:endPerformanceDate</t>
+  </si>
+  <si>
+    <t>equipmentReceiptDate</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:coreData/dcc:equipmentReceiptDate</t>
+  </si>
+  <si>
+    <t>performanceLocation</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:coreData/dcc:performanceLocation</t>
+  </si>
+  <si>
+    <t>conformityStatus</t>
+  </si>
+  <si>
+    <t>countryCodeISO3166_1</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:coreData/dcc:countryCodeISO3166_1</t>
+  </si>
+  <si>
+    <t>mandatoryLangCodeISO639_1</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:coreData/dcc:mandatoryLangCodeISO639_1</t>
+  </si>
+  <si>
+    <t>This document was created with:</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:coreData/dcc:dccSoftware/dcc:software</t>
+  </si>
+  <si>
+    <t>software</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:coreData/dcc:dccSoftware/dcc:software/dcc:name</t>
+  </si>
+  <si>
+    <t>ioDccGuiTool.py</t>
+  </si>
+  <si>
+    <t>release</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:coreData/dcc:dccSoftware/dcc:software/dcc:release</t>
+  </si>
+  <si>
+    <t>v0.0.2</t>
+  </si>
+  <si>
+    <t>Calibration laboratory</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:serviceProvider</t>
+  </si>
+  <si>
+    <t>@imageRefs</t>
+  </si>
+  <si>
+    <t>FLUKE_Logo.png</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:serviceProvider/dcc:name</t>
+  </si>
+  <si>
+    <t>Fluke Corporation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Address </t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:serviceProvider/dcc:location</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:serviceProvider/dcc:location/dcc:street</t>
+  </si>
+  <si>
+    <t>Utah Valley Drive</t>
+  </si>
+  <si>
+    <t>streetNo</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:serviceProvider/dcc:location/dcc:streetNo</t>
+  </si>
+  <si>
+    <t>799 E</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:serviceProvider/dcc:location/dcc:city</t>
+  </si>
+  <si>
+    <t>American Fork</t>
+  </si>
+  <si>
+    <t>postCode</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:serviceProvider/dcc:location/dcc:postCode</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:serviceProvider/dcc:location/dcc:state[1]</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>countryCode</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:serviceProvider/dcc:location/dcc:countryCode</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:serviceProvider/dcc:location/dcc:state[2]</t>
+  </si>
+  <si>
+    <t>Contact info</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:serviceProvider/dcc:contactInfo</t>
+  </si>
+  <si>
+    <t>contactInfo</t>
+  </si>
+  <si>
+    <t>eMail</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:serviceProvider/dcc:contactInfo/dcc:eMail</t>
+  </si>
+  <si>
+    <t>michael.coleman@fluke.com</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:serviceProvider/dcc:contactInfo/dcc:phone</t>
+  </si>
+  <si>
+    <t>877.355.3225</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:serviceProvider/dcc:url</t>
+  </si>
+  <si>
+    <t>www.flukecal.com</t>
+  </si>
+  <si>
+    <t>Accreditation</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:accreditation</t>
+  </si>
+  <si>
+    <t>NVLAP_FLUKE_Logo.png</t>
+  </si>
+  <si>
+    <t>accreditationCountry</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:accreditation/dcc:accreditationCountry</t>
+  </si>
+  <si>
+    <t>accreditationBody</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:accreditation/dcc:accreditationBody</t>
+  </si>
+  <si>
+    <t>NVLAB</t>
+  </si>
+  <si>
+    <t>accreditationLabId</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:accreditation/dcc:accreditationLabId</t>
+  </si>
+  <si>
+    <t>200348-0</t>
+  </si>
+  <si>
+    <t>accreditationNorm</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:accreditation/dcc:accreditationNorm</t>
+  </si>
+  <si>
+    <t>accreditationApplicability</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:accreditation/dcc:accreditationApplicability</t>
+  </si>
+  <si>
+    <t>Main signer</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:respPersons/dcc:respPerson</t>
+  </si>
+  <si>
+    <t>respPerson</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:respPersons/dcc:respPerson/dcc:name</t>
+  </si>
+  <si>
+    <t>Michael Coleman</t>
+  </si>
+  <si>
+    <t>mainSigner</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:respPersons/dcc:respPerson/dcc:mainSigner</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:client</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:client/dcc:name</t>
+  </si>
+  <si>
+    <t>FLUKE ELECTRONICS CORPORATION</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:client/dcc:location</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:client/dcc:location/dcc:street</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:client/dcc:location/dcc:streetNo</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:client/dcc:location/dcc:city</t>
+  </si>
+  <si>
+    <t>AMERICAN FORK</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:client/dcc:location/dcc:countryCode</t>
+  </si>
+  <si>
+    <t>Contact person</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:client/dcc:contactInfo</t>
+  </si>
+  <si>
+    <t>attPerson</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:client/dcc:contactInfo/dcc:attPerson</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:client/dcc:contactInfo/dcc:eMail</t>
+  </si>
+  <si>
+    <t>/dcc:digitalCalibrationCertificate/dcc:administrativeData/dcc:client/dcc:contactInfo/dcc:phone</t>
+  </si>
+  <si>
+    <t>Statements</t>
+  </si>
+  <si>
+    <t>in DCC</t>
+  </si>
+  <si>
+    <t>@id</t>
+  </si>
+  <si>
+    <t>@category</t>
+  </si>
+  <si>
+    <t>body[en]</t>
+  </si>
+  <si>
+    <t>externalReference</t>
+  </si>
+  <si>
+    <t>proceedure</t>
+  </si>
+  <si>
+    <t>CertificateQR.png</t>
+  </si>
+  <si>
+    <t>Procedure:</t>
+  </si>
+  <si>
+    <t>AFC1005: Rev001</t>
+  </si>
+  <si>
+    <t>statement1</t>
+  </si>
+  <si>
+    <t>This calibration is traceable to the International System of Units (SI) through recognized national metrology institutes (NIST, NRC, PTB, NPL, etc.), ratiometric techniques, or natural physical constants and is in compliance with ISO/IEC 17025:2017. Calibration certificates without identification of the authorizing person are not valid. This certificate applies to only the item identified and shall not be reproduced except in full, without the specific written approval by Fluke Corporation. This certificate shall not be used to claim product certification, approval, or endorsement by NVLAP, NIST, or any agency of the U.S. Government.</t>
+  </si>
+  <si>
+    <t>statement2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Measurement uncertainties at the time of calibration are given where applicable. They are calculated in accordance with the method described in the ISO Guide to the Expression of Uncertainty in Measurement (GUM). The reported expanded uncertainty of measurement is stated as the standard uncertainty of measurement multiplied by the coverage factor k such that the coverage probability corresponds to approximately 95 %.</t>
+  </si>
+  <si>
+    <t>GUM</t>
+  </si>
+  <si>
+    <t>statement3</t>
+  </si>
+  <si>
+    <t>Calibration status should be interpreted as follows:
+As-Found: Data collected before the unit was adjusted and / or repaired.
+Found/Left: Data collected without any adjustment and / or repair performed.
+As-Left: Data collected after the unit has been adjusted and/or repaired.</t>
+  </si>
+  <si>
+    <t>statement4</t>
+  </si>
+  <si>
+    <t>Fluke values feedback. Please contact us at http://us.flukecal.com/about/contact.</t>
+  </si>
+  <si>
+    <t>statement5</t>
+  </si>
+  <si>
+    <t>Comments:</t>
+  </si>
+  <si>
+    <t>This calibration certificate was reviewed and approved electronically.</t>
+  </si>
+  <si>
+    <t>meth1</t>
+  </si>
+  <si>
+    <t>Quality Manuals</t>
+  </si>
+  <si>
+    <t>This calibration has been completed in accordance with:
+• Fluke Corporate Quality Manual, QSD 111.0
+• Fluke 17025 Quality Manual, QSD 111.41</t>
+  </si>
+  <si>
+    <t>QSD 111.0; QSD 111.41</t>
+  </si>
+  <si>
+    <t>meth2</t>
+  </si>
+  <si>
+    <t>Method Used</t>
+  </si>
+  <si>
+    <t>This platinum resistance thermometer (PRT) was calibrated on the International Temperature Scale of 1990 (ITS-90) by fixed-point and/or by comparison with a standard platinum resistance thermometer (SPRT). The calibration was performed as follows. PRT output resistance was measured at several temperatures and then characterized using the ITS-90 system of equations for platinum thermometers to obtain calibration coefficients that align the PRT with the ITS-90 temperature scale. The calibrationcoefficients are required for the PRT to measure temperature correctly. When available, extra calibration points are included in the characterization to verify quality of the characterization. A calibration status of Pass indicates that the PRT characterization meets the requirements of the curve-fit analysis. If the PRT fails curve-fit analysis the calibration status is Fail and a detailed description is provided in the calibration data section.</t>
+  </si>
+  <si>
+    <t>ITS-90</t>
+  </si>
+  <si>
+    <t>rule1</t>
+  </si>
+  <si>
+    <t>A calibration status of Pass indicates the PRT passes curve-fit analysis and meets the required short-term repeatability limit. A status of Fail is accompanied by additional information describing the failure. Curve-fit analysis is done using Chi-Squared analysis which compares residual size with expanded uncertainty. Short-term repeatability is evaluated by measuring the PRT resistance at the triple-point of water temperature (0.010 °C) multiple times as the calibration progresses. As Found RTPW is measured first and then, if required, the PRT is thermally stabilized. After thermal stabilization, Begin RTPW is measured. After this, temperatures above 0 °C are measured and, as applicable, Middle RTPW is measured. Then temperatures below 0 °C and Final RTPW are measured. Change in RTPW is the difference between the maximum and minimum of the RTPW values measured after As Found RTPW. The average of these RTPW values is reported with the calibration coefficients.</t>
+  </si>
+  <si>
+    <t>meth3</t>
+  </si>
+  <si>
+    <t>Pass/Fail conditions reported herein pertain only to results observed during calibration and do not describe the long-term (calibration-to-calibration) status of the PRT. Long-term drift of the PRT is evaluated by comparing the results from this calibration with the results from the previous calibration. To aid in this evaluation, a temperature vs. resistance table is provided in the Calibration Results section. Change in resistance is converted to change in temperature by dividing the change in resistance at temperature points of interest by dR/dT which is also listed in the table.</t>
+  </si>
+  <si>
+    <t>meth4</t>
+  </si>
+  <si>
+    <t>Uncertainty is reported for each calibration point. The uncertainty evaluation accounts for all known uncertainties present at the time of calibration including uncertainties of the calibration system, measurement noise, and short-term non-repeatability of the PRT as defined in manufacturer specifications. To determine total long-term uncertainty of the PRT, Fluke recommends combining measurement uncertainty reported herein with the other sources of uncertainty that exist in the measurement process where the PRT is used, including, at a minimum, allowed long-term drift of the PRT.</t>
+  </si>
+  <si>
+    <t>meth5</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>21 to 25 ℃</t>
+  </si>
+  <si>
+    <t>meth6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relative Humidity: </t>
+  </si>
+  <si>
+    <t>20 to 55 %rh</t>
+  </si>
+  <si>
+    <t>meth7</t>
+  </si>
+  <si>
+    <t>Pressure:</t>
+  </si>
+  <si>
+    <t>83.5 to 88.5 kPa</t>
+  </si>
+  <si>
+    <t>Equipment Used</t>
+  </si>
+  <si>
+    <t>productName</t>
+  </si>
+  <si>
+    <t>productType</t>
+  </si>
+  <si>
+    <t>productNumber</t>
+  </si>
+  <si>
+    <t>client_id heading[en]</t>
+  </si>
+  <si>
+    <t>client_id value</t>
+  </si>
+  <si>
+    <t>manufact_id heading[en]</t>
+  </si>
+  <si>
+    <t>manufact_id value</t>
+  </si>
+  <si>
+    <t>calLab_id heading[en]</t>
+  </si>
+  <si>
+    <t>calLab_id value</t>
+  </si>
+  <si>
+    <t>calDate</t>
+  </si>
+  <si>
+    <t>calDueDate</t>
+  </si>
+  <si>
+    <t>certId</t>
+  </si>
+  <si>
+    <t>certProvider</t>
+  </si>
+  <si>
+    <t>item1</t>
+  </si>
+  <si>
+    <t>Item for calibration</t>
+  </si>
+  <si>
+    <t>Serial number</t>
+  </si>
+  <si>
+    <t>refInst1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard used </t>
+  </si>
+  <si>
+    <t>Fluke Calibration</t>
+  </si>
+  <si>
+    <t>SPRT, Glass Sheath</t>
+  </si>
+  <si>
+    <t>Asset</t>
+  </si>
+  <si>
+    <t>5683-4442</t>
+  </si>
+  <si>
+    <t>refInst2</t>
+  </si>
+  <si>
+    <t>Precision Thermometer Readout</t>
+  </si>
+  <si>
+    <t>1595A</t>
+  </si>
+  <si>
+    <t>1595A-B2B000</t>
+  </si>
+  <si>
+    <t>refInst3</t>
+  </si>
+  <si>
+    <t>Standard Platinum Resistance Thermometer</t>
+  </si>
+  <si>
+    <t>5683-4437</t>
+  </si>
+  <si>
+    <t>refInst4</t>
+  </si>
+  <si>
+    <t>Precision Digital Thermometer</t>
+  </si>
+  <si>
+    <t>1595A-B0C034</t>
+  </si>
+  <si>
+    <t>refInst5</t>
+  </si>
+  <si>
+    <t>Digital Thermometer</t>
+  </si>
+  <si>
+    <t>1595A-B27094</t>
+  </si>
+  <si>
+    <t>refInst6</t>
+  </si>
+  <si>
+    <t>FLUKE CALIBRATION</t>
+  </si>
+  <si>
+    <t>THERMOMETRIC FIXED-POINT CELL</t>
+  </si>
+  <si>
+    <t>5914A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5914A-S9004 </t>
+  </si>
+  <si>
+    <t>refInst7</t>
+  </si>
+  <si>
+    <t>5945-S7005</t>
+  </si>
+  <si>
+    <t>refInst8</t>
+  </si>
+  <si>
+    <t>5916A</t>
+  </si>
+  <si>
+    <t>5916A-16057</t>
+  </si>
+  <si>
+    <t>refInst9</t>
+  </si>
+  <si>
+    <t>Thermometric Fixed-Point Cell</t>
+  </si>
+  <si>
+    <t>5917A</t>
+  </si>
+  <si>
+    <t>5917A-17102</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>@settingId</t>
+  </si>
+  <si>
+    <t>@equipmentRef</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>softwareInstruction</t>
+  </si>
+  <si>
+    <t>statementRefs</t>
+  </si>
+  <si>
+    <t>setting1</t>
+  </si>
+  <si>
+    <t>Excitation current</t>
+  </si>
+  <si>
+    <t>mA</t>
+  </si>
+  <si>
+    <t>calModel1</t>
+  </si>
+  <si>
+    <t>Cal Model</t>
+  </si>
+  <si>
+    <t>testId1</t>
+  </si>
+  <si>
+    <t>Test ID</t>
+  </si>
+  <si>
+    <t>C2159154946718</t>
+  </si>
+  <si>
+    <t>Measuring Systems Under Calibration</t>
+  </si>
+  <si>
+    <t>equipmentRefs</t>
+  </si>
+  <si>
+    <t>settingRefs</t>
+  </si>
+  <si>
+    <t>operationalStatus</t>
+  </si>
+  <si>
+    <t>ms1</t>
+  </si>
+  <si>
+    <t>Found-Left</t>
+  </si>
+  <si>
+    <t>item1 refInst1 refInst2 refInst3 refInst4 refInst5 refInst6 refInst7 refInst8 refInst9</t>
+  </si>
+  <si>
+    <t>setting1 calModel1 testId1</t>
+  </si>
+  <si>
+    <t>meth1 meth2 meth3 meth4</t>
+  </si>
+  <si>
+    <t>Embedded files</t>
+  </si>
+  <si>
+    <t>fileExtension</t>
+  </si>
+  <si>
+    <t>\\tesla\data\MS\DBH\Projects\1901 NY-INFRA-FOT\DCC\Software\DCCtables\master\embeddedFiles\FLUKE_Logo.png</t>
+  </si>
+  <si>
+    <t>\\tesla\data\MS\DBH\Projects\1901 NY-INFRA-FOT\DCC\Software\DCCtables\master\embeddedFiles\NVLAP_FLUKE_Logo.png</t>
+  </si>
+  <si>
+    <t>\\tesla\data\MS\DBH\Projects\1901 NY-INFRA-FOT\DCC\Software\DCCtables\master\embeddedFiles\CertificateQR.png</t>
+  </si>
+  <si>
+    <t>Logo of Calibration Laboratory</t>
+  </si>
+  <si>
+    <t>png</t>
+  </si>
+  <si>
+    <t>Accreditation Logo</t>
+  </si>
+  <si>
+    <t>QR code for the certificate</t>
+  </si>
+  <si>
+    <t>@quantityCodeSystem</t>
+  </si>
+  <si>
+    <t>quantityCode</t>
+  </si>
+  <si>
+    <t>unitUsed</t>
+  </si>
+  <si>
+    <t>functionToSIunit</t>
+  </si>
+  <si>
+    <t>unitSI</t>
+  </si>
+  <si>
+    <t>externalRefs</t>
+  </si>
+  <si>
+    <t>@statementRefs</t>
+  </si>
+  <si>
+    <t>change_in_RTPW</t>
+  </si>
+  <si>
+    <t>mK</t>
+  </si>
+  <si>
+    <t>Change in RTPW</t>
+  </si>
+  <si>
+    <t>dR.dT-1</t>
+  </si>
+  <si>
+    <t>Ω.K-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dR/dT: Resistance Temperature dependence </t>
+  </si>
+  <si>
+    <t>tableCategory</t>
+  </si>
+  <si>
+    <t>@tableId</t>
+  </si>
+  <si>
+    <t>@serviceCategory</t>
+  </si>
+  <si>
+    <t>@measuringSystemRef</t>
+  </si>
+  <si>
+    <t>@customServiceCategory</t>
+  </si>
+  <si>
+    <t>@embeddedFileRefs</t>
+  </si>
+  <si>
+    <t>conformityStatusRef</t>
+  </si>
+  <si>
+    <t>@numRows</t>
+  </si>
+  <si>
+    <t>@numCols</t>
+  </si>
+  <si>
+    <t>calRes1</t>
+  </si>
+  <si>
+    <t>Calibration Coefficients</t>
+  </si>
+  <si>
+    <t>scope</t>
+  </si>
+  <si>
+    <t>dataCategory</t>
+  </si>
+  <si>
+    <t>dataCategoryRef</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>idx</t>
+  </si>
+  <si>
+    <t>RTPW</t>
+  </si>
+  <si>
+    <t>a4</t>
+  </si>
+  <si>
+    <t>b4</t>
+  </si>
+  <si>
+    <t>a7</t>
+  </si>
+  <si>
+    <t>b7</t>
+  </si>
+  <si>
+    <t>c7</t>
+  </si>
+  <si>
+    <t>fitResult1</t>
+  </si>
+  <si>
+    <t>Temperature vs. Resistance Table</t>
+  </si>
+  <si>
+    <t>℃</t>
+  </si>
+  <si>
+    <t>Temp (℃)</t>
+  </si>
+  <si>
+    <t>Ω</t>
+  </si>
+  <si>
+    <t>Res (ohms</t>
+  </si>
+  <si>
+    <t>dR/ dT (ohms/ K)</t>
+  </si>
+  <si>
+    <t>Calibration Data</t>
+  </si>
+  <si>
+    <t>Comparison</t>
+  </si>
+  <si>
+    <t>Fixed Point</t>
+  </si>
+  <si>
+    <t>Reference Value (℃)</t>
+  </si>
+  <si>
+    <t>Measurement Result (omhs)</t>
+  </si>
+  <si>
+    <t>Expanded Uncertainty (mK)</t>
+  </si>
+  <si>
+    <t>measSer2</t>
+  </si>
+  <si>
+    <t>Short-Term Repeatability Results</t>
+  </si>
+  <si>
+    <t>As Found RTPW</t>
+  </si>
+  <si>
+    <t>Begin RTPW</t>
+  </si>
+  <si>
+    <t>Final RTPW</t>
+  </si>
+  <si>
+    <t>Temperature (mK)</t>
+  </si>
+  <si>
+    <t>1913-04-07</t>
+  </si>
+  <si>
+    <t>fitResult2</t>
+  </si>
+  <si>
+    <t>ms2</t>
+  </si>
+  <si>
+    <t>meth1 meth2 meth3 meth5</t>
+  </si>
+  <si>
+    <t>2022-06-21</t>
+  </si>
+  <si>
+    <t>2023-06-21</t>
+  </si>
+  <si>
+    <t>2021-05-04</t>
+  </si>
+  <si>
+    <t>2024-05-04</t>
+  </si>
+  <si>
+    <t>2021-07-12</t>
+  </si>
+  <si>
+    <t>2022-07-12</t>
+  </si>
+  <si>
+    <t>2020-02-10</t>
+  </si>
+  <si>
+    <t>2023-02-10</t>
+  </si>
+  <si>
+    <t>2021-12-21</t>
+  </si>
+  <si>
+    <t>2022-12-21</t>
+  </si>
+  <si>
+    <t>2021-08-30</t>
+  </si>
+  <si>
+    <t>2022-08-30</t>
+  </si>
+  <si>
+    <t>2020-06-03</t>
+  </si>
+  <si>
+    <t>2023-07-01</t>
+  </si>
+  <si>
+    <t>2022-06-03</t>
+  </si>
+  <si>
+    <t>2023-06-03</t>
+  </si>
+  <si>
+    <t>2020-03-13</t>
+  </si>
+  <si>
+    <t>2023-04-30</t>
+  </si>
+  <si>
+    <t>2022-06-20</t>
+  </si>
+  <si>
+    <t>2022-12-20</t>
   </si>
 </sst>
 </file>
@@ -6023,15 +7017,57 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6E0B4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -6039,22 +7075,283 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="70">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -6065,6 +7362,273 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>50865</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12729</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="FLUKE_Logo.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39FA9CEE-F161-B32F-19C7-65DED1434ACB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8610600" y="552450"/>
+          <a:ext cx="1270065" cy="565179"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>482719</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12757</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="NVLAP_FLUKE_Logo.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B1506FA-ACCD-E4F2-E2CB-441D0E5B8E2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10191750" y="736600"/>
+          <a:ext cx="2311519" cy="1117657"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342980</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>88980</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="CertificateQR.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6C24082-869D-D670-BDC6-AAE91D86F10F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10801350" y="920750"/>
+          <a:ext cx="1562180" cy="1562180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{368C01C5-6238-4603-B0A6-C3CD037A5995}" name="Table_statements" displayName="Table_statements" ref="A2:G16" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
+  <autoFilter ref="A2:G16" xr:uid="{368C01C5-6238-4603-B0A6-C3CD037A5995}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{7293B4EA-5C1A-4A04-8EF5-74E50CA1FB9C}" name="in DCC" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{6FE591AE-5BA7-4A7F-9AE1-43F68684F484}" name="@id" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{45EC10A6-7B81-4B52-A4C4-4C9855593531}" name="@category" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{4E657086-E91B-4B93-8CD9-C0213A473CEF}" name="@imageRefs" dataDxfId="66"/>
+    <tableColumn id="5" xr3:uid="{24D7B660-8100-4C10-94F2-86BC18CED663}" name="heading[en]" dataDxfId="65"/>
+    <tableColumn id="6" xr3:uid="{240E6A4B-A392-4A80-888F-1A9555409A34}" name="body[en]" dataDxfId="64"/>
+    <tableColumn id="7" xr3:uid="{CC2FDDEF-625B-4FD2-B682-37B683E28446}" name="externalReference" dataDxfId="63"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FAA0803D-4CA6-4E5D-94C0-FCDA03444081}" name="Table_equipment" displayName="Table_equipment" ref="A2:R12" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+  <autoFilter ref="A2:R12" xr:uid="{FAA0803D-4CA6-4E5D-94C0-FCDA03444081}"/>
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{1212AB9F-B49F-408D-82B0-11C9185F03D8}" name="in DCC" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{9F2D7B12-A30B-41B2-B106-8D0AF35F2B59}" name="@id" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{0701725F-8302-4FD8-A152-2E28B7FD33E3}" name="@category" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{5D754995-53CF-4700-A4AD-CB604EEC5D3C}" name="heading[en]" dataDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{63D7F47F-18F3-4D73-B019-DFD1CCD78E91}" name="manufacturer" dataDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{C8D07726-B42A-4DFA-8E29-4BB1D768917C}" name="productName" dataDxfId="55"/>
+    <tableColumn id="7" xr3:uid="{35BCD3F7-8A09-4D6A-B808-87FEE506B176}" name="productType" dataDxfId="54"/>
+    <tableColumn id="8" xr3:uid="{86D318BB-A29D-435E-B025-A3465851E513}" name="productNumber" dataDxfId="53"/>
+    <tableColumn id="9" xr3:uid="{68BE3F57-79FE-4574-9DDC-6BB874FAA944}" name="client_id heading[en]" dataDxfId="52"/>
+    <tableColumn id="10" xr3:uid="{A8D62780-F309-4791-B729-857B077103B8}" name="client_id value" dataDxfId="51"/>
+    <tableColumn id="11" xr3:uid="{1ABCDE0C-381A-4A36-8A0C-A325AA181F83}" name="manufact_id heading[en]" dataDxfId="50"/>
+    <tableColumn id="12" xr3:uid="{E483A314-A6C0-4866-8619-AA086C74442F}" name="manufact_id value" dataDxfId="49"/>
+    <tableColumn id="13" xr3:uid="{7D465265-5EE3-471E-B4D7-F780E518308A}" name="calLab_id heading[en]" dataDxfId="48"/>
+    <tableColumn id="14" xr3:uid="{97F78BFE-B5EB-4AD8-B482-B36F9B9A68DA}" name="calLab_id value" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{147BE44F-FE3B-407D-899D-05F7CB5340E0}" name="calDate" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{E73E4FAB-A48A-4F10-AC1A-0E7BC57CE1C2}" name="calDueDate" dataDxfId="0"/>
+    <tableColumn id="17" xr3:uid="{FD475460-F681-461A-AE06-80326311AC27}" name="certId" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{8C680E30-DD91-4289-9072-71B8693A70B0}" name="certProvider" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{089D551F-9294-410B-B553-ED9DA8C7F08B}" name="Table_settings" displayName="Table_settings" ref="A2:J5" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+  <autoFilter ref="A2:J5" xr:uid="{089D551F-9294-410B-B553-ED9DA8C7F08B}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{D7E9218F-14F4-4F16-BB1D-9A649673D55D}" name="in DCC" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{5D7B6D5A-5F70-491E-B362-F7D5063F582C}" name="@settingId" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{8CE15FF3-49A6-4003-9F5A-99DEC23E95DF}" name="@equipmentRef" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{26314E28-B0A3-4138-9B3D-4034A96E7E97}" name="parameter" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{7EE8131D-770F-4035-B88F-40087AD0C3B1}" name="value" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{0CFF0ACE-2172-4CF3-9236-04E080B1E53D}" name="unit" dataDxfId="40"/>
+    <tableColumn id="7" xr3:uid="{0FE63086-717E-4247-A3F3-3C045C41E163}" name="softwareInstruction" dataDxfId="39"/>
+    <tableColumn id="8" xr3:uid="{5BE39654-964A-41A4-A45D-A7632B2EF0F9}" name="heading[en]" dataDxfId="38"/>
+    <tableColumn id="9" xr3:uid="{8F51BC44-57BD-4EFD-A0FE-E30048CA635C}" name="body[en]" dataDxfId="37"/>
+    <tableColumn id="10" xr3:uid="{82851231-3DD8-4CB3-BFFA-BC067A6343A8}" name="statementRefs" dataDxfId="36"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6877096F-2688-4144-AC6D-7F20E2C32A31}" name="Table_measuringSystems" displayName="Table_measuringSystems" ref="A2:H4" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A2:H4" xr:uid="{6877096F-2688-4144-AC6D-7F20E2C32A31}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{D1B09CE5-881B-4A02-979F-EC55338B3706}" name="in DCC" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{F7073E51-C794-49C3-B4B4-A070AEB4DA0B}" name="@id" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{131F4446-19B1-4C0B-AAFE-D6B12F988B29}" name="heading[en]" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{A8295929-1669-444F-A683-A6FA8E11C516}" name="equipmentRefs" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{43FEAE35-8EE9-437A-80D3-AA3641434692}" name="settingRefs" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{722FAF01-129D-4179-9498-6E50C3047DB8}" name="statementRefs" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{39FAF0C4-9BD8-4D08-A7E6-4DF91EB2237B}" name="operationalStatus" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{0B6342C4-1BF6-483A-B6BA-5EE27367FEC4}" name="body[en]" dataDxfId="26"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{341DD7C7-3AA7-42FC-B1AD-05857081B33C}" name="Table_embeddedFiles" displayName="Table_embeddedFiles" ref="A2:E5" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A2:E5" xr:uid="{341DD7C7-3AA7-42FC-B1AD-05857081B33C}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{52A90011-A83C-4C2F-9B2A-2AACDBF2C776}" name="in DCC" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{99F7F93A-5147-442E-A20B-E03DC86839E1}" name="@id" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{65A92561-AB92-4A01-A87B-C05C06BFE17B}" name="heading[en]" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{76795472-CEF9-4776-8FF1-49A7B408718A}" name="body[en]" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{4693961B-D045-4E62-BB1A-1BB8C8B3430C}" name="fileExtension" dataDxfId="19"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{617C5FD8-9DD1-478A-9748-0EC10E9837D5}" name="Table_quantityUnitDefs" displayName="Table_quantityUnitDefs" ref="A2:J4" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A2:J4" xr:uid="{617C5FD8-9DD1-478A-9748-0EC10E9837D5}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{9734F01B-6241-496D-A09C-820B5967BE52}" name="in DCC" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{BA90893B-2012-45E8-BC6F-1A348D6C95E3}" name="@id" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{E9ADC11F-FC8E-4C70-96D2-BC1C7F3CAB37}" name="@quantityCodeSystem" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{5A609FC3-47F1-4B98-A666-09D9932838DA}" name="quantityCode" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{09DD3E02-16B0-4CF2-8812-D20BE439F5C8}" name="unitUsed" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{242135E1-63D9-446B-8FBA-D2B066A37791}" name="functionToSIunit" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{950F032B-9716-469A-A422-750CF4E0AB45}" name="unitSI" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{BCA8D6D1-AAB6-4CC7-A9E7-BEE25F8B3CAF}" name="externalRefs" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{DCD64EF5-43FD-4285-9681-47A3B74CB023}" name="heading[en]" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{15D56973-B90B-4039-842C-ACF89452324B}" name="@statementRefs" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6367,8 +7931,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T863"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6538,7 +8102,7 @@
         <v>871</v>
       </c>
       <c r="G3" t="s">
-        <v>1962</v>
+        <v>1965</v>
       </c>
       <c r="H3" t="s">
         <v>874</v>
@@ -6571,7 +8135,7 @@
         <v>914</v>
       </c>
       <c r="R3" t="s">
-        <v>1241</v>
+        <v>1978</v>
       </c>
       <c r="S3" t="s">
         <v>1953</v>
@@ -6591,7 +8155,7 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>1963</v>
+        <v>1976</v>
       </c>
       <c r="H4" t="s">
         <v>875</v>
@@ -6616,6 +8180,9 @@
       </c>
       <c r="Q4" t="s">
         <v>1709</v>
+      </c>
+      <c r="R4" t="s">
+        <v>1241</v>
       </c>
       <c r="T4" t="s">
         <v>1956</v>
@@ -6632,7 +8199,7 @@
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="H5" t="s">
         <v>876</v>
@@ -6670,7 +8237,7 @@
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="H6" t="s">
         <v>877</v>
@@ -6706,7 +8273,7 @@
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
       <c r="H7" t="s">
         <v>878</v>
@@ -6741,7 +8308,7 @@
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="H8" t="s">
         <v>879</v>
@@ -6770,7 +8337,7 @@
         <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>1968</v>
+        <v>1970</v>
       </c>
       <c r="H9" t="s">
         <v>880</v>
@@ -6796,7 +8363,7 @@
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>1969</v>
+        <v>1977</v>
       </c>
       <c r="H10" t="s">
         <v>881</v>
@@ -6819,7 +8386,7 @@
         <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
       <c r="H11" t="s">
         <v>882</v>
@@ -6842,7 +8409,7 @@
         <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="P12" t="s">
         <v>1695</v>
@@ -6862,7 +8429,7 @@
         <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>1972</v>
+        <v>1969</v>
       </c>
       <c r="P13" t="s">
         <v>1696</v>
@@ -6882,7 +8449,7 @@
         <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="P14" t="s">
         <v>1697</v>
@@ -6902,7 +8469,7 @@
         <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="P15" t="s">
         <v>1698</v>
@@ -6922,7 +8489,7 @@
         <v>21</v>
       </c>
       <c r="G16" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="P16" t="s">
         <v>1699</v>
@@ -6941,6 +8508,9 @@
       <c r="E17" t="s">
         <v>22</v>
       </c>
+      <c r="G17" t="s">
+        <v>1974</v>
+      </c>
       <c r="P17" t="s">
         <v>911</v>
       </c>
@@ -6957,6 +8527,9 @@
       </c>
       <c r="E18" t="s">
         <v>23</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1975</v>
       </c>
       <c r="P18" t="s">
         <v>1700</v>
@@ -14072,4 +15645,4772 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9AE87AB-03A3-41B9-A015-ED10A8CE5152}">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="20.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>2237</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>2238</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>2239</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>2240</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>2241</v>
+      </c>
+      <c r="B5" s="8"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>2242</v>
+      </c>
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>2243</v>
+      </c>
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>2244</v>
+      </c>
+      <c r="B11" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B12" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="9" t="s">
+        <v>2248</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>905</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="9" t="s">
+        <v>2249</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>910</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>906</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="8" t="s">
+        <v>2250</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>905</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>905</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="12" t="s">
+        <v>2251</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>905</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>905</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="12" t="s">
+        <v>2195</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>905</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>905</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="14" t="s">
+        <v>914</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="15" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>1980</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>2247</v>
+      </c>
+      <c r="D20" s="15"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="16" t="s">
+        <v>2252</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="17">
+        <v>1</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>2253</v>
+      </c>
+      <c r="C22" s="19">
+        <v>25</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="17">
+        <v>2</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>2254</v>
+      </c>
+      <c r="C23" s="20">
+        <v>-1.03E-4</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="17">
+        <v>3</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>2255</v>
+      </c>
+      <c r="C24" s="20">
+        <v>3.7900000000000001E-6</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="17">
+        <v>4</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C25" s="20">
+        <v>-1.8900000000000001E-4</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="17">
+        <v>5</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C26" s="20">
+        <v>4.9299999999999999E-5</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="17">
+        <v>6</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C27" s="20">
+        <v>-2.1800000000000001E-5</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{D70B0E20-D352-4441-B8F3-CBF9E99ED2D2}">
+      <formula1>tableCategoryType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{F329D13C-A178-49E9-A81A-035391ED18E6}">
+      <formula1>serviceCategoryType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{81F8622D-8E39-4F20-8DD3-61720EDADCC1}">
+      <formula1>measuringSystemIdRange</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{A730354F-509C-4B74-B8C5-9D53B8764A62}">
+      <formula1>conformityStatusType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10" xr:uid="{74551DD0-944B-4F5A-AFC1-DEBFB6367F27}">
+      <formula1>statementsIdRange</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:D14" xr:uid="{6DD1C744-09D6-4470-ABDC-0D6E9FD593C2}">
+      <formula1>scopeType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:D16" xr:uid="{9788166B-14B0-4500-A981-D6DF7472DC9C}">
+      <formula1>dataCategoryType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:D17" xr:uid="{9F2C68C3-4999-4FBC-A4B5-2FC32973EA53}">
+      <formula1>quantityType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19:D19" xr:uid="{5473249E-1A7C-4BA0-8680-95436BD72C02}">
+      <formula1>quantityUnitDefIdRange</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7A1B6C-3A03-465A-B326-BD35429DD286}">
+  <dimension ref="A1:E108"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>2237</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>2238</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>2239</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>2240</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>2241</v>
+      </c>
+      <c r="B5" s="8"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>2242</v>
+      </c>
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>2243</v>
+      </c>
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>2244</v>
+      </c>
+      <c r="B11" s="8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B12" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="9" t="s">
+        <v>2248</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>903</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>903</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>903</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="9" t="s">
+        <v>2249</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>906</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>906</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>906</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="8" t="s">
+        <v>2250</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>905</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>905</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>905</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="12" t="s">
+        <v>2251</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>919</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>1913</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>914</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="12" t="s">
+        <v>2195</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>2261</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>2263</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>914</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="14" t="s">
+        <v>914</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="21" t="s">
+        <v>2234</v>
+      </c>
+      <c r="E19" s="21"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="15" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>2262</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>2264</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>2265</v>
+      </c>
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="16" t="s">
+        <v>2252</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="17">
+        <v>1</v>
+      </c>
+      <c r="B22" s="19">
+        <v>-200</v>
+      </c>
+      <c r="C22" s="19">
+        <v>4.3023499999999997</v>
+      </c>
+      <c r="D22" s="19">
+        <v>0.10892</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="17">
+        <v>2</v>
+      </c>
+      <c r="B23" s="19">
+        <v>-190</v>
+      </c>
+      <c r="C23" s="19">
+        <v>5.3980699999999997</v>
+      </c>
+      <c r="D23" s="19">
+        <v>0.10995000000000001</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="17">
+        <v>3</v>
+      </c>
+      <c r="B24" s="19">
+        <v>-180</v>
+      </c>
+      <c r="C24" s="19">
+        <v>6.4975399999999999</v>
+      </c>
+      <c r="D24" s="19">
+        <v>0.10982</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="17">
+        <v>4</v>
+      </c>
+      <c r="B25" s="19">
+        <v>-170</v>
+      </c>
+      <c r="C25" s="19">
+        <v>7.5929599999999997</v>
+      </c>
+      <c r="D25" s="19">
+        <v>0.10921</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="17">
+        <v>5</v>
+      </c>
+      <c r="B26" s="19">
+        <v>-160</v>
+      </c>
+      <c r="C26" s="19">
+        <v>8.6812699999999996</v>
+      </c>
+      <c r="D26" s="19">
+        <v>0.10843999999999999</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="17">
+        <v>6</v>
+      </c>
+      <c r="B27" s="19">
+        <v>-150</v>
+      </c>
+      <c r="C27" s="19">
+        <v>9.7616800000000001</v>
+      </c>
+      <c r="D27" s="19">
+        <v>0.10765</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="17">
+        <v>7</v>
+      </c>
+      <c r="B28" s="19">
+        <v>-140</v>
+      </c>
+      <c r="C28" s="19">
+        <v>10.834429999999999</v>
+      </c>
+      <c r="D28" s="19">
+        <v>0.10691000000000001</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="17">
+        <v>8</v>
+      </c>
+      <c r="B29" s="19">
+        <v>-130</v>
+      </c>
+      <c r="C29" s="19">
+        <v>11.900130000000001</v>
+      </c>
+      <c r="D29" s="19">
+        <v>0.10624</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="17">
+        <v>9</v>
+      </c>
+      <c r="B30" s="19">
+        <v>-120</v>
+      </c>
+      <c r="C30" s="19">
+        <v>12.95947</v>
+      </c>
+      <c r="D30" s="19">
+        <v>0.10564</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="17">
+        <v>10</v>
+      </c>
+      <c r="B31" s="19">
+        <v>-110</v>
+      </c>
+      <c r="C31" s="19">
+        <v>14.0131</v>
+      </c>
+      <c r="D31" s="19">
+        <v>0.1051</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="17">
+        <v>11</v>
+      </c>
+      <c r="B32" s="19">
+        <v>-100</v>
+      </c>
+      <c r="C32" s="19">
+        <v>15.061590000000001</v>
+      </c>
+      <c r="D32" s="19">
+        <v>0.10460999999999999</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="17">
+        <v>12</v>
+      </c>
+      <c r="B33" s="19">
+        <v>-90</v>
+      </c>
+      <c r="C33" s="19">
+        <v>16.10539</v>
+      </c>
+      <c r="D33" s="19">
+        <v>0.10416</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="17">
+        <v>13</v>
+      </c>
+      <c r="B34" s="19">
+        <v>-80</v>
+      </c>
+      <c r="C34" s="19">
+        <v>17.144860000000001</v>
+      </c>
+      <c r="D34" s="19">
+        <v>0.10374</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="17">
+        <v>14</v>
+      </c>
+      <c r="B35" s="19">
+        <v>-70</v>
+      </c>
+      <c r="C35" s="19">
+        <v>18.180289999999999</v>
+      </c>
+      <c r="D35" s="19">
+        <v>0.10335</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="17">
+        <v>15</v>
+      </c>
+      <c r="B36" s="19">
+        <v>-60</v>
+      </c>
+      <c r="C36" s="19">
+        <v>19.21191</v>
+      </c>
+      <c r="D36" s="19">
+        <v>0.10298</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="17">
+        <v>16</v>
+      </c>
+      <c r="B37" s="19">
+        <v>-50</v>
+      </c>
+      <c r="C37" s="19">
+        <v>20.239909999999998</v>
+      </c>
+      <c r="D37" s="19">
+        <v>0.10263</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="17">
+        <v>17</v>
+      </c>
+      <c r="B38" s="19">
+        <v>-40</v>
+      </c>
+      <c r="C38" s="19">
+        <v>21.26445</v>
+      </c>
+      <c r="D38" s="19">
+        <v>0.10229000000000001</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="17">
+        <v>18</v>
+      </c>
+      <c r="B39" s="19">
+        <v>-30</v>
+      </c>
+      <c r="C39" s="19">
+        <v>22.28566</v>
+      </c>
+      <c r="D39" s="19">
+        <v>0.10196</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="17">
+        <v>19</v>
+      </c>
+      <c r="B40" s="19">
+        <v>-20</v>
+      </c>
+      <c r="C40" s="19">
+        <v>23.303660000000001</v>
+      </c>
+      <c r="D40" s="19">
+        <v>0.10163999999999999</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="17">
+        <v>20</v>
+      </c>
+      <c r="B41" s="19">
+        <v>-10</v>
+      </c>
+      <c r="C41" s="19">
+        <v>24.318529999999999</v>
+      </c>
+      <c r="D41" s="19">
+        <v>0.10133</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="17">
+        <v>21</v>
+      </c>
+      <c r="B42" s="19">
+        <v>0</v>
+      </c>
+      <c r="C42" s="19">
+        <v>25.33032</v>
+      </c>
+      <c r="D42" s="19">
+        <v>0.10102</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="17">
+        <v>22</v>
+      </c>
+      <c r="B43" s="19">
+        <v>10</v>
+      </c>
+      <c r="C43" s="19">
+        <v>26.338940000000001</v>
+      </c>
+      <c r="D43" s="19">
+        <v>0.10070999999999999</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="17">
+        <v>23</v>
+      </c>
+      <c r="B44" s="19">
+        <v>20</v>
+      </c>
+      <c r="C44" s="19">
+        <v>27.344480000000001</v>
+      </c>
+      <c r="D44" s="19">
+        <v>0.1004</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="17">
+        <v>24</v>
+      </c>
+      <c r="B45" s="19">
+        <v>30</v>
+      </c>
+      <c r="C45" s="19">
+        <v>28.346959999999999</v>
+      </c>
+      <c r="D45" s="19">
+        <v>0.10009999999999999</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="17">
+        <v>25</v>
+      </c>
+      <c r="B46" s="19">
+        <v>40</v>
+      </c>
+      <c r="C46" s="19">
+        <v>29.34638</v>
+      </c>
+      <c r="D46" s="19">
+        <v>9.9790000000000004E-2</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="17">
+        <v>26</v>
+      </c>
+      <c r="B47" s="19">
+        <v>50</v>
+      </c>
+      <c r="C47" s="19">
+        <v>30.342749999999999</v>
+      </c>
+      <c r="D47" s="19">
+        <v>9.9489999999999995E-2</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="17">
+        <v>27</v>
+      </c>
+      <c r="B48" s="19">
+        <v>60</v>
+      </c>
+      <c r="C48" s="19">
+        <v>31.336079999999999</v>
+      </c>
+      <c r="D48" s="19">
+        <v>9.9180000000000004E-2</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="17">
+        <v>28</v>
+      </c>
+      <c r="B49" s="19">
+        <v>70</v>
+      </c>
+      <c r="C49" s="19">
+        <v>32.326369999999997</v>
+      </c>
+      <c r="D49" s="19">
+        <v>9.8879999999999996E-2</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="17">
+        <v>29</v>
+      </c>
+      <c r="B50" s="19">
+        <v>80</v>
+      </c>
+      <c r="C50" s="19">
+        <v>33.313630000000003</v>
+      </c>
+      <c r="D50" s="19">
+        <v>9.8570000000000005E-2</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="17">
+        <v>30</v>
+      </c>
+      <c r="B51" s="19">
+        <v>90</v>
+      </c>
+      <c r="C51" s="19">
+        <v>34.29786</v>
+      </c>
+      <c r="D51" s="19">
+        <v>9.8269999999999996E-2</v>
+      </c>
+      <c r="E51" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="17">
+        <v>31</v>
+      </c>
+      <c r="B52" s="19">
+        <v>100</v>
+      </c>
+      <c r="C52" s="19">
+        <v>35.279069999999997</v>
+      </c>
+      <c r="D52" s="19">
+        <v>9.7970000000000002E-2</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="17">
+        <v>32</v>
+      </c>
+      <c r="B53" s="19">
+        <v>110</v>
+      </c>
+      <c r="C53" s="19">
+        <v>36.257260000000002</v>
+      </c>
+      <c r="D53" s="19">
+        <v>9.7670000000000007E-2</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="17">
+        <v>33</v>
+      </c>
+      <c r="B54" s="19">
+        <v>120</v>
+      </c>
+      <c r="C54" s="19">
+        <v>37.232439999999997</v>
+      </c>
+      <c r="D54" s="19">
+        <v>9.7369999999999998E-2</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="17">
+        <v>34</v>
+      </c>
+      <c r="B55" s="19">
+        <v>130</v>
+      </c>
+      <c r="C55" s="19">
+        <v>38.204610000000002</v>
+      </c>
+      <c r="D55" s="19">
+        <v>9.7070000000000004E-2</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="17">
+        <v>35</v>
+      </c>
+      <c r="B56" s="19">
+        <v>140</v>
+      </c>
+      <c r="C56" s="19">
+        <v>39.173780000000001</v>
+      </c>
+      <c r="D56" s="19">
+        <v>9.6769999999999995E-2</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="17">
+        <v>36</v>
+      </c>
+      <c r="B57" s="19">
+        <v>150</v>
+      </c>
+      <c r="C57" s="19">
+        <v>40.139949999999999</v>
+      </c>
+      <c r="D57" s="19">
+        <v>9.647E-2</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="17">
+        <v>37</v>
+      </c>
+      <c r="B58" s="19">
+        <v>160</v>
+      </c>
+      <c r="C58" s="19">
+        <v>41.10313</v>
+      </c>
+      <c r="D58" s="19">
+        <v>9.6170000000000005E-2</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="17">
+        <v>38</v>
+      </c>
+      <c r="B59" s="19">
+        <v>170</v>
+      </c>
+      <c r="C59" s="19">
+        <v>42.063330000000001</v>
+      </c>
+      <c r="D59" s="19">
+        <v>9.5869999999999997E-2</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="17">
+        <v>39</v>
+      </c>
+      <c r="B60" s="19">
+        <v>180</v>
+      </c>
+      <c r="C60" s="19">
+        <v>43.020539999999997</v>
+      </c>
+      <c r="D60" s="19">
+        <v>9.5570000000000002E-2</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="17">
+        <v>40</v>
+      </c>
+      <c r="B61" s="19">
+        <v>190</v>
+      </c>
+      <c r="C61" s="19">
+        <v>43.974769999999999</v>
+      </c>
+      <c r="D61" s="19">
+        <v>9.5280000000000004E-2</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="17">
+        <v>41</v>
+      </c>
+      <c r="B62" s="19">
+        <v>200</v>
+      </c>
+      <c r="C62" s="19">
+        <v>44.92604</v>
+      </c>
+      <c r="D62" s="19">
+        <v>9.4979999999999995E-2</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="17">
+        <v>42</v>
+      </c>
+      <c r="B63" s="19">
+        <v>210</v>
+      </c>
+      <c r="C63" s="19">
+        <v>45.874339999999997</v>
+      </c>
+      <c r="D63" s="19">
+        <v>9.468E-2</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="17">
+        <v>43</v>
+      </c>
+      <c r="B64" s="19">
+        <v>220</v>
+      </c>
+      <c r="C64" s="19">
+        <v>46.819679999999998</v>
+      </c>
+      <c r="D64" s="19">
+        <v>9.4390000000000002E-2</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="17">
+        <v>44</v>
+      </c>
+      <c r="B65" s="19">
+        <v>230</v>
+      </c>
+      <c r="C65" s="19">
+        <v>47.762059999999998</v>
+      </c>
+      <c r="D65" s="19">
+        <v>9.4089999999999993E-2</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="17">
+        <v>45</v>
+      </c>
+      <c r="B66" s="19">
+        <v>240</v>
+      </c>
+      <c r="C66" s="19">
+        <v>48.70149</v>
+      </c>
+      <c r="D66" s="19">
+        <v>9.3799999999999994E-2</v>
+      </c>
+      <c r="E66" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="17">
+        <v>46</v>
+      </c>
+      <c r="B67" s="19">
+        <v>250</v>
+      </c>
+      <c r="C67" s="19">
+        <v>49.637970000000003</v>
+      </c>
+      <c r="D67" s="19">
+        <v>9.35E-2</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="17">
+        <v>47</v>
+      </c>
+      <c r="B68" s="19">
+        <v>260</v>
+      </c>
+      <c r="C68" s="19">
+        <v>50.57152</v>
+      </c>
+      <c r="D68" s="19">
+        <v>9.3210000000000001E-2</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="17">
+        <v>48</v>
+      </c>
+      <c r="B69" s="19">
+        <v>270</v>
+      </c>
+      <c r="C69" s="19">
+        <v>51.502119999999998</v>
+      </c>
+      <c r="D69" s="19">
+        <v>9.2910000000000006E-2</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="17">
+        <v>49</v>
+      </c>
+      <c r="B70" s="19">
+        <v>280</v>
+      </c>
+      <c r="C70" s="19">
+        <v>52.429789999999997</v>
+      </c>
+      <c r="D70" s="19">
+        <v>9.2619999999999994E-2</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="17">
+        <v>50</v>
+      </c>
+      <c r="B71" s="19">
+        <v>290</v>
+      </c>
+      <c r="C71" s="19">
+        <v>53.354520000000001</v>
+      </c>
+      <c r="D71" s="19">
+        <v>9.2329999999999995E-2</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="17">
+        <v>51</v>
+      </c>
+      <c r="B72" s="19">
+        <v>300</v>
+      </c>
+      <c r="C72" s="19">
+        <v>54.276330000000002</v>
+      </c>
+      <c r="D72" s="19">
+        <v>9.2030000000000001E-2</v>
+      </c>
+      <c r="E72" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="17">
+        <v>52</v>
+      </c>
+      <c r="B73" s="19">
+        <v>310</v>
+      </c>
+      <c r="C73" s="19">
+        <v>55.1952</v>
+      </c>
+      <c r="D73" s="19">
+        <v>9.1740000000000002E-2</v>
+      </c>
+      <c r="E73" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="17">
+        <v>53</v>
+      </c>
+      <c r="B74" s="19">
+        <v>320</v>
+      </c>
+      <c r="C74" s="19">
+        <v>56.111150000000002</v>
+      </c>
+      <c r="D74" s="19">
+        <v>9.1450000000000004E-2</v>
+      </c>
+      <c r="E74" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="17">
+        <v>54</v>
+      </c>
+      <c r="B75" s="19">
+        <v>330</v>
+      </c>
+      <c r="C75" s="19">
+        <v>57.024169999999998</v>
+      </c>
+      <c r="D75" s="19">
+        <v>9.1160000000000005E-2</v>
+      </c>
+      <c r="E75" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="17">
+        <v>55</v>
+      </c>
+      <c r="B76" s="19">
+        <v>340</v>
+      </c>
+      <c r="C76" s="19">
+        <v>57.934269999999998</v>
+      </c>
+      <c r="D76" s="19">
+        <v>9.0859999999999996E-2</v>
+      </c>
+      <c r="E76" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="17">
+        <v>56</v>
+      </c>
+      <c r="B77" s="19">
+        <v>350</v>
+      </c>
+      <c r="C77" s="19">
+        <v>58.841430000000003</v>
+      </c>
+      <c r="D77" s="19">
+        <v>9.0569999999999998E-2</v>
+      </c>
+      <c r="E77" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="17">
+        <v>57</v>
+      </c>
+      <c r="B78" s="19">
+        <v>360</v>
+      </c>
+      <c r="C78" s="19">
+        <v>59.745669999999997</v>
+      </c>
+      <c r="D78" s="19">
+        <v>9.0279999999999999E-2</v>
+      </c>
+      <c r="E78" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="17">
+        <v>58</v>
+      </c>
+      <c r="B79" s="19">
+        <v>370</v>
+      </c>
+      <c r="C79" s="19">
+        <v>60.646970000000003</v>
+      </c>
+      <c r="D79" s="19">
+        <v>8.9980000000000004E-2</v>
+      </c>
+      <c r="E79" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="17">
+        <v>59</v>
+      </c>
+      <c r="B80" s="19">
+        <v>380</v>
+      </c>
+      <c r="C80" s="19">
+        <v>61.545340000000003</v>
+      </c>
+      <c r="D80" s="19">
+        <v>8.9690000000000006E-2</v>
+      </c>
+      <c r="E80" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="17">
+        <v>60</v>
+      </c>
+      <c r="B81" s="19">
+        <v>390</v>
+      </c>
+      <c r="C81" s="19">
+        <v>62.440770000000001</v>
+      </c>
+      <c r="D81" s="19">
+        <v>8.9399999999999993E-2</v>
+      </c>
+      <c r="E81" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="17">
+        <v>61</v>
+      </c>
+      <c r="B82" s="19">
+        <v>400</v>
+      </c>
+      <c r="C82" s="19">
+        <v>63.333260000000003</v>
+      </c>
+      <c r="D82" s="19">
+        <v>8.9099999999999999E-2</v>
+      </c>
+      <c r="E82" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="17">
+        <v>62</v>
+      </c>
+      <c r="B83" s="19">
+        <v>410</v>
+      </c>
+      <c r="C83" s="19">
+        <v>64.222800000000007</v>
+      </c>
+      <c r="D83" s="19">
+        <v>8.881E-2</v>
+      </c>
+      <c r="E83" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="17">
+        <v>63</v>
+      </c>
+      <c r="B84" s="19">
+        <v>420</v>
+      </c>
+      <c r="C84" s="19">
+        <v>65.109390000000005</v>
+      </c>
+      <c r="D84" s="19">
+        <v>8.8510000000000005E-2</v>
+      </c>
+      <c r="E84" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="17">
+        <v>64</v>
+      </c>
+      <c r="B85" s="19">
+        <v>430</v>
+      </c>
+      <c r="C85" s="19">
+        <v>65.993020000000001</v>
+      </c>
+      <c r="D85" s="19">
+        <v>8.8220000000000007E-2</v>
+      </c>
+      <c r="E85" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="17">
+        <v>65</v>
+      </c>
+      <c r="B86" s="19">
+        <v>440</v>
+      </c>
+      <c r="C86" s="19">
+        <v>66.873679999999993</v>
+      </c>
+      <c r="D86" s="19">
+        <v>8.7919999999999998E-2</v>
+      </c>
+      <c r="E86" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="17">
+        <v>66</v>
+      </c>
+      <c r="B87" s="19">
+        <v>450</v>
+      </c>
+      <c r="C87" s="19">
+        <v>67.751369999999994</v>
+      </c>
+      <c r="D87" s="19">
+        <v>8.7620000000000003E-2</v>
+      </c>
+      <c r="E87" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="17">
+        <v>67</v>
+      </c>
+      <c r="B88" s="19">
+        <v>460</v>
+      </c>
+      <c r="C88" s="19">
+        <v>68.626080000000002</v>
+      </c>
+      <c r="D88" s="19">
+        <v>8.7319999999999995E-2</v>
+      </c>
+      <c r="E88" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="17">
+        <v>68</v>
+      </c>
+      <c r="B89" s="19">
+        <v>470</v>
+      </c>
+      <c r="C89" s="19">
+        <v>69.497810000000001</v>
+      </c>
+      <c r="D89" s="19">
+        <v>8.702E-2</v>
+      </c>
+      <c r="E89" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="17">
+        <v>69</v>
+      </c>
+      <c r="B90" s="19">
+        <v>480</v>
+      </c>
+      <c r="C90" s="19">
+        <v>70.366529999999997</v>
+      </c>
+      <c r="D90" s="19">
+        <v>8.6720000000000005E-2</v>
+      </c>
+      <c r="E90" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="17">
+        <v>70</v>
+      </c>
+      <c r="B91" s="19">
+        <v>490</v>
+      </c>
+      <c r="C91" s="19">
+        <v>71.232249999999993</v>
+      </c>
+      <c r="D91" s="19">
+        <v>8.6419999999999997E-2</v>
+      </c>
+      <c r="E91" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="17">
+        <v>71</v>
+      </c>
+      <c r="B92" s="19">
+        <v>500</v>
+      </c>
+      <c r="C92" s="19">
+        <v>72.09496</v>
+      </c>
+      <c r="D92" s="19">
+        <v>8.6120000000000002E-2</v>
+      </c>
+      <c r="E92" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="17">
+        <v>72</v>
+      </c>
+      <c r="B93" s="19">
+        <v>520</v>
+      </c>
+      <c r="C93" s="19">
+        <v>73.81129</v>
+      </c>
+      <c r="D93" s="19">
+        <v>8.5510000000000003E-2</v>
+      </c>
+      <c r="E93" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="17">
+        <v>73</v>
+      </c>
+      <c r="B94" s="19">
+        <v>530</v>
+      </c>
+      <c r="C94" s="19">
+        <v>74.664900000000003</v>
+      </c>
+      <c r="D94" s="19">
+        <v>8.5209999999999994E-2</v>
+      </c>
+      <c r="E94" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="17">
+        <v>74</v>
+      </c>
+      <c r="B95" s="19">
+        <v>540</v>
+      </c>
+      <c r="C95" s="19">
+        <v>75.515450000000001</v>
+      </c>
+      <c r="D95" s="19">
+        <v>8.4900000000000003E-2</v>
+      </c>
+      <c r="E95" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="17">
+        <v>75</v>
+      </c>
+      <c r="B96" s="19">
+        <v>550</v>
+      </c>
+      <c r="C96" s="19">
+        <v>76.362939999999995</v>
+      </c>
+      <c r="D96" s="19">
+        <v>8.4599999999999995E-2</v>
+      </c>
+      <c r="E96" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="17">
+        <v>76</v>
+      </c>
+      <c r="B97" s="19">
+        <v>560</v>
+      </c>
+      <c r="C97" s="19">
+        <v>77.207359999999994</v>
+      </c>
+      <c r="D97" s="19">
+        <v>8.4290000000000004E-2</v>
+      </c>
+      <c r="E97" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="17">
+        <v>77</v>
+      </c>
+      <c r="B98" s="19">
+        <v>570</v>
+      </c>
+      <c r="C98" s="19">
+        <v>78.048699999999997</v>
+      </c>
+      <c r="D98" s="19">
+        <v>8.3979999999999999E-2</v>
+      </c>
+      <c r="E98" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="17">
+        <v>78</v>
+      </c>
+      <c r="B99" s="19">
+        <v>580</v>
+      </c>
+      <c r="C99" s="19">
+        <v>78.886949999999999</v>
+      </c>
+      <c r="D99" s="19">
+        <v>8.3669999999999994E-2</v>
+      </c>
+      <c r="E99" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="17">
+        <v>79</v>
+      </c>
+      <c r="B100" s="19">
+        <v>590</v>
+      </c>
+      <c r="C100" s="19">
+        <v>79.722110000000001</v>
+      </c>
+      <c r="D100" s="19">
+        <v>8.3360000000000004E-2</v>
+      </c>
+      <c r="E100" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="17">
+        <v>80</v>
+      </c>
+      <c r="B101" s="19">
+        <v>600</v>
+      </c>
+      <c r="C101" s="19">
+        <v>80.554150000000007</v>
+      </c>
+      <c r="D101" s="19">
+        <v>8.3049999999999999E-2</v>
+      </c>
+      <c r="E101" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="17">
+        <v>81</v>
+      </c>
+      <c r="B102" s="19">
+        <v>610</v>
+      </c>
+      <c r="C102" s="19">
+        <v>81.383089999999996</v>
+      </c>
+      <c r="D102" s="19">
+        <v>8.2739999999999994E-2</v>
+      </c>
+      <c r="E102" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="17">
+        <v>82</v>
+      </c>
+      <c r="B103" s="19">
+        <v>620</v>
+      </c>
+      <c r="C103" s="19">
+        <v>82.2089</v>
+      </c>
+      <c r="D103" s="19">
+        <v>8.2430000000000003E-2</v>
+      </c>
+      <c r="E103" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="17">
+        <v>83</v>
+      </c>
+      <c r="B104" s="19">
+        <v>630</v>
+      </c>
+      <c r="C104" s="19">
+        <v>83.031589999999994</v>
+      </c>
+      <c r="D104" s="19">
+        <v>8.2110000000000002E-2</v>
+      </c>
+      <c r="E104" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="17">
+        <v>84</v>
+      </c>
+      <c r="B105" s="19">
+        <v>640</v>
+      </c>
+      <c r="C105" s="19">
+        <v>83.851140000000001</v>
+      </c>
+      <c r="D105" s="19">
+        <v>8.1799999999999998E-2</v>
+      </c>
+      <c r="E105" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="17">
+        <v>85</v>
+      </c>
+      <c r="B106" s="19">
+        <v>650</v>
+      </c>
+      <c r="C106" s="19">
+        <v>84.667559999999995</v>
+      </c>
+      <c r="D106" s="19">
+        <v>8.1490000000000007E-2</v>
+      </c>
+      <c r="E106" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="17">
+        <v>86</v>
+      </c>
+      <c r="B107" s="19">
+        <v>660</v>
+      </c>
+      <c r="C107" s="19">
+        <v>85.480829999999997</v>
+      </c>
+      <c r="D107" s="19">
+        <v>8.1170000000000006E-2</v>
+      </c>
+      <c r="E107" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="17">
+        <v>87</v>
+      </c>
+      <c r="B108" s="19">
+        <v>670</v>
+      </c>
+      <c r="C108" s="19">
+        <v>86.290959999999998</v>
+      </c>
+      <c r="D108" s="19">
+        <v>8.0860000000000001E-2</v>
+      </c>
+      <c r="E108" s="19" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{7FCD071A-58CC-464F-B766-581789A9EFA3}">
+      <formula1>tableCategoryType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{5B792EAA-1D32-487D-90BE-D377395A837D}">
+      <formula1>serviceCategoryType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{90962976-DC07-409A-BDAD-AAF838723B5C}">
+      <formula1>measuringSystemIdRange</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{B2BF689B-2803-4DDA-9295-B9654D6E40DB}">
+      <formula1>conformityStatusType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10" xr:uid="{598A913A-8764-4D28-A066-F5A64E5622EE}">
+      <formula1>statementsIdRange</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:E14" xr:uid="{EC954ABD-DEA6-4842-ADDB-31D29FC3D520}">
+      <formula1>scopeType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:E16" xr:uid="{A9AC42FD-3408-4ABE-813E-AD3AFA62C8DE}">
+      <formula1>dataCategoryType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:E17" xr:uid="{011367EC-CBF1-4270-828A-47CB877CDFDC}">
+      <formula1>quantityType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19:E19" xr:uid="{B5BCF73A-C0E9-4955-822B-A633B1E665FB}">
+      <formula1>quantityUnitDefIdRange</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{168AD71D-1323-4BC5-9F31-2748DB69271B}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="30.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>2237</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>2238</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>2239</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>2240</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>2241</v>
+      </c>
+      <c r="B5" s="8"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>2242</v>
+      </c>
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>2243</v>
+      </c>
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>2244</v>
+      </c>
+      <c r="B11" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B12" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="9" t="s">
+        <v>2248</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>905</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>891</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>903</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>903</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>903</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="9" t="s">
+        <v>2249</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>910</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>906</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>906</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>906</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>913</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="8" t="s">
+        <v>2250</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>905</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>905</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>905</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>905</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>905</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="12" t="s">
+        <v>2251</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>905</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>919</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>1913</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="12" t="s">
+        <v>2195</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>905</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>2261</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>2263</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>2232</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>2232</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="14" t="s">
+        <v>914</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="18"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="15" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>1980</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>2269</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>2270</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>2277</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>2277</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="16" t="s">
+        <v>2252</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="18"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="17">
+        <v>1</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>2274</v>
+      </c>
+      <c r="C22" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="D22" s="19">
+        <v>25.33136</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="18"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="17">
+        <v>2</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>2275</v>
+      </c>
+      <c r="C23" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="D23" s="19">
+        <v>25.33126</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="17">
+        <v>3</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>2276</v>
+      </c>
+      <c r="C24" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="D24" s="19">
+        <v>25.331399999999999</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="18"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="17">
+        <v>4</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>2233</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19">
+        <v>1</v>
+      </c>
+      <c r="F25" s="19">
+        <v>3</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>902</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{60369922-50B5-4348-9ACF-7D8553987008}">
+      <formula1>tableCategoryType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{235C3042-75B3-4119-B0B6-26D4509CFBBE}">
+      <formula1>serviceCategoryType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{018F0DFD-58C8-4597-BA61-A74E0983A809}">
+      <formula1>measuringSystemIdRange</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{1C8D583A-248F-4FB9-B456-66B2D54B2F11}">
+      <formula1>conformityStatusType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10" xr:uid="{E51FC98F-2E97-4DFA-9432-001C755ADD9B}">
+      <formula1>statementsIdRange</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:G14" xr:uid="{A51B26F0-7E4F-40E9-BD48-9CC6B7A71244}">
+      <formula1>scopeType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:G15 B16:G16" xr:uid="{DBD229D4-5E1E-4525-966A-EA6869E80E97}">
+      <formula1>dataCategoryType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:G17" xr:uid="{18B80207-5C5C-4FFE-A440-DD61F8E8A7BA}">
+      <formula1>quantityType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19:G19" xr:uid="{E18E3925-814B-41D1-B979-80188DD76C52}">
+      <formula1>quantityUnitDefIdRange</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A14395-BBDC-45D9-8AA3-6B693FE26714}">
+  <dimension ref="A1:D53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="79.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="97.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1983</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" t="s">
+        <v>906</v>
+      </c>
+      <c r="C5" s="4">
+        <v>4500014955</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1993</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" t="s">
+        <v>906</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C8" s="5">
+        <v>44733</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C9" s="5">
+        <v>44733</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" t="s">
+        <v>1999</v>
+      </c>
+      <c r="C10" s="5">
+        <v>44733</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" t="s">
+        <v>2001</v>
+      </c>
+      <c r="C11" s="5">
+        <v>45041</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>2012</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>2015</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="B17" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>2018</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="B19" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>2024</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="4" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>2027</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="B22" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="B23" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>2033</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="B24" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="B25" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C25" s="4">
+        <v>84000</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="B26" t="s">
+        <v>2039</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>2041</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="B27" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" t="s">
+        <v>2039</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>2041</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="4" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>2047</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="B30" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>2050</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="B31" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>2053</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="B32" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>2056</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="4" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="B34" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>2059</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="B35" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="B36" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>2064</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="B37" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>2067</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="B38" t="s">
+        <v>2068</v>
+      </c>
+      <c r="C38" s="4">
+        <v>17025</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="B39" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="4" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>2074</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="B41" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>2076</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="B42" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C42" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="4" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="B44" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>2082</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="4" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>2027</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="B46" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="B47" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="B48" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>2088</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="B49" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="4" t="s">
+        <v>2090</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>2047</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="B51" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="D51" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="B52" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="B53" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47B96C9-6218-4C0A-BB76-24DB830C0B31}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" customWidth="1"/>
+    <col min="5" max="5" width="30.6328125" customWidth="1"/>
+    <col min="6" max="6" width="50.6328125" customWidth="1"/>
+    <col min="7" max="7" width="18.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="6" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2098</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2099</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>1979</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>2100</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="29">
+      <c r="A3" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>2104</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>2105</v>
+      </c>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="174">
+      <c r="A4" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>2107</v>
+      </c>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="116">
+      <c r="A5" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>2108</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>2109</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="101.5">
+      <c r="A6" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>2111</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>2112</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" ht="29">
+      <c r="A7" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>2114</v>
+      </c>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" ht="29">
+      <c r="A8" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>878</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>2116</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>2117</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" ht="58">
+      <c r="A9" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>2118</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>2119</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>2120</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="246.5">
+      <c r="A10" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>2123</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>2124</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="261">
+      <c r="A11" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>2126</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>881</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>2127</v>
+      </c>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" ht="159.5">
+      <c r="A12" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>2129</v>
+      </c>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" ht="159.5">
+      <c r="A13" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>2131</v>
+      </c>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>2132</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>2133</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>2134</v>
+      </c>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>2135</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>2136</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>2137</v>
+      </c>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>2138</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>2139</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>2140</v>
+      </c>
+      <c r="G16" s="6"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C16" xr:uid="{A603F443-C153-4DDA-8291-938746234C50}">
+      <formula1>statementCategoryType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D16" xr:uid="{48C8BE22-2D6E-4428-B1B1-B25962A2F5C1}">
+      <formula1>embeddedFilesIdRange</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307AF843-AE0D-467B-A8F7-FCADFD408047}">
+  <dimension ref="A1:R12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" customWidth="1"/>
+    <col min="4" max="4" width="30.6328125" customWidth="1"/>
+    <col min="5" max="6" width="14.36328125" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" customWidth="1"/>
+    <col min="8" max="8" width="16.26953125" customWidth="1"/>
+    <col min="9" max="9" width="20.36328125" customWidth="1"/>
+    <col min="10" max="10" width="14.81640625" customWidth="1"/>
+    <col min="11" max="11" width="23.81640625" customWidth="1"/>
+    <col min="12" max="12" width="18.26953125" customWidth="1"/>
+    <col min="13" max="13" width="21" customWidth="1"/>
+    <col min="14" max="14" width="15.453125" customWidth="1"/>
+    <col min="15" max="15" width="13.54296875" customWidth="1"/>
+    <col min="16" max="16" width="12.453125" customWidth="1"/>
+    <col min="18" max="18" width="13.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="6" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2098</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2099</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>895</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>2142</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>2143</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>2144</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>2145</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>2146</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>2147</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>2148</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>2149</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>2150</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>2151</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>2152</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>2153</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>887</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
+        <v>2157</v>
+      </c>
+      <c r="J3" s="6">
+        <v>2286</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>2157</v>
+      </c>
+      <c r="L3" s="6">
+        <v>2286</v>
+      </c>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="24" t="s">
+        <v>2282</v>
+      </c>
+      <c r="P3" s="24" t="s">
+        <v>2283</v>
+      </c>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+    </row>
+    <row r="4" spans="1:18" ht="29">
+      <c r="A4" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>2159</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>2160</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>2161</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6">
+        <v>5683</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6" t="s">
+        <v>2162</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>2163</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>2284</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>2285</v>
+      </c>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+    </row>
+    <row r="5" spans="1:18" ht="43.5">
+      <c r="A5" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>2164</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>2160</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>2165</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6" t="s">
+        <v>2166</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6" t="s">
+        <v>2162</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>2167</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>2286</v>
+      </c>
+      <c r="P5" s="24" t="s">
+        <v>2287</v>
+      </c>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+    </row>
+    <row r="6" spans="1:18" ht="58">
+      <c r="A6" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>2160</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>2169</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6">
+        <v>5683</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6" t="s">
+        <v>2162</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>2170</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>2288</v>
+      </c>
+      <c r="P6" s="24" t="s">
+        <v>2289</v>
+      </c>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+    </row>
+    <row r="7" spans="1:18" ht="29">
+      <c r="A7" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>2171</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>2160</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>2172</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>2166</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6" t="s">
+        <v>2162</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>2173</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>2290</v>
+      </c>
+      <c r="P7" s="24" t="s">
+        <v>2291</v>
+      </c>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+    </row>
+    <row r="8" spans="1:18" ht="29">
+      <c r="A8" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>2174</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>2160</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>2175</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>2166</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6" t="s">
+        <v>2162</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>2176</v>
+      </c>
+      <c r="O8" s="24" t="s">
+        <v>2292</v>
+      </c>
+      <c r="P8" s="24" t="s">
+        <v>2293</v>
+      </c>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+    </row>
+    <row r="9" spans="1:18" ht="43.5">
+      <c r="A9" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>2177</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>2178</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>2179</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>2180</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6" t="s">
+        <v>2162</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>2181</v>
+      </c>
+      <c r="O9" s="24" t="s">
+        <v>2294</v>
+      </c>
+      <c r="P9" s="24" t="s">
+        <v>2295</v>
+      </c>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+    </row>
+    <row r="10" spans="1:18" ht="43.5">
+      <c r="A10" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>2182</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>2178</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>2179</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6">
+        <v>5945</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6" t="s">
+        <v>2162</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>2183</v>
+      </c>
+      <c r="O10" s="24" t="s">
+        <v>2296</v>
+      </c>
+      <c r="P10" s="24" t="s">
+        <v>2297</v>
+      </c>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+    </row>
+    <row r="11" spans="1:18" ht="43.5">
+      <c r="A11" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>2184</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>2178</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>2179</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>2185</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6" t="s">
+        <v>2162</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>2186</v>
+      </c>
+      <c r="O11" s="24" t="s">
+        <v>2298</v>
+      </c>
+      <c r="P11" s="24" t="s">
+        <v>2299</v>
+      </c>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+    </row>
+    <row r="12" spans="1:18" ht="29">
+      <c r="A12" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>2187</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>2160</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>2188</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6" t="s">
+        <v>2189</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6" t="s">
+        <v>2162</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>2190</v>
+      </c>
+      <c r="O12" s="24" t="s">
+        <v>2300</v>
+      </c>
+      <c r="P12" s="24" t="s">
+        <v>2301</v>
+      </c>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C12" xr:uid="{C8239411-8BB1-43AD-A224-06A25EB8108D}">
+      <formula1>equipmentCategoryType</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89662AF6-3DE0-4DAB-9BB6-207E0B2589C2}">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="16.54296875" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" customWidth="1"/>
+    <col min="7" max="7" width="19.453125" customWidth="1"/>
+    <col min="8" max="8" width="30.6328125" customWidth="1"/>
+    <col min="9" max="9" width="50.6328125" customWidth="1"/>
+    <col min="10" max="10" width="15.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="6" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2192</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2193</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2194</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>906</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>2195</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>2196</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>1979</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>2100</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="29">
+      <c r="A3" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2199</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>2200</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>2201</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>2155</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>2202</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>2278</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>905</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="29">
+      <c r="A5" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>2203</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>2155</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>2204</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>2205</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>905</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C5" xr:uid="{8D8666F1-7DB0-47B1-9E58-27DD98B7ADEE}">
+      <formula1>equipIdRange</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F74FC2-4A49-4398-87B7-A6BB98F9E822}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6328125" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" customWidth="1"/>
+    <col min="5" max="5" width="12.08984375" customWidth="1"/>
+    <col min="6" max="6" width="15.08984375" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" customWidth="1"/>
+    <col min="8" max="8" width="50.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="6" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2098</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2207</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>2208</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>2197</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>2209</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="72.5">
+      <c r="A3" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>2210</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2211</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2212</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>2213</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>2214</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="72.5">
+      <c r="A4" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>2280</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>2211</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>2212</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>2213</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>2281</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>905</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G4" xr:uid="{E71D2E6F-AEAA-4D02-816C-BDD5327643B8}">
+      <formula1>operationalStatusType</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C610E6-299F-4D84-BDF5-17750D030607}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6328125" customWidth="1"/>
+    <col min="3" max="3" width="30.6328125" customWidth="1"/>
+    <col min="4" max="4" width="50.6328125" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2098</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2100</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2220</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>2221</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>2222</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>2221</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>2223</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>2221</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDCEEF5B-D38C-4579-9288-F9299D1D9FBA}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" customWidth="1"/>
+    <col min="6" max="6" width="16.7265625" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" customWidth="1"/>
+    <col min="9" max="9" width="30.6328125" customWidth="1"/>
+    <col min="10" max="10" width="16.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="6" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2098</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2224</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2225</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>2226</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>2227</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>2228</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>2229</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>1979</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="29">
+      <c r="A3" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>2231</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>919</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>1596</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7" t="s">
+        <v>2232</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
+        <v>2233</v>
+      </c>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" ht="29">
+      <c r="A4" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>2234</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>893</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7" t="s">
+        <v>2235</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7" t="s">
+        <v>2235</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6" t="s">
+        <v>2236</v>
+      </c>
+      <c r="J4" s="6"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C4" xr:uid="{9239A420-6A9C-4D81-9968-B6C20A3AB3A6}">
+      <formula1>quantityCodeSystemType</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B4DE56-B4C8-46C3-8CF6-4E48648FFAF8}">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>2237</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>2238</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>2239</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>2240</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>2241</v>
+      </c>
+      <c r="B5" s="8"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>2242</v>
+      </c>
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>2243</v>
+      </c>
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>2244</v>
+      </c>
+      <c r="B11" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B12" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="9" t="s">
+        <v>2248</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>905</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>891</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>903</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>903</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="9" t="s">
+        <v>2249</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>910</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>906</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>906</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>907</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="8" t="s">
+        <v>2250</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>905</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>905</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>905</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>905</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="12" t="s">
+        <v>2251</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>905</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>919</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>1913</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>919</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="12" t="s">
+        <v>2195</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>905</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>2261</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>2263</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>2232</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="14" t="s">
+        <v>914</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="15" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>1980</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>2269</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>2270</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>2271</v>
+      </c>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="16" t="s">
+        <v>2252</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="17">
+        <v>1</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>2267</v>
+      </c>
+      <c r="C22" s="19">
+        <v>-197</v>
+      </c>
+      <c r="D22" s="19">
+        <v>4.6299000000000001</v>
+      </c>
+      <c r="E22" s="19">
+        <v>6</v>
+      </c>
+      <c r="F22" s="19"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="17">
+        <v>2</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>2267</v>
+      </c>
+      <c r="C23" s="19">
+        <v>-80</v>
+      </c>
+      <c r="D23" s="19">
+        <v>17.144829999999999</v>
+      </c>
+      <c r="E23" s="19">
+        <v>6</v>
+      </c>
+      <c r="F23" s="19"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="17">
+        <v>3</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>2267</v>
+      </c>
+      <c r="C24" s="19">
+        <v>-38.834000000000003</v>
+      </c>
+      <c r="D24" s="19">
+        <v>21.38374</v>
+      </c>
+      <c r="E24" s="19">
+        <v>6</v>
+      </c>
+      <c r="F24" s="19"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="17">
+        <v>4</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>2267</v>
+      </c>
+      <c r="C25" s="19">
+        <v>-0.01</v>
+      </c>
+      <c r="D25" s="19">
+        <v>25.331330000000001</v>
+      </c>
+      <c r="E25" s="19">
+        <v>4</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="17">
+        <v>5</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>2268</v>
+      </c>
+      <c r="C26" s="19">
+        <v>156.59899999999999</v>
+      </c>
+      <c r="D26" s="19">
+        <v>40.775889999999997</v>
+      </c>
+      <c r="E26" s="19">
+        <v>6</v>
+      </c>
+      <c r="F26" s="19"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="17">
+        <v>6</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>2268</v>
+      </c>
+      <c r="C27" s="19">
+        <v>231.928</v>
+      </c>
+      <c r="D27" s="19">
+        <v>47.94341</v>
+      </c>
+      <c r="E27" s="19">
+        <v>7</v>
+      </c>
+      <c r="F27" s="19"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="17">
+        <v>7</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>2268</v>
+      </c>
+      <c r="C28" s="19">
+        <v>419.52699999999999</v>
+      </c>
+      <c r="D28" s="19">
+        <v>65.067520000000002</v>
+      </c>
+      <c r="E28" s="19">
+        <v>9</v>
+      </c>
+      <c r="F28" s="19"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="17">
+        <v>8</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>2268</v>
+      </c>
+      <c r="C29" s="19">
+        <v>660.32299999999998</v>
+      </c>
+      <c r="D29" s="19">
+        <v>85.507050000000007</v>
+      </c>
+      <c r="E29" s="19">
+        <v>14</v>
+      </c>
+      <c r="F29" s="19"/>
+    </row>
+  </sheetData>
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{052AF346-4789-4CD7-BD7D-92D8EEA27410}">
+      <formula1>tableCategoryType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{400C6060-96F2-4FF5-BA78-2B92402DE986}">
+      <formula1>serviceCategoryType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{CD2AAFB4-56D2-4AE8-8BF2-BC8862C46338}">
+      <formula1>measuringSystemIdRange</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{E0F95C05-F71D-4A72-B6AF-86AD83B6E5D0}">
+      <formula1>conformityStatusType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10" xr:uid="{6168A175-28C9-407A-8F65-B2C17736A7F9}">
+      <formula1>statementsIdRange</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:F14" xr:uid="{CDD43097-AD6B-40E4-98A2-7196971127A9}">
+      <formula1>scopeType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:F15 B16:F16" xr:uid="{B9433085-98EC-41D9-9339-F6582E9018BA}">
+      <formula1>dataCategoryType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:F17" xr:uid="{69A0FB5B-BB7E-4EC6-8AA8-C8E251BE4F7E}">
+      <formula1>quantityType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19:G19" xr:uid="{A639075B-1051-42AF-9ED8-3BE7E10B5B35}">
+      <formula1>quantityUnitDefIdRange</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>